--- a/JY Fundamental Data 2017 10.xlsx
+++ b/JY Fundamental Data 2017 10.xlsx
@@ -4,19 +4,21 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="75" windowWidth="21495" windowHeight="10020" activeTab="1"/>
+    <workbookView xWindow="600" yWindow="75" windowWidth="21495" windowHeight="10020" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="MainIndexNew" sheetId="1" r:id="rId1"/>
     <sheet name="Data Item" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="相关VIew" sheetId="3" r:id="rId3"/>
+    <sheet name="信用的中位数" sheetId="4" r:id="rId4"/>
+    <sheet name="CashDividend" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1033" uniqueCount="708">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1049" uniqueCount="724">
   <si>
     <t>号</t>
   </si>
@@ -98,6 +100,7 @@
         <sz val="9"/>
         <color rgb="FFFFFFFF"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -107,6 +110,7 @@
       <rPr>
         <sz val="9"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -128,6 +132,7 @@
         <sz val="9"/>
         <color rgb="FFFFFFFF"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -137,6 +142,7 @@
       <rPr>
         <sz val="9"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -185,6 +191,7 @@
         <sz val="9"/>
         <color rgb="FFFFFFFF"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -194,6 +201,7 @@
       <rPr>
         <sz val="9"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -287,6 +295,7 @@
         <sz val="9"/>
         <color rgb="FFFFFFFF"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -296,6 +305,7 @@
       <rPr>
         <sz val="9"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -326,6 +336,7 @@
         <sz val="9"/>
         <color rgb="FFFFFFFF"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -335,6 +346,7 @@
       <rPr>
         <sz val="9"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -377,6 +389,7 @@
         <sz val="9"/>
         <color rgb="FFFFFFFF"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -386,6 +399,7 @@
       <rPr>
         <sz val="9"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -410,6 +424,7 @@
         <sz val="9"/>
         <color rgb="FFFFFFFF"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -419,6 +434,7 @@
       <rPr>
         <sz val="9"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -440,6 +456,7 @@
         <sz val="9"/>
         <color rgb="FFFFFFFF"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -449,6 +466,7 @@
       <rPr>
         <sz val="9"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -470,6 +488,7 @@
         <sz val="9"/>
         <color rgb="FFFFFFFF"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -479,6 +498,7 @@
       <rPr>
         <sz val="9"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -500,6 +520,7 @@
         <sz val="9"/>
         <color rgb="FFFFFFFF"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -509,6 +530,7 @@
       <rPr>
         <sz val="9"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -530,6 +552,7 @@
         <sz val="9"/>
         <color rgb="FFFFFFFF"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -539,6 +562,7 @@
       <rPr>
         <sz val="9"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -557,6 +581,7 @@
         <sz val="9"/>
         <color rgb="FFFFFFFF"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -566,6 +591,7 @@
       <rPr>
         <sz val="9"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -587,6 +613,7 @@
         <sz val="9"/>
         <color rgb="FFFFFFFF"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -596,6 +623,7 @@
       <rPr>
         <sz val="9"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -611,6 +639,7 @@
         <sz val="9"/>
         <color rgb="FFFFFFFF"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -621,6 +650,7 @@
         <sz val="9"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -651,6 +681,7 @@
         <sz val="9"/>
         <color rgb="FFFFFFFF"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -660,6 +691,7 @@
       <rPr>
         <sz val="9"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -699,6 +731,7 @@
         <sz val="9"/>
         <color rgb="FFFFFFFF"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -708,6 +741,7 @@
       <rPr>
         <sz val="9"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -738,6 +772,7 @@
         <sz val="9"/>
         <color rgb="FFFFFFFF"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -748,6 +783,7 @@
         <sz val="9"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -787,6 +823,7 @@
         <sz val="9"/>
         <color rgb="FFFFFFFF"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -797,6 +834,7 @@
         <sz val="9"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -824,6 +862,7 @@
         <sz val="9"/>
         <color rgb="FFFFFFFF"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -833,6 +872,7 @@
       <rPr>
         <sz val="9"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -860,6 +900,7 @@
         <sz val="9"/>
         <color rgb="FFFFFFFF"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -869,6 +910,7 @@
       <rPr>
         <sz val="9"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -896,6 +938,7 @@
         <sz val="9"/>
         <color rgb="FFFFFFFF"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -906,6 +949,7 @@
         <sz val="9"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -933,6 +977,7 @@
         <sz val="9"/>
         <color rgb="FFFFFFFF"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -943,6 +988,7 @@
         <sz val="9"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -970,6 +1016,7 @@
         <sz val="9"/>
         <color rgb="FFFFFFFF"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -980,6 +1027,7 @@
         <sz val="9"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1007,6 +1055,7 @@
         <sz val="9"/>
         <color rgb="FFFFFFFF"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1017,6 +1066,7 @@
         <sz val="9"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1044,6 +1094,7 @@
         <sz val="9"/>
         <color rgb="FFFFFFFF"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1054,6 +1105,7 @@
         <sz val="9"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1081,6 +1133,7 @@
         <sz val="9"/>
         <color rgb="FFFFFFFF"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1090,6 +1143,7 @@
       <rPr>
         <sz val="9"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1549,6 +1603,7 @@
         <sz val="9"/>
         <color rgb="FFFFFFFF"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1559,6 +1614,7 @@
         <sz val="9"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1586,6 +1642,7 @@
         <sz val="9"/>
         <color rgb="FFFFFFFF"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1595,6 +1652,7 @@
       <rPr>
         <sz val="9"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1625,6 +1683,7 @@
         <sz val="9"/>
         <color rgb="FFFFFFFF"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1634,6 +1693,7 @@
       <rPr>
         <sz val="9"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1913,6 +1973,7 @@
         <sz val="9"/>
         <color rgb="FFFFFFFF"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1922,6 +1983,7 @@
       <rPr>
         <sz val="9"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1949,6 +2011,7 @@
         <sz val="9"/>
         <color rgb="FFFFFFFF"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1958,6 +2021,7 @@
       <rPr>
         <sz val="9"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1988,6 +2052,7 @@
         <sz val="9"/>
         <color rgb="FFFFFFFF"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1997,6 +2062,7 @@
       <rPr>
         <sz val="9"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2027,6 +2093,7 @@
         <sz val="9"/>
         <color rgb="FFFFFFFF"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2036,6 +2103,7 @@
       <rPr>
         <sz val="9"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2072,6 +2140,7 @@
         <sz val="9"/>
         <color rgb="FFFFFFFF"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2081,6 +2150,7 @@
       <rPr>
         <sz val="9"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2909,6 +2979,65 @@
   </si>
   <si>
     <t>Net Profit excluding extraordinary item to TP</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>V_MonthEnd</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>每月最后交易日</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>V_EndDate_RK</t>
+  </si>
+  <si>
+    <t>EndDate及Rank</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>V_LC_FSDerivedData</t>
+  </si>
+  <si>
+    <t>衍生TTM</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>V_LC_BalanceSheetAll</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>资产负债表</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>V_Q_CashDividend</t>
+  </si>
+  <si>
+    <t>CashLTM</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>V_Q_LC_ASharePlacement</t>
+  </si>
+  <si>
+    <t>配股</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>V_Q_LC_AShareSeasonedNewIssue</t>
+  </si>
+  <si>
+    <t>增发</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -2929,12 +3058,14 @@
       <sz val="9"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -2942,6 +3073,7 @@
       <sz val="9"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -3514,25 +3646,43 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3541,58 +3691,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3619,38 +3727,62 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3948,8 +4080,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M369"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="C166" sqref="B166:C166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3979,18 +4111,18 @@
       <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="52" t="s">
+      <c r="H1" s="44" t="s">
         <v>648</v>
       </c>
-      <c r="I1" s="53"/>
-      <c r="J1" s="51" t="s">
+      <c r="I1" s="45"/>
+      <c r="J1" s="29" t="s">
         <v>649</v>
       </c>
-      <c r="K1" s="55" t="s">
+      <c r="K1" s="46" t="s">
         <v>650</v>
       </c>
-      <c r="L1" s="54"/>
-      <c r="M1" s="56"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="48"/>
     </row>
     <row r="2" spans="1:13" ht="22.5" customHeight="1">
       <c r="A2" s="5">
@@ -4007,16 +4139,16 @@
       </c>
       <c r="E2" s="10"/>
       <c r="F2" s="11"/>
-      <c r="H2" s="57" t="s">
+      <c r="H2" s="49" t="s">
         <v>651</v>
       </c>
-      <c r="I2" s="58"/>
-      <c r="J2" s="63" t="s">
+      <c r="I2" s="50"/>
+      <c r="J2" s="55" t="s">
         <v>652</v>
       </c>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="34"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="57"/>
     </row>
     <row r="3" spans="1:13" ht="22.5" customHeight="1">
       <c r="A3" s="12">
@@ -4033,13 +4165,13 @@
       </c>
       <c r="E3" s="14"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="60"/>
-      <c r="J3" s="65" t="s">
+      <c r="H3" s="51"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="38" t="s">
         <v>653</v>
       </c>
-      <c r="K3" s="64"/>
-      <c r="L3" s="64"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
       <c r="M3" s="40"/>
     </row>
     <row r="4" spans="1:13" ht="22.5" customHeight="1">
@@ -4057,13 +4189,13 @@
       </c>
       <c r="E4" s="14"/>
       <c r="F4" s="11"/>
-      <c r="H4" s="59"/>
-      <c r="I4" s="60"/>
-      <c r="J4" s="65" t="s">
+      <c r="H4" s="51"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="38" t="s">
         <v>654</v>
       </c>
-      <c r="K4" s="64"/>
-      <c r="L4" s="64"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="39"/>
       <c r="M4" s="40"/>
     </row>
     <row r="5" spans="1:13" ht="22.5" customHeight="1">
@@ -4075,13 +4207,13 @@
       <c r="D5" s="7"/>
       <c r="E5" s="17"/>
       <c r="F5" s="11"/>
-      <c r="H5" s="59"/>
-      <c r="I5" s="60"/>
-      <c r="J5" s="65" t="s">
+      <c r="H5" s="51"/>
+      <c r="I5" s="52"/>
+      <c r="J5" s="38" t="s">
         <v>655</v>
       </c>
-      <c r="K5" s="64"/>
-      <c r="L5" s="64"/>
+      <c r="K5" s="39"/>
+      <c r="L5" s="39"/>
       <c r="M5" s="40"/>
     </row>
     <row r="6" spans="1:13" ht="22.5" customHeight="1">
@@ -4103,13 +4235,13 @@
       <c r="F6" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="59"/>
-      <c r="I6" s="60"/>
-      <c r="J6" s="65" t="s">
+      <c r="H6" s="51"/>
+      <c r="I6" s="52"/>
+      <c r="J6" s="38" t="s">
         <v>656</v>
       </c>
-      <c r="K6" s="64"/>
-      <c r="L6" s="64"/>
+      <c r="K6" s="39"/>
+      <c r="L6" s="39"/>
       <c r="M6" s="40"/>
     </row>
     <row r="7" spans="1:13" ht="22.5" customHeight="1">
@@ -4131,13 +4263,13 @@
       <c r="F7" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="59"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="65" t="s">
+      <c r="H7" s="51"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="38" t="s">
         <v>657</v>
       </c>
-      <c r="K7" s="64"/>
-      <c r="L7" s="64"/>
+      <c r="K7" s="39"/>
+      <c r="L7" s="39"/>
       <c r="M7" s="40"/>
     </row>
     <row r="8" spans="1:13" ht="33.75" customHeight="1">
@@ -4159,13 +4291,13 @@
       <c r="F8" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="H8" s="59"/>
-      <c r="I8" s="60"/>
-      <c r="J8" s="65" t="s">
+      <c r="H8" s="51"/>
+      <c r="I8" s="52"/>
+      <c r="J8" s="38" t="s">
         <v>658</v>
       </c>
-      <c r="K8" s="64"/>
-      <c r="L8" s="64"/>
+      <c r="K8" s="39"/>
+      <c r="L8" s="39"/>
       <c r="M8" s="40"/>
     </row>
     <row r="9" spans="1:13" ht="22.5" customHeight="1">
@@ -4187,13 +4319,13 @@
       <c r="F9" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="H9" s="59"/>
-      <c r="I9" s="60"/>
-      <c r="J9" s="65" t="s">
+      <c r="H9" s="51"/>
+      <c r="I9" s="52"/>
+      <c r="J9" s="38" t="s">
         <v>659</v>
       </c>
-      <c r="K9" s="64"/>
-      <c r="L9" s="64"/>
+      <c r="K9" s="39"/>
+      <c r="L9" s="39"/>
       <c r="M9" s="40"/>
     </row>
     <row r="10" spans="1:13" ht="22.5" customHeight="1">
@@ -4215,14 +4347,14 @@
       <c r="F10" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="H10" s="61"/>
-      <c r="I10" s="62"/>
-      <c r="J10" s="66" t="s">
+      <c r="H10" s="53"/>
+      <c r="I10" s="54"/>
+      <c r="J10" s="41" t="s">
         <v>660</v>
       </c>
-      <c r="K10" s="36"/>
-      <c r="L10" s="36"/>
-      <c r="M10" s="37"/>
+      <c r="K10" s="42"/>
+      <c r="L10" s="42"/>
+      <c r="M10" s="43"/>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="12">
@@ -4244,7 +4376,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="22.5">
+    <row r="12" spans="1:13">
       <c r="A12" s="12">
         <v>10</v>
       </c>
@@ -4264,7 +4396,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="33.75">
+    <row r="13" spans="1:13">
       <c r="A13" s="12">
         <v>11</v>
       </c>
@@ -4284,7 +4416,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="22.5">
+    <row r="14" spans="1:13">
       <c r="A14" s="12">
         <v>12</v>
       </c>
@@ -4304,7 +4436,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="33.75">
+    <row r="15" spans="1:13">
       <c r="A15" s="12">
         <v>13</v>
       </c>
@@ -4324,7 +4456,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="22.5">
+    <row r="16" spans="1:13">
       <c r="A16" s="12">
         <v>14</v>
       </c>
@@ -4364,7 +4496,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="22.5">
+    <row r="18" spans="1:6">
       <c r="A18" s="12">
         <v>16</v>
       </c>
@@ -4384,7 +4516,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="33.75">
+    <row r="19" spans="1:6">
       <c r="A19" s="12">
         <v>17</v>
       </c>
@@ -4404,7 +4536,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="22.5">
+    <row r="20" spans="1:6">
       <c r="A20" s="12">
         <v>18</v>
       </c>
@@ -4424,7 +4556,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="45">
+    <row r="21" spans="1:6">
       <c r="A21" s="12">
         <v>19</v>
       </c>
@@ -4444,7 +4576,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="56.25">
+    <row r="22" spans="1:6">
       <c r="A22" s="12">
         <v>20</v>
       </c>
@@ -4484,7 +4616,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="22.5">
+    <row r="24" spans="1:6">
       <c r="A24" s="12">
         <v>22</v>
       </c>
@@ -4504,7 +4636,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="22.5">
+    <row r="25" spans="1:6">
       <c r="A25" s="12">
         <v>23</v>
       </c>
@@ -4524,7 +4656,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="22.5">
+    <row r="26" spans="1:6">
       <c r="A26" s="12">
         <v>24</v>
       </c>
@@ -4544,7 +4676,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="22.5">
+    <row r="27" spans="1:6">
       <c r="A27" s="12"/>
       <c r="B27" s="13"/>
       <c r="C27" s="16" t="s">
@@ -4614,7 +4746,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="33.75">
+    <row r="31" spans="1:6">
       <c r="A31" s="12">
         <v>28</v>
       </c>
@@ -4634,7 +4766,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="33.75">
+    <row r="32" spans="1:6">
       <c r="A32" s="12">
         <v>29</v>
       </c>
@@ -4714,7 +4846,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="22.5">
+    <row r="36" spans="1:6">
       <c r="A36" s="12">
         <v>33</v>
       </c>
@@ -4754,7 +4886,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="22.5">
+    <row r="38" spans="1:6">
       <c r="A38" s="12">
         <v>35</v>
       </c>
@@ -4774,7 +4906,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="22.5">
+    <row r="39" spans="1:6">
       <c r="A39" s="12">
         <v>36</v>
       </c>
@@ -4794,7 +4926,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="22.5">
+    <row r="40" spans="1:6">
       <c r="A40" s="12">
         <v>37</v>
       </c>
@@ -4814,7 +4946,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="22.5">
+    <row r="41" spans="1:6">
       <c r="A41" s="12">
         <v>38</v>
       </c>
@@ -4834,7 +4966,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="22.5">
+    <row r="42" spans="1:6">
       <c r="A42" s="12">
         <v>39</v>
       </c>
@@ -4854,7 +4986,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="22.5">
+    <row r="43" spans="1:6">
       <c r="A43" s="12">
         <v>40</v>
       </c>
@@ -4952,7 +5084,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="22.5">
+    <row r="48" spans="1:6">
       <c r="A48" s="12">
         <v>45</v>
       </c>
@@ -4970,7 +5102,7 @@
       </c>
       <c r="F48" s="18"/>
     </row>
-    <row r="49" spans="1:6" ht="33.75">
+    <row r="49" spans="1:6">
       <c r="A49" s="12">
         <v>46</v>
       </c>
@@ -5008,7 +5140,7 @@
       </c>
       <c r="F50" s="18"/>
     </row>
-    <row r="51" spans="1:6" ht="22.5">
+    <row r="51" spans="1:6">
       <c r="A51" s="12">
         <v>48</v>
       </c>
@@ -5028,7 +5160,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="22.5">
+    <row r="52" spans="1:6">
       <c r="A52" s="12">
         <v>49</v>
       </c>
@@ -5046,7 +5178,7 @@
       </c>
       <c r="F52" s="18"/>
     </row>
-    <row r="53" spans="1:6" ht="22.5">
+    <row r="53" spans="1:6">
       <c r="A53" s="12">
         <v>50</v>
       </c>
@@ -5180,7 +5312,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="22.5">
+    <row r="60" spans="1:6">
       <c r="A60" s="12">
         <v>57</v>
       </c>
@@ -5198,7 +5330,7 @@
       </c>
       <c r="F60" s="18"/>
     </row>
-    <row r="61" spans="1:6" ht="22.5">
+    <row r="61" spans="1:6">
       <c r="A61" s="12">
         <v>58</v>
       </c>
@@ -5218,7 +5350,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="33.75">
+    <row r="62" spans="1:6">
       <c r="A62" s="12">
         <v>59</v>
       </c>
@@ -5236,7 +5368,7 @@
       </c>
       <c r="F62" s="11"/>
     </row>
-    <row r="63" spans="1:6" ht="45">
+    <row r="63" spans="1:6">
       <c r="A63" s="12">
         <v>60</v>
       </c>
@@ -5256,7 +5388,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="22.5">
+    <row r="64" spans="1:6">
       <c r="A64" s="12">
         <v>61</v>
       </c>
@@ -5276,7 +5408,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="33.75">
+    <row r="65" spans="1:6">
       <c r="A65" s="12">
         <v>62</v>
       </c>
@@ -5296,7 +5428,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="22.5">
+    <row r="66" spans="1:6">
       <c r="A66" s="12">
         <v>63</v>
       </c>
@@ -5316,7 +5448,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="22.5">
+    <row r="67" spans="1:6">
       <c r="A67" s="12">
         <v>64</v>
       </c>
@@ -5336,7 +5468,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="22.5">
+    <row r="68" spans="1:6">
       <c r="A68" s="12"/>
       <c r="B68" s="7"/>
       <c r="C68" s="16" t="s">
@@ -5346,7 +5478,7 @@
       <c r="E68" s="14"/>
       <c r="F68" s="11"/>
     </row>
-    <row r="69" spans="1:6" ht="22.5">
+    <row r="69" spans="1:6">
       <c r="A69" s="12">
         <v>65</v>
       </c>
@@ -5386,7 +5518,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="22.5">
+    <row r="71" spans="1:6">
       <c r="A71" s="12">
         <v>67</v>
       </c>
@@ -5406,7 +5538,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="22.5">
+    <row r="72" spans="1:6">
       <c r="A72" s="12">
         <v>68</v>
       </c>
@@ -5426,7 +5558,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="22.5">
+    <row r="73" spans="1:6">
       <c r="A73" s="12">
         <v>69</v>
       </c>
@@ -5444,7 +5576,7 @@
       </c>
       <c r="F73" s="11"/>
     </row>
-    <row r="74" spans="1:6" ht="33.75">
+    <row r="74" spans="1:6">
       <c r="A74" s="12">
         <v>70</v>
       </c>
@@ -5464,7 +5596,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="33.75">
+    <row r="75" spans="1:6">
       <c r="A75" s="12">
         <v>71</v>
       </c>
@@ -5484,7 +5616,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="33.75">
+    <row r="76" spans="1:6">
       <c r="A76" s="12">
         <v>72</v>
       </c>
@@ -5504,7 +5636,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="22.5">
+    <row r="77" spans="1:6">
       <c r="A77" s="12">
         <v>73</v>
       </c>
@@ -5524,7 +5656,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="22.5">
+    <row r="78" spans="1:6">
       <c r="A78" s="12">
         <v>74</v>
       </c>
@@ -5544,7 +5676,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="22.5">
+    <row r="79" spans="1:6">
       <c r="A79" s="12">
         <v>75</v>
       </c>
@@ -5562,7 +5694,7 @@
       </c>
       <c r="F79" s="11"/>
     </row>
-    <row r="80" spans="1:6" ht="22.5">
+    <row r="80" spans="1:6">
       <c r="A80" s="12">
         <v>76</v>
       </c>
@@ -5582,7 +5714,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="22.5">
+    <row r="81" spans="1:6">
       <c r="A81" s="12">
         <v>77</v>
       </c>
@@ -5600,7 +5732,7 @@
       </c>
       <c r="F81" s="11"/>
     </row>
-    <row r="82" spans="1:6" ht="22.5">
+    <row r="82" spans="1:6">
       <c r="A82" s="12">
         <v>78</v>
       </c>
@@ -5620,7 +5752,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="22.5">
+    <row r="83" spans="1:6">
       <c r="A83" s="12">
         <v>79</v>
       </c>
@@ -5640,7 +5772,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="33.75">
+    <row r="84" spans="1:6">
       <c r="A84" s="12">
         <v>80</v>
       </c>
@@ -5660,7 +5792,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="33.75">
+    <row r="85" spans="1:6">
       <c r="A85" s="12">
         <v>81</v>
       </c>
@@ -5680,7 +5812,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="22.5">
+    <row r="86" spans="1:6">
       <c r="A86" s="12"/>
       <c r="B86" s="7"/>
       <c r="C86" s="16" t="s">
@@ -5708,7 +5840,7 @@
       </c>
       <c r="F87" s="11"/>
     </row>
-    <row r="88" spans="1:6" ht="22.5">
+    <row r="88" spans="1:6">
       <c r="A88" s="12">
         <v>83</v>
       </c>
@@ -5726,7 +5858,7 @@
       </c>
       <c r="F88" s="11"/>
     </row>
-    <row r="89" spans="1:6" ht="33.75">
+    <row r="89" spans="1:6">
       <c r="A89" s="12">
         <v>84</v>
       </c>
@@ -5744,7 +5876,7 @@
       </c>
       <c r="F89" s="11"/>
     </row>
-    <row r="90" spans="1:6" ht="33.75">
+    <row r="90" spans="1:6">
       <c r="A90" s="12">
         <v>85</v>
       </c>
@@ -5762,7 +5894,7 @@
       </c>
       <c r="F90" s="11"/>
     </row>
-    <row r="91" spans="1:6" ht="22.5">
+    <row r="91" spans="1:6">
       <c r="A91" s="12">
         <v>86</v>
       </c>
@@ -5780,7 +5912,7 @@
       </c>
       <c r="F91" s="11"/>
     </row>
-    <row r="92" spans="1:6" ht="22.5">
+    <row r="92" spans="1:6">
       <c r="A92" s="12">
         <v>87</v>
       </c>
@@ -5798,7 +5930,7 @@
       </c>
       <c r="F92" s="11"/>
     </row>
-    <row r="93" spans="1:6" ht="22.5">
+    <row r="93" spans="1:6">
       <c r="A93" s="12">
         <v>88</v>
       </c>
@@ -5908,7 +6040,7 @@
       </c>
       <c r="F98" s="11"/>
     </row>
-    <row r="99" spans="1:6" ht="22.5">
+    <row r="99" spans="1:6">
       <c r="A99" s="12">
         <v>94</v>
       </c>
@@ -5944,7 +6076,7 @@
       </c>
       <c r="F100" s="11"/>
     </row>
-    <row r="101" spans="1:6" ht="22.5">
+    <row r="101" spans="1:6">
       <c r="A101" s="12">
         <v>96</v>
       </c>
@@ -5962,7 +6094,7 @@
       </c>
       <c r="F101" s="11"/>
     </row>
-    <row r="102" spans="1:6" ht="22.5">
+    <row r="102" spans="1:6">
       <c r="A102" s="12">
         <v>97</v>
       </c>
@@ -5980,7 +6112,7 @@
       </c>
       <c r="F102" s="11"/>
     </row>
-    <row r="103" spans="1:6" ht="22.5">
+    <row r="103" spans="1:6">
       <c r="A103" s="12">
         <v>98</v>
       </c>
@@ -5998,7 +6130,7 @@
       </c>
       <c r="F103" s="11"/>
     </row>
-    <row r="104" spans="1:6" ht="22.5">
+    <row r="104" spans="1:6">
       <c r="A104" s="12">
         <v>99</v>
       </c>
@@ -6016,7 +6148,7 @@
       </c>
       <c r="F104" s="11"/>
     </row>
-    <row r="105" spans="1:6" ht="22.5">
+    <row r="105" spans="1:6">
       <c r="A105" s="12">
         <v>100</v>
       </c>
@@ -6034,7 +6166,7 @@
       </c>
       <c r="F105" s="11"/>
     </row>
-    <row r="106" spans="1:6" ht="22.5">
+    <row r="106" spans="1:6">
       <c r="A106" s="12">
         <v>101</v>
       </c>
@@ -6054,7 +6186,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="107" spans="1:6" ht="22.5">
+    <row r="107" spans="1:6">
       <c r="A107" s="12"/>
       <c r="B107" s="13"/>
       <c r="C107" s="16" t="s">
@@ -6064,7 +6196,7 @@
       <c r="E107" s="14"/>
       <c r="F107" s="11"/>
     </row>
-    <row r="108" spans="1:6" ht="22.5">
+    <row r="108" spans="1:6">
       <c r="A108" s="12">
         <v>102</v>
       </c>
@@ -6084,7 +6216,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="109" spans="1:6" ht="22.5">
+    <row r="109" spans="1:6">
       <c r="A109" s="12">
         <v>103</v>
       </c>
@@ -6104,7 +6236,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="110" spans="1:6" ht="22.5">
+    <row r="110" spans="1:6">
       <c r="A110" s="12">
         <v>104</v>
       </c>
@@ -6124,7 +6256,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="111" spans="1:6" ht="22.5">
+    <row r="111" spans="1:6">
       <c r="A111" s="12">
         <v>105</v>
       </c>
@@ -6144,7 +6276,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="112" spans="1:6" ht="33.75">
+    <row r="112" spans="1:6">
       <c r="A112" s="12">
         <v>106</v>
       </c>
@@ -6164,7 +6296,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="113" spans="1:6" ht="22.5">
+    <row r="113" spans="1:6">
       <c r="A113" s="12">
         <v>107</v>
       </c>
@@ -6184,7 +6316,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="114" spans="1:6" ht="22.5">
+    <row r="114" spans="1:6">
       <c r="A114" s="12">
         <v>108</v>
       </c>
@@ -6224,7 +6356,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="116" spans="1:6" ht="22.5">
+    <row r="116" spans="1:6">
       <c r="A116" s="12">
         <v>110</v>
       </c>
@@ -6244,7 +6376,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="117" spans="1:6" ht="22.5">
+    <row r="117" spans="1:6">
       <c r="A117" s="12">
         <v>111</v>
       </c>
@@ -6264,7 +6396,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="118" spans="1:6" ht="22.5">
+    <row r="118" spans="1:6">
       <c r="A118" s="12">
         <v>112</v>
       </c>
@@ -6284,7 +6416,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="119" spans="1:6" ht="22.5">
+    <row r="119" spans="1:6">
       <c r="A119" s="12"/>
       <c r="B119" s="13"/>
       <c r="C119" s="16" t="s">
@@ -6332,7 +6464,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="122" spans="1:6" ht="22.5">
+    <row r="122" spans="1:6">
       <c r="A122" s="12">
         <v>115</v>
       </c>
@@ -6350,7 +6482,7 @@
       </c>
       <c r="F122" s="11"/>
     </row>
-    <row r="123" spans="1:6" ht="22.5">
+    <row r="123" spans="1:6">
       <c r="A123" s="12">
         <v>116</v>
       </c>
@@ -6410,7 +6542,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="126" spans="1:6" ht="22.5">
+    <row r="126" spans="1:6">
       <c r="A126" s="12">
         <v>119</v>
       </c>
@@ -6430,7 +6562,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="127" spans="1:6" ht="33.75">
+    <row r="127" spans="1:6">
       <c r="A127" s="12">
         <v>120</v>
       </c>
@@ -6448,7 +6580,7 @@
       </c>
       <c r="F127" s="11"/>
     </row>
-    <row r="128" spans="1:6" ht="45">
+    <row r="128" spans="1:6">
       <c r="A128" s="12">
         <v>121</v>
       </c>
@@ -6466,7 +6598,7 @@
       </c>
       <c r="F128" s="11"/>
     </row>
-    <row r="129" spans="1:6" ht="45">
+    <row r="129" spans="1:6">
       <c r="A129" s="12">
         <v>122</v>
       </c>
@@ -6484,7 +6616,7 @@
       </c>
       <c r="F129" s="11"/>
     </row>
-    <row r="130" spans="1:6" ht="22.5">
+    <row r="130" spans="1:6">
       <c r="A130" s="12">
         <v>123</v>
       </c>
@@ -6504,7 +6636,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="131" spans="1:6" ht="22.5">
+    <row r="131" spans="1:6">
       <c r="A131" s="12">
         <v>124</v>
       </c>
@@ -6524,7 +6656,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="132" spans="1:6" ht="33.75">
+    <row r="132" spans="1:6">
       <c r="A132" s="12">
         <v>125</v>
       </c>
@@ -6544,7 +6676,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="133" spans="1:6" ht="22.5">
+    <row r="133" spans="1:6">
       <c r="A133" s="12">
         <v>126</v>
       </c>
@@ -6564,7 +6696,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="134" spans="1:6" ht="22.5">
+    <row r="134" spans="1:6">
       <c r="A134" s="12"/>
       <c r="B134" s="13"/>
       <c r="C134" s="16" t="s">
@@ -6574,7 +6706,7 @@
       <c r="E134" s="14"/>
       <c r="F134" s="11"/>
     </row>
-    <row r="135" spans="1:6" ht="45">
+    <row r="135" spans="1:6">
       <c r="A135" s="12">
         <v>127</v>
       </c>
@@ -6594,7 +6726,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="136" spans="1:6" ht="22.5">
+    <row r="136" spans="1:6">
       <c r="A136" s="12">
         <v>128</v>
       </c>
@@ -6614,7 +6746,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="137" spans="1:6" ht="22.5">
+    <row r="137" spans="1:6">
       <c r="A137" s="12">
         <v>129</v>
       </c>
@@ -6634,7 +6766,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="138" spans="1:6" ht="33.75">
+    <row r="138" spans="1:6">
       <c r="A138" s="12">
         <v>130</v>
       </c>
@@ -6654,7 +6786,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="139" spans="1:6" ht="22.5">
+    <row r="139" spans="1:6">
       <c r="A139" s="12">
         <v>131</v>
       </c>
@@ -6674,7 +6806,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="140" spans="1:6" ht="22.5">
+    <row r="140" spans="1:6">
       <c r="A140" s="12">
         <v>132</v>
       </c>
@@ -6694,7 +6826,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="141" spans="1:6" ht="22.5">
+    <row r="141" spans="1:6">
       <c r="A141" s="12"/>
       <c r="B141" s="13"/>
       <c r="C141" s="16" t="s">
@@ -6760,7 +6892,7 @@
       </c>
       <c r="F144" s="11"/>
     </row>
-    <row r="145" spans="1:6" ht="22.5">
+    <row r="145" spans="1:6">
       <c r="A145" s="12">
         <v>136</v>
       </c>
@@ -6780,7 +6912,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="146" spans="1:6" ht="22.5">
+    <row r="146" spans="1:6">
       <c r="A146" s="12">
         <v>137</v>
       </c>
@@ -6800,7 +6932,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="147" spans="1:6" ht="22.5">
+    <row r="147" spans="1:6">
       <c r="A147" s="12">
         <v>138</v>
       </c>
@@ -6818,7 +6950,7 @@
       </c>
       <c r="F147" s="18"/>
     </row>
-    <row r="148" spans="1:6" ht="22.5">
+    <row r="148" spans="1:6">
       <c r="A148" s="12">
         <v>139</v>
       </c>
@@ -6856,7 +6988,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="150" spans="1:6" ht="33.75">
+    <row r="150" spans="1:6">
       <c r="A150" s="12">
         <v>141</v>
       </c>
@@ -6876,7 +7008,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="151" spans="1:6" ht="22.5">
+    <row r="151" spans="1:6">
       <c r="A151" s="12">
         <v>142</v>
       </c>
@@ -6894,7 +7026,7 @@
       </c>
       <c r="F151" s="11"/>
     </row>
-    <row r="152" spans="1:6" ht="33.75">
+    <row r="152" spans="1:6">
       <c r="A152" s="12">
         <v>143</v>
       </c>
@@ -6912,7 +7044,7 @@
       </c>
       <c r="F152" s="11"/>
     </row>
-    <row r="153" spans="1:6" ht="22.5">
+    <row r="153" spans="1:6">
       <c r="A153" s="12">
         <v>144</v>
       </c>
@@ -6932,7 +7064,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="154" spans="1:6" ht="22.5">
+    <row r="154" spans="1:6">
       <c r="A154" s="12">
         <v>145</v>
       </c>
@@ -6952,7 +7084,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="155" spans="1:6" ht="22.5">
+    <row r="155" spans="1:6">
       <c r="A155" s="12">
         <v>146</v>
       </c>
@@ -6972,7 +7104,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="156" spans="1:6" ht="22.5">
+    <row r="156" spans="1:6">
       <c r="A156" s="12">
         <v>147</v>
       </c>
@@ -6990,7 +7122,7 @@
       </c>
       <c r="F156" s="11"/>
     </row>
-    <row r="157" spans="1:6" ht="22.5">
+    <row r="157" spans="1:6">
       <c r="A157" s="12">
         <v>148</v>
       </c>
@@ -7010,7 +7142,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="158" spans="1:6" ht="22.5">
+    <row r="158" spans="1:6">
       <c r="A158" s="12"/>
       <c r="B158" s="13"/>
       <c r="C158" s="16" t="s">
@@ -7020,7 +7152,7 @@
       <c r="E158" s="14"/>
       <c r="F158" s="11"/>
     </row>
-    <row r="159" spans="1:6" ht="22.5">
+    <row r="159" spans="1:6">
       <c r="A159" s="12">
         <v>149</v>
       </c>
@@ -7040,7 +7172,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="160" spans="1:6" ht="22.5">
+    <row r="160" spans="1:6">
       <c r="A160" s="12">
         <v>150</v>
       </c>
@@ -7098,7 +7230,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="163" spans="1:6" ht="22.5">
+    <row r="163" spans="1:6">
       <c r="A163" s="12">
         <v>153</v>
       </c>
@@ -7118,7 +7250,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="164" spans="1:6" ht="22.5">
+    <row r="164" spans="1:6">
       <c r="A164" s="12">
         <v>154</v>
       </c>
@@ -7138,7 +7270,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="165" spans="1:6" ht="33.75">
+    <row r="165" spans="1:6">
       <c r="A165" s="12">
         <v>155</v>
       </c>
@@ -7158,7 +7290,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="166" spans="1:6" ht="22.5">
+    <row r="166" spans="1:6">
       <c r="A166" s="12">
         <v>156</v>
       </c>
@@ -7214,7 +7346,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="169" spans="1:6" ht="22.5">
+    <row r="169" spans="1:6">
       <c r="A169" s="12"/>
       <c r="B169" s="15"/>
       <c r="C169" s="16" t="s">
@@ -7224,7 +7356,7 @@
       <c r="E169" s="14"/>
       <c r="F169" s="11"/>
     </row>
-    <row r="170" spans="1:6" ht="22.5">
+    <row r="170" spans="1:6">
       <c r="A170" s="12">
         <v>159</v>
       </c>
@@ -7244,7 +7376,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="171" spans="1:6" ht="22.5">
+    <row r="171" spans="1:6">
       <c r="A171" s="12">
         <v>160</v>
       </c>
@@ -7262,7 +7394,7 @@
       </c>
       <c r="F171" s="18"/>
     </row>
-    <row r="172" spans="1:6" ht="22.5">
+    <row r="172" spans="1:6">
       <c r="A172" s="12">
         <v>161</v>
       </c>
@@ -7280,7 +7412,7 @@
       </c>
       <c r="F172" s="18"/>
     </row>
-    <row r="173" spans="1:6" ht="22.5">
+    <row r="173" spans="1:6">
       <c r="A173" s="12">
         <v>162</v>
       </c>
@@ -7298,7 +7430,7 @@
       </c>
       <c r="F173" s="18"/>
     </row>
-    <row r="174" spans="1:6" ht="22.5">
+    <row r="174" spans="1:6">
       <c r="A174" s="12">
         <v>163</v>
       </c>
@@ -7316,7 +7448,7 @@
       </c>
       <c r="F174" s="18"/>
     </row>
-    <row r="175" spans="1:6" ht="22.5">
+    <row r="175" spans="1:6">
       <c r="A175" s="12">
         <v>164</v>
       </c>
@@ -7359,1923 +7491,2115 @@
       <c r="F177" s="9"/>
     </row>
     <row r="178" spans="1:6">
-      <c r="A178" s="29" t="s">
+      <c r="A178" s="64" t="s">
         <v>460</v>
       </c>
-      <c r="B178" s="30"/>
-      <c r="C178" s="30"/>
-      <c r="D178" s="30"/>
-      <c r="E178" s="30"/>
-      <c r="F178" s="31"/>
+      <c r="B178" s="65"/>
+      <c r="C178" s="65"/>
+      <c r="D178" s="65"/>
+      <c r="E178" s="65"/>
+      <c r="F178" s="66"/>
     </row>
     <row r="179" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A179" s="32" t="s">
+      <c r="A179" s="59" t="s">
         <v>461</v>
       </c>
-      <c r="B179" s="33"/>
-      <c r="C179" s="33"/>
-      <c r="D179" s="33"/>
-      <c r="E179" s="33"/>
-      <c r="F179" s="34"/>
+      <c r="B179" s="56"/>
+      <c r="C179" s="56"/>
+      <c r="D179" s="56"/>
+      <c r="E179" s="56"/>
+      <c r="F179" s="57"/>
     </row>
     <row r="180" spans="1:6">
-      <c r="A180" s="35" t="s">
+      <c r="A180" s="58" t="s">
         <v>462</v>
       </c>
-      <c r="B180" s="36"/>
-      <c r="C180" s="36"/>
-      <c r="D180" s="36"/>
-      <c r="E180" s="36"/>
-      <c r="F180" s="37"/>
+      <c r="B180" s="42"/>
+      <c r="C180" s="42"/>
+      <c r="D180" s="42"/>
+      <c r="E180" s="42"/>
+      <c r="F180" s="43"/>
     </row>
     <row r="181" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A181" s="32" t="s">
+      <c r="A181" s="59" t="s">
         <v>463</v>
       </c>
-      <c r="B181" s="33"/>
-      <c r="C181" s="33"/>
-      <c r="D181" s="33"/>
-      <c r="E181" s="33"/>
-      <c r="F181" s="34"/>
+      <c r="B181" s="56"/>
+      <c r="C181" s="56"/>
+      <c r="D181" s="56"/>
+      <c r="E181" s="56"/>
+      <c r="F181" s="57"/>
     </row>
     <row r="182" spans="1:6">
-      <c r="A182" s="38" t="s">
+      <c r="A182" s="73" t="s">
         <v>464</v>
       </c>
-      <c r="B182" s="39"/>
-      <c r="C182" s="39"/>
-      <c r="D182" s="39"/>
-      <c r="E182" s="39"/>
+      <c r="B182" s="74"/>
+      <c r="C182" s="74"/>
+      <c r="D182" s="74"/>
+      <c r="E182" s="74"/>
       <c r="F182" s="40"/>
     </row>
     <row r="183" spans="1:6">
-      <c r="A183" s="35" t="s">
+      <c r="A183" s="58" t="s">
         <v>465</v>
       </c>
-      <c r="B183" s="36"/>
-      <c r="C183" s="36"/>
-      <c r="D183" s="36"/>
-      <c r="E183" s="36"/>
-      <c r="F183" s="37"/>
+      <c r="B183" s="42"/>
+      <c r="C183" s="42"/>
+      <c r="D183" s="42"/>
+      <c r="E183" s="42"/>
+      <c r="F183" s="43"/>
     </row>
     <row r="184" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A184" s="32" t="s">
+      <c r="A184" s="59" t="s">
         <v>466</v>
       </c>
-      <c r="B184" s="33"/>
-      <c r="C184" s="33"/>
-      <c r="D184" s="33"/>
-      <c r="E184" s="33"/>
-      <c r="F184" s="34"/>
+      <c r="B184" s="56"/>
+      <c r="C184" s="56"/>
+      <c r="D184" s="56"/>
+      <c r="E184" s="56"/>
+      <c r="F184" s="57"/>
     </row>
     <row r="185" spans="1:6">
-      <c r="A185" s="35" t="s">
+      <c r="A185" s="58" t="s">
         <v>467</v>
       </c>
-      <c r="B185" s="36"/>
-      <c r="C185" s="36"/>
-      <c r="D185" s="36"/>
-      <c r="E185" s="36"/>
-      <c r="F185" s="37"/>
+      <c r="B185" s="42"/>
+      <c r="C185" s="42"/>
+      <c r="D185" s="42"/>
+      <c r="E185" s="42"/>
+      <c r="F185" s="43"/>
     </row>
     <row r="186" spans="1:6">
-      <c r="A186" s="41" t="s">
+      <c r="A186" s="70" t="s">
         <v>468</v>
       </c>
-      <c r="B186" s="42"/>
-      <c r="C186" s="42"/>
-      <c r="D186" s="42"/>
-      <c r="E186" s="42"/>
-      <c r="F186" s="43"/>
+      <c r="B186" s="71"/>
+      <c r="C186" s="71"/>
+      <c r="D186" s="71"/>
+      <c r="E186" s="71"/>
+      <c r="F186" s="72"/>
     </row>
     <row r="187" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A187" s="32" t="s">
+      <c r="A187" s="59" t="s">
         <v>469</v>
       </c>
-      <c r="B187" s="33"/>
-      <c r="C187" s="33"/>
-      <c r="D187" s="33"/>
-      <c r="E187" s="33"/>
-      <c r="F187" s="34"/>
+      <c r="B187" s="56"/>
+      <c r="C187" s="56"/>
+      <c r="D187" s="56"/>
+      <c r="E187" s="56"/>
+      <c r="F187" s="57"/>
     </row>
     <row r="188" spans="1:6">
-      <c r="A188" s="35" t="s">
+      <c r="A188" s="58" t="s">
         <v>470</v>
       </c>
-      <c r="B188" s="36"/>
-      <c r="C188" s="36"/>
-      <c r="D188" s="36"/>
-      <c r="E188" s="36"/>
-      <c r="F188" s="37"/>
+      <c r="B188" s="42"/>
+      <c r="C188" s="42"/>
+      <c r="D188" s="42"/>
+      <c r="E188" s="42"/>
+      <c r="F188" s="43"/>
     </row>
     <row r="189" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A189" s="41" t="s">
+      <c r="A189" s="70" t="s">
         <v>471</v>
       </c>
-      <c r="B189" s="42"/>
-      <c r="C189" s="42"/>
-      <c r="D189" s="42"/>
-      <c r="E189" s="42"/>
-      <c r="F189" s="43"/>
+      <c r="B189" s="71"/>
+      <c r="C189" s="71"/>
+      <c r="D189" s="71"/>
+      <c r="E189" s="71"/>
+      <c r="F189" s="72"/>
     </row>
     <row r="190" spans="1:6">
-      <c r="A190" s="41" t="s">
+      <c r="A190" s="70" t="s">
         <v>472</v>
       </c>
-      <c r="B190" s="42"/>
-      <c r="C190" s="42"/>
-      <c r="D190" s="42"/>
-      <c r="E190" s="42"/>
-      <c r="F190" s="43"/>
+      <c r="B190" s="71"/>
+      <c r="C190" s="71"/>
+      <c r="D190" s="71"/>
+      <c r="E190" s="71"/>
+      <c r="F190" s="72"/>
     </row>
     <row r="191" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A191" s="41" t="s">
+      <c r="A191" s="70" t="s">
         <v>473</v>
       </c>
-      <c r="B191" s="42"/>
-      <c r="C191" s="42"/>
-      <c r="D191" s="42"/>
-      <c r="E191" s="42"/>
-      <c r="F191" s="43"/>
+      <c r="B191" s="71"/>
+      <c r="C191" s="71"/>
+      <c r="D191" s="71"/>
+      <c r="E191" s="71"/>
+      <c r="F191" s="72"/>
     </row>
     <row r="192" spans="1:6">
-      <c r="A192" s="41" t="s">
+      <c r="A192" s="70" t="s">
         <v>474</v>
       </c>
-      <c r="B192" s="42"/>
-      <c r="C192" s="42"/>
-      <c r="D192" s="42"/>
-      <c r="E192" s="42"/>
-      <c r="F192" s="43"/>
+      <c r="B192" s="71"/>
+      <c r="C192" s="71"/>
+      <c r="D192" s="71"/>
+      <c r="E192" s="71"/>
+      <c r="F192" s="72"/>
     </row>
     <row r="193" spans="1:6">
-      <c r="A193" s="32" t="s">
+      <c r="A193" s="59" t="s">
         <v>475</v>
       </c>
-      <c r="B193" s="33"/>
-      <c r="C193" s="33"/>
-      <c r="D193" s="33"/>
-      <c r="E193" s="33"/>
-      <c r="F193" s="34"/>
+      <c r="B193" s="56"/>
+      <c r="C193" s="56"/>
+      <c r="D193" s="56"/>
+      <c r="E193" s="56"/>
+      <c r="F193" s="57"/>
     </row>
     <row r="194" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A194" s="35" t="s">
+      <c r="A194" s="58" t="s">
         <v>476</v>
       </c>
-      <c r="B194" s="36"/>
-      <c r="C194" s="36"/>
-      <c r="D194" s="36"/>
-      <c r="E194" s="36"/>
-      <c r="F194" s="37"/>
+      <c r="B194" s="42"/>
+      <c r="C194" s="42"/>
+      <c r="D194" s="42"/>
+      <c r="E194" s="42"/>
+      <c r="F194" s="43"/>
     </row>
     <row r="195" spans="1:6">
-      <c r="A195" s="41" t="s">
+      <c r="A195" s="70" t="s">
         <v>477</v>
       </c>
-      <c r="B195" s="42"/>
-      <c r="C195" s="42"/>
-      <c r="D195" s="42"/>
-      <c r="E195" s="42"/>
-      <c r="F195" s="43"/>
+      <c r="B195" s="71"/>
+      <c r="C195" s="71"/>
+      <c r="D195" s="71"/>
+      <c r="E195" s="71"/>
+      <c r="F195" s="72"/>
     </row>
     <row r="196" spans="1:6">
-      <c r="A196" s="41" t="s">
+      <c r="A196" s="70" t="s">
         <v>478</v>
       </c>
-      <c r="B196" s="42"/>
-      <c r="C196" s="42"/>
-      <c r="D196" s="42"/>
-      <c r="E196" s="42"/>
-      <c r="F196" s="43"/>
+      <c r="B196" s="71"/>
+      <c r="C196" s="71"/>
+      <c r="D196" s="71"/>
+      <c r="E196" s="71"/>
+      <c r="F196" s="72"/>
     </row>
     <row r="197" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A197" s="41" t="s">
+      <c r="A197" s="70" t="s">
         <v>479</v>
       </c>
-      <c r="B197" s="42"/>
-      <c r="C197" s="42"/>
-      <c r="D197" s="42"/>
-      <c r="E197" s="42"/>
-      <c r="F197" s="43"/>
+      <c r="B197" s="71"/>
+      <c r="C197" s="71"/>
+      <c r="D197" s="71"/>
+      <c r="E197" s="71"/>
+      <c r="F197" s="72"/>
     </row>
     <row r="198" spans="1:6">
-      <c r="A198" s="41" t="s">
+      <c r="A198" s="70" t="s">
         <v>480</v>
       </c>
-      <c r="B198" s="42"/>
-      <c r="C198" s="42"/>
-      <c r="D198" s="42"/>
-      <c r="E198" s="42"/>
-      <c r="F198" s="43"/>
+      <c r="B198" s="71"/>
+      <c r="C198" s="71"/>
+      <c r="D198" s="71"/>
+      <c r="E198" s="71"/>
+      <c r="F198" s="72"/>
     </row>
     <row r="199" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A199" s="41" t="s">
+      <c r="A199" s="70" t="s">
         <v>481</v>
       </c>
-      <c r="B199" s="42"/>
-      <c r="C199" s="42"/>
-      <c r="D199" s="42"/>
-      <c r="E199" s="42"/>
-      <c r="F199" s="43"/>
+      <c r="B199" s="71"/>
+      <c r="C199" s="71"/>
+      <c r="D199" s="71"/>
+      <c r="E199" s="71"/>
+      <c r="F199" s="72"/>
     </row>
     <row r="200" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A200" s="32" t="s">
+      <c r="A200" s="59" t="s">
         <v>482</v>
       </c>
-      <c r="B200" s="33"/>
-      <c r="C200" s="33"/>
-      <c r="D200" s="33"/>
-      <c r="E200" s="33"/>
-      <c r="F200" s="34"/>
+      <c r="B200" s="56"/>
+      <c r="C200" s="56"/>
+      <c r="D200" s="56"/>
+      <c r="E200" s="56"/>
+      <c r="F200" s="57"/>
     </row>
     <row r="201" spans="1:6">
-      <c r="A201" s="35" t="s">
+      <c r="A201" s="58" t="s">
         <v>483</v>
       </c>
-      <c r="B201" s="36"/>
-      <c r="C201" s="36"/>
-      <c r="D201" s="36"/>
-      <c r="E201" s="36"/>
-      <c r="F201" s="37"/>
+      <c r="B201" s="42"/>
+      <c r="C201" s="42"/>
+      <c r="D201" s="42"/>
+      <c r="E201" s="42"/>
+      <c r="F201" s="43"/>
     </row>
     <row r="202" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A202" s="41" t="s">
+      <c r="A202" s="70" t="s">
         <v>484</v>
       </c>
-      <c r="B202" s="42"/>
-      <c r="C202" s="42"/>
-      <c r="D202" s="42"/>
-      <c r="E202" s="42"/>
-      <c r="F202" s="43"/>
+      <c r="B202" s="71"/>
+      <c r="C202" s="71"/>
+      <c r="D202" s="71"/>
+      <c r="E202" s="71"/>
+      <c r="F202" s="72"/>
     </row>
     <row r="203" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A203" s="41" t="s">
+      <c r="A203" s="70" t="s">
         <v>485</v>
       </c>
-      <c r="B203" s="42"/>
-      <c r="C203" s="42"/>
-      <c r="D203" s="42"/>
-      <c r="E203" s="42"/>
-      <c r="F203" s="43"/>
+      <c r="B203" s="71"/>
+      <c r="C203" s="71"/>
+      <c r="D203" s="71"/>
+      <c r="E203" s="71"/>
+      <c r="F203" s="72"/>
     </row>
     <row r="204" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A204" s="41" t="s">
+      <c r="A204" s="70" t="s">
         <v>486</v>
       </c>
-      <c r="B204" s="42"/>
-      <c r="C204" s="42"/>
-      <c r="D204" s="42"/>
-      <c r="E204" s="42"/>
-      <c r="F204" s="43"/>
+      <c r="B204" s="71"/>
+      <c r="C204" s="71"/>
+      <c r="D204" s="71"/>
+      <c r="E204" s="71"/>
+      <c r="F204" s="72"/>
     </row>
     <row r="205" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A205" s="32" t="s">
+      <c r="A205" s="59" t="s">
         <v>487</v>
       </c>
-      <c r="B205" s="33"/>
-      <c r="C205" s="33"/>
-      <c r="D205" s="33"/>
-      <c r="E205" s="33"/>
-      <c r="F205" s="34"/>
+      <c r="B205" s="56"/>
+      <c r="C205" s="56"/>
+      <c r="D205" s="56"/>
+      <c r="E205" s="56"/>
+      <c r="F205" s="57"/>
     </row>
     <row r="206" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A206" s="38" t="s">
+      <c r="A206" s="73" t="s">
         <v>488</v>
       </c>
-      <c r="B206" s="39"/>
-      <c r="C206" s="39"/>
-      <c r="D206" s="39"/>
-      <c r="E206" s="39"/>
+      <c r="B206" s="74"/>
+      <c r="C206" s="74"/>
+      <c r="D206" s="74"/>
+      <c r="E206" s="74"/>
       <c r="F206" s="40"/>
     </row>
     <row r="207" spans="1:6">
-      <c r="A207" s="38" t="s">
+      <c r="A207" s="73" t="s">
         <v>489</v>
       </c>
-      <c r="B207" s="39"/>
-      <c r="C207" s="39"/>
-      <c r="D207" s="39"/>
-      <c r="E207" s="39"/>
+      <c r="B207" s="74"/>
+      <c r="C207" s="74"/>
+      <c r="D207" s="74"/>
+      <c r="E207" s="74"/>
       <c r="F207" s="40"/>
     </row>
     <row r="208" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A208" s="38" t="s">
+      <c r="A208" s="73" t="s">
         <v>490</v>
       </c>
-      <c r="B208" s="39"/>
-      <c r="C208" s="39"/>
-      <c r="D208" s="39"/>
-      <c r="E208" s="39"/>
+      <c r="B208" s="74"/>
+      <c r="C208" s="74"/>
+      <c r="D208" s="74"/>
+      <c r="E208" s="74"/>
       <c r="F208" s="40"/>
     </row>
     <row r="209" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A209" s="38" t="s">
+      <c r="A209" s="73" t="s">
         <v>491</v>
       </c>
-      <c r="B209" s="39"/>
-      <c r="C209" s="39"/>
-      <c r="D209" s="39"/>
-      <c r="E209" s="39"/>
+      <c r="B209" s="74"/>
+      <c r="C209" s="74"/>
+      <c r="D209" s="74"/>
+      <c r="E209" s="74"/>
       <c r="F209" s="40"/>
     </row>
     <row r="210" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A210" s="35" t="s">
+      <c r="A210" s="58" t="s">
         <v>492</v>
       </c>
-      <c r="B210" s="36"/>
-      <c r="C210" s="36"/>
-      <c r="D210" s="36"/>
-      <c r="E210" s="36"/>
-      <c r="F210" s="37"/>
+      <c r="B210" s="42"/>
+      <c r="C210" s="42"/>
+      <c r="D210" s="42"/>
+      <c r="E210" s="42"/>
+      <c r="F210" s="43"/>
     </row>
     <row r="211" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A211" s="32" t="s">
+      <c r="A211" s="59" t="s">
         <v>493</v>
       </c>
-      <c r="B211" s="33"/>
-      <c r="C211" s="33"/>
-      <c r="D211" s="33"/>
-      <c r="E211" s="33"/>
-      <c r="F211" s="34"/>
+      <c r="B211" s="56"/>
+      <c r="C211" s="56"/>
+      <c r="D211" s="56"/>
+      <c r="E211" s="56"/>
+      <c r="F211" s="57"/>
     </row>
     <row r="212" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A212" s="38" t="s">
+      <c r="A212" s="73" t="s">
         <v>494</v>
       </c>
-      <c r="B212" s="39"/>
-      <c r="C212" s="39"/>
-      <c r="D212" s="39"/>
-      <c r="E212" s="39"/>
+      <c r="B212" s="74"/>
+      <c r="C212" s="74"/>
+      <c r="D212" s="74"/>
+      <c r="E212" s="74"/>
       <c r="F212" s="40"/>
     </row>
     <row r="213" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A213" s="38" t="s">
+      <c r="A213" s="73" t="s">
         <v>495</v>
       </c>
-      <c r="B213" s="39"/>
-      <c r="C213" s="39"/>
-      <c r="D213" s="39"/>
-      <c r="E213" s="39"/>
+      <c r="B213" s="74"/>
+      <c r="C213" s="74"/>
+      <c r="D213" s="74"/>
+      <c r="E213" s="74"/>
       <c r="F213" s="40"/>
     </row>
     <row r="214" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A214" s="38" t="s">
+      <c r="A214" s="73" t="s">
         <v>496</v>
       </c>
-      <c r="B214" s="39"/>
-      <c r="C214" s="39"/>
-      <c r="D214" s="39"/>
-      <c r="E214" s="39"/>
+      <c r="B214" s="74"/>
+      <c r="C214" s="74"/>
+      <c r="D214" s="74"/>
+      <c r="E214" s="74"/>
       <c r="F214" s="40"/>
     </row>
     <row r="215" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A215" s="35" t="s">
+      <c r="A215" s="58" t="s">
         <v>497</v>
       </c>
-      <c r="B215" s="36"/>
-      <c r="C215" s="36"/>
-      <c r="D215" s="36"/>
-      <c r="E215" s="36"/>
-      <c r="F215" s="37"/>
+      <c r="B215" s="42"/>
+      <c r="C215" s="42"/>
+      <c r="D215" s="42"/>
+      <c r="E215" s="42"/>
+      <c r="F215" s="43"/>
     </row>
     <row r="216" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A216" s="32" t="s">
+      <c r="A216" s="59" t="s">
         <v>498</v>
       </c>
-      <c r="B216" s="33"/>
-      <c r="C216" s="33"/>
-      <c r="D216" s="33"/>
-      <c r="E216" s="33"/>
-      <c r="F216" s="34"/>
+      <c r="B216" s="56"/>
+      <c r="C216" s="56"/>
+      <c r="D216" s="56"/>
+      <c r="E216" s="56"/>
+      <c r="F216" s="57"/>
     </row>
     <row r="217" spans="1:6">
-      <c r="A217" s="35" t="s">
+      <c r="A217" s="58" t="s">
         <v>499</v>
       </c>
-      <c r="B217" s="36"/>
-      <c r="C217" s="36"/>
-      <c r="D217" s="36"/>
-      <c r="E217" s="36"/>
-      <c r="F217" s="37"/>
+      <c r="B217" s="42"/>
+      <c r="C217" s="42"/>
+      <c r="D217" s="42"/>
+      <c r="E217" s="42"/>
+      <c r="F217" s="43"/>
     </row>
     <row r="218" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A218" s="32" t="s">
+      <c r="A218" s="59" t="s">
         <v>500</v>
       </c>
-      <c r="B218" s="33"/>
-      <c r="C218" s="33"/>
-      <c r="D218" s="33"/>
-      <c r="E218" s="33"/>
-      <c r="F218" s="34"/>
+      <c r="B218" s="56"/>
+      <c r="C218" s="56"/>
+      <c r="D218" s="56"/>
+      <c r="E218" s="56"/>
+      <c r="F218" s="57"/>
     </row>
     <row r="219" spans="1:6">
-      <c r="A219" s="38" t="s">
+      <c r="A219" s="73" t="s">
         <v>501</v>
       </c>
-      <c r="B219" s="39"/>
-      <c r="C219" s="39"/>
-      <c r="D219" s="39"/>
-      <c r="E219" s="39"/>
+      <c r="B219" s="74"/>
+      <c r="C219" s="74"/>
+      <c r="D219" s="74"/>
+      <c r="E219" s="74"/>
       <c r="F219" s="40"/>
     </row>
     <row r="220" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A220" s="38" t="s">
+      <c r="A220" s="73" t="s">
         <v>502</v>
       </c>
-      <c r="B220" s="39"/>
-      <c r="C220" s="39"/>
-      <c r="D220" s="39"/>
-      <c r="E220" s="39"/>
+      <c r="B220" s="74"/>
+      <c r="C220" s="74"/>
+      <c r="D220" s="74"/>
+      <c r="E220" s="74"/>
       <c r="F220" s="40"/>
     </row>
     <row r="221" spans="1:6">
-      <c r="A221" s="38" t="s">
+      <c r="A221" s="73" t="s">
         <v>503</v>
       </c>
-      <c r="B221" s="39"/>
-      <c r="C221" s="39"/>
-      <c r="D221" s="39"/>
-      <c r="E221" s="39"/>
+      <c r="B221" s="74"/>
+      <c r="C221" s="74"/>
+      <c r="D221" s="74"/>
+      <c r="E221" s="74"/>
       <c r="F221" s="40"/>
     </row>
     <row r="222" spans="1:6">
-      <c r="A222" s="38" t="s">
+      <c r="A222" s="73" t="s">
         <v>504</v>
       </c>
-      <c r="B222" s="39"/>
-      <c r="C222" s="39"/>
-      <c r="D222" s="39"/>
-      <c r="E222" s="39"/>
+      <c r="B222" s="74"/>
+      <c r="C222" s="74"/>
+      <c r="D222" s="74"/>
+      <c r="E222" s="74"/>
       <c r="F222" s="40"/>
     </row>
     <row r="223" spans="1:6">
-      <c r="A223" s="35" t="s">
+      <c r="A223" s="58" t="s">
         <v>505</v>
       </c>
-      <c r="B223" s="36"/>
-      <c r="C223" s="36"/>
-      <c r="D223" s="36"/>
-      <c r="E223" s="36"/>
-      <c r="F223" s="37"/>
+      <c r="B223" s="42"/>
+      <c r="C223" s="42"/>
+      <c r="D223" s="42"/>
+      <c r="E223" s="42"/>
+      <c r="F223" s="43"/>
     </row>
     <row r="224" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A224" s="32" t="s">
+      <c r="A224" s="59" t="s">
         <v>506</v>
       </c>
-      <c r="B224" s="33"/>
-      <c r="C224" s="33"/>
-      <c r="D224" s="33"/>
-      <c r="E224" s="33"/>
-      <c r="F224" s="34"/>
+      <c r="B224" s="56"/>
+      <c r="C224" s="56"/>
+      <c r="D224" s="56"/>
+      <c r="E224" s="56"/>
+      <c r="F224" s="57"/>
     </row>
     <row r="225" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A225" s="35" t="s">
+      <c r="A225" s="58" t="s">
         <v>507</v>
       </c>
-      <c r="B225" s="36"/>
-      <c r="C225" s="36"/>
-      <c r="D225" s="36"/>
-      <c r="E225" s="36"/>
-      <c r="F225" s="37"/>
+      <c r="B225" s="42"/>
+      <c r="C225" s="42"/>
+      <c r="D225" s="42"/>
+      <c r="E225" s="42"/>
+      <c r="F225" s="43"/>
     </row>
     <row r="226" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A226" s="32" t="s">
+      <c r="A226" s="59" t="s">
         <v>508</v>
       </c>
-      <c r="B226" s="33"/>
-      <c r="C226" s="33"/>
-      <c r="D226" s="33"/>
-      <c r="E226" s="33"/>
-      <c r="F226" s="34"/>
+      <c r="B226" s="56"/>
+      <c r="C226" s="56"/>
+      <c r="D226" s="56"/>
+      <c r="E226" s="56"/>
+      <c r="F226" s="57"/>
     </row>
     <row r="227" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A227" s="35" t="s">
+      <c r="A227" s="58" t="s">
         <v>509</v>
       </c>
-      <c r="B227" s="36"/>
-      <c r="C227" s="36"/>
-      <c r="D227" s="36"/>
-      <c r="E227" s="36"/>
-      <c r="F227" s="37"/>
+      <c r="B227" s="42"/>
+      <c r="C227" s="42"/>
+      <c r="D227" s="42"/>
+      <c r="E227" s="42"/>
+      <c r="F227" s="43"/>
     </row>
     <row r="228" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A228" s="32" t="s">
+      <c r="A228" s="59" t="s">
         <v>510</v>
       </c>
-      <c r="B228" s="33"/>
-      <c r="C228" s="33"/>
-      <c r="D228" s="33"/>
-      <c r="E228" s="33"/>
-      <c r="F228" s="34"/>
+      <c r="B228" s="56"/>
+      <c r="C228" s="56"/>
+      <c r="D228" s="56"/>
+      <c r="E228" s="56"/>
+      <c r="F228" s="57"/>
     </row>
     <row r="229" spans="1:6">
-      <c r="A229" s="38" t="s">
+      <c r="A229" s="73" t="s">
         <v>511</v>
       </c>
-      <c r="B229" s="39"/>
-      <c r="C229" s="39"/>
-      <c r="D229" s="39"/>
-      <c r="E229" s="39"/>
+      <c r="B229" s="74"/>
+      <c r="C229" s="74"/>
+      <c r="D229" s="74"/>
+      <c r="E229" s="74"/>
       <c r="F229" s="40"/>
     </row>
     <row r="230" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A230" s="38" t="s">
+      <c r="A230" s="73" t="s">
         <v>512</v>
       </c>
-      <c r="B230" s="39"/>
-      <c r="C230" s="39"/>
-      <c r="D230" s="39"/>
-      <c r="E230" s="39"/>
+      <c r="B230" s="74"/>
+      <c r="C230" s="74"/>
+      <c r="D230" s="74"/>
+      <c r="E230" s="74"/>
       <c r="F230" s="40"/>
     </row>
     <row r="231" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A231" s="38" t="s">
+      <c r="A231" s="73" t="s">
         <v>513</v>
       </c>
-      <c r="B231" s="39"/>
-      <c r="C231" s="39"/>
-      <c r="D231" s="39"/>
-      <c r="E231" s="39"/>
+      <c r="B231" s="74"/>
+      <c r="C231" s="74"/>
+      <c r="D231" s="74"/>
+      <c r="E231" s="74"/>
       <c r="F231" s="40"/>
     </row>
     <row r="232" spans="1:6">
-      <c r="A232" s="35" t="s">
+      <c r="A232" s="58" t="s">
         <v>514</v>
       </c>
-      <c r="B232" s="36"/>
-      <c r="C232" s="36"/>
-      <c r="D232" s="36"/>
-      <c r="E232" s="36"/>
-      <c r="F232" s="37"/>
+      <c r="B232" s="42"/>
+      <c r="C232" s="42"/>
+      <c r="D232" s="42"/>
+      <c r="E232" s="42"/>
+      <c r="F232" s="43"/>
     </row>
     <row r="233" spans="1:6">
-      <c r="A233" s="32" t="s">
+      <c r="A233" s="59" t="s">
         <v>515</v>
       </c>
-      <c r="B233" s="33"/>
-      <c r="C233" s="33"/>
-      <c r="D233" s="33"/>
-      <c r="E233" s="33"/>
-      <c r="F233" s="34"/>
+      <c r="B233" s="56"/>
+      <c r="C233" s="56"/>
+      <c r="D233" s="56"/>
+      <c r="E233" s="56"/>
+      <c r="F233" s="57"/>
     </row>
     <row r="234" spans="1:6">
-      <c r="A234" s="35" t="s">
+      <c r="A234" s="58" t="s">
         <v>516</v>
       </c>
-      <c r="B234" s="36"/>
-      <c r="C234" s="36"/>
-      <c r="D234" s="36"/>
-      <c r="E234" s="36"/>
-      <c r="F234" s="37"/>
+      <c r="B234" s="42"/>
+      <c r="C234" s="42"/>
+      <c r="D234" s="42"/>
+      <c r="E234" s="42"/>
+      <c r="F234" s="43"/>
     </row>
     <row r="235" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A235" s="32" t="s">
+      <c r="A235" s="59" t="s">
         <v>517</v>
       </c>
-      <c r="B235" s="33"/>
-      <c r="C235" s="33"/>
-      <c r="D235" s="33"/>
-      <c r="E235" s="33"/>
-      <c r="F235" s="34"/>
+      <c r="B235" s="56"/>
+      <c r="C235" s="56"/>
+      <c r="D235" s="56"/>
+      <c r="E235" s="56"/>
+      <c r="F235" s="57"/>
     </row>
     <row r="236" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A236" s="38" t="s">
+      <c r="A236" s="73" t="s">
         <v>518</v>
       </c>
-      <c r="B236" s="39"/>
-      <c r="C236" s="39"/>
-      <c r="D236" s="39"/>
-      <c r="E236" s="39"/>
+      <c r="B236" s="74"/>
+      <c r="C236" s="74"/>
+      <c r="D236" s="74"/>
+      <c r="E236" s="74"/>
       <c r="F236" s="40"/>
     </row>
     <row r="237" spans="1:6">
-      <c r="A237" s="35" t="s">
+      <c r="A237" s="58" t="s">
         <v>519</v>
       </c>
-      <c r="B237" s="36"/>
-      <c r="C237" s="36"/>
-      <c r="D237" s="36"/>
-      <c r="E237" s="36"/>
-      <c r="F237" s="37"/>
+      <c r="B237" s="42"/>
+      <c r="C237" s="42"/>
+      <c r="D237" s="42"/>
+      <c r="E237" s="42"/>
+      <c r="F237" s="43"/>
     </row>
     <row r="238" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A238" s="32" t="s">
+      <c r="A238" s="59" t="s">
         <v>520</v>
       </c>
-      <c r="B238" s="33"/>
-      <c r="C238" s="33"/>
-      <c r="D238" s="33"/>
-      <c r="E238" s="33"/>
-      <c r="F238" s="34"/>
+      <c r="B238" s="56"/>
+      <c r="C238" s="56"/>
+      <c r="D238" s="56"/>
+      <c r="E238" s="56"/>
+      <c r="F238" s="57"/>
     </row>
     <row r="239" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A239" s="38" t="s">
+      <c r="A239" s="73" t="s">
         <v>521</v>
       </c>
-      <c r="B239" s="39"/>
-      <c r="C239" s="39"/>
-      <c r="D239" s="39"/>
-      <c r="E239" s="39"/>
+      <c r="B239" s="74"/>
+      <c r="C239" s="74"/>
+      <c r="D239" s="74"/>
+      <c r="E239" s="74"/>
       <c r="F239" s="40"/>
     </row>
     <row r="240" spans="1:6">
-      <c r="A240" s="35" t="s">
+      <c r="A240" s="58" t="s">
         <v>522</v>
       </c>
-      <c r="B240" s="36"/>
-      <c r="C240" s="36"/>
-      <c r="D240" s="36"/>
-      <c r="E240" s="36"/>
-      <c r="F240" s="37"/>
+      <c r="B240" s="42"/>
+      <c r="C240" s="42"/>
+      <c r="D240" s="42"/>
+      <c r="E240" s="42"/>
+      <c r="F240" s="43"/>
     </row>
     <row r="241" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A241" s="41" t="s">
+      <c r="A241" s="70" t="s">
         <v>523</v>
       </c>
-      <c r="B241" s="42"/>
-      <c r="C241" s="42"/>
-      <c r="D241" s="42"/>
-      <c r="E241" s="42"/>
-      <c r="F241" s="43"/>
+      <c r="B241" s="71"/>
+      <c r="C241" s="71"/>
+      <c r="D241" s="71"/>
+      <c r="E241" s="71"/>
+      <c r="F241" s="72"/>
     </row>
     <row r="242" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A242" s="41" t="s">
+      <c r="A242" s="70" t="s">
         <v>524</v>
       </c>
-      <c r="B242" s="42"/>
-      <c r="C242" s="42"/>
-      <c r="D242" s="42"/>
-      <c r="E242" s="42"/>
-      <c r="F242" s="43"/>
+      <c r="B242" s="71"/>
+      <c r="C242" s="71"/>
+      <c r="D242" s="71"/>
+      <c r="E242" s="71"/>
+      <c r="F242" s="72"/>
     </row>
     <row r="243" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A243" s="32" t="s">
+      <c r="A243" s="59" t="s">
         <v>525</v>
       </c>
-      <c r="B243" s="33"/>
-      <c r="C243" s="33"/>
-      <c r="D243" s="33"/>
-      <c r="E243" s="33"/>
-      <c r="F243" s="34"/>
+      <c r="B243" s="56"/>
+      <c r="C243" s="56"/>
+      <c r="D243" s="56"/>
+      <c r="E243" s="56"/>
+      <c r="F243" s="57"/>
     </row>
     <row r="244" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A244" s="38" t="s">
+      <c r="A244" s="73" t="s">
         <v>526</v>
       </c>
-      <c r="B244" s="39"/>
-      <c r="C244" s="39"/>
-      <c r="D244" s="39"/>
-      <c r="E244" s="39"/>
+      <c r="B244" s="74"/>
+      <c r="C244" s="74"/>
+      <c r="D244" s="74"/>
+      <c r="E244" s="74"/>
       <c r="F244" s="40"/>
     </row>
     <row r="245" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A245" s="38" t="s">
+      <c r="A245" s="73" t="s">
         <v>527</v>
       </c>
-      <c r="B245" s="39"/>
-      <c r="C245" s="39"/>
-      <c r="D245" s="39"/>
-      <c r="E245" s="39"/>
+      <c r="B245" s="74"/>
+      <c r="C245" s="74"/>
+      <c r="D245" s="74"/>
+      <c r="E245" s="74"/>
       <c r="F245" s="40"/>
     </row>
     <row r="246" spans="1:6">
-      <c r="A246" s="35" t="s">
+      <c r="A246" s="58" t="s">
         <v>528</v>
       </c>
-      <c r="B246" s="36"/>
-      <c r="C246" s="36"/>
-      <c r="D246" s="36"/>
-      <c r="E246" s="36"/>
-      <c r="F246" s="37"/>
+      <c r="B246" s="42"/>
+      <c r="C246" s="42"/>
+      <c r="D246" s="42"/>
+      <c r="E246" s="42"/>
+      <c r="F246" s="43"/>
     </row>
     <row r="247" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A247" s="41" t="s">
+      <c r="A247" s="70" t="s">
         <v>529</v>
       </c>
-      <c r="B247" s="42"/>
-      <c r="C247" s="42"/>
-      <c r="D247" s="42"/>
-      <c r="E247" s="42"/>
-      <c r="F247" s="43"/>
+      <c r="B247" s="71"/>
+      <c r="C247" s="71"/>
+      <c r="D247" s="71"/>
+      <c r="E247" s="71"/>
+      <c r="F247" s="72"/>
     </row>
     <row r="248" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A248" s="41" t="s">
+      <c r="A248" s="70" t="s">
         <v>530</v>
       </c>
-      <c r="B248" s="42"/>
-      <c r="C248" s="42"/>
-      <c r="D248" s="42"/>
-      <c r="E248" s="42"/>
-      <c r="F248" s="43"/>
+      <c r="B248" s="71"/>
+      <c r="C248" s="71"/>
+      <c r="D248" s="71"/>
+      <c r="E248" s="71"/>
+      <c r="F248" s="72"/>
     </row>
     <row r="249" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A249" s="41" t="s">
+      <c r="A249" s="70" t="s">
         <v>531</v>
       </c>
-      <c r="B249" s="42"/>
-      <c r="C249" s="42"/>
-      <c r="D249" s="42"/>
-      <c r="E249" s="42"/>
-      <c r="F249" s="43"/>
+      <c r="B249" s="71"/>
+      <c r="C249" s="71"/>
+      <c r="D249" s="71"/>
+      <c r="E249" s="71"/>
+      <c r="F249" s="72"/>
     </row>
     <row r="250" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A250" s="41" t="s">
+      <c r="A250" s="70" t="s">
         <v>532</v>
       </c>
-      <c r="B250" s="42"/>
-      <c r="C250" s="42"/>
-      <c r="D250" s="42"/>
-      <c r="E250" s="42"/>
-      <c r="F250" s="43"/>
+      <c r="B250" s="71"/>
+      <c r="C250" s="71"/>
+      <c r="D250" s="71"/>
+      <c r="E250" s="71"/>
+      <c r="F250" s="72"/>
     </row>
     <row r="251" spans="1:6">
-      <c r="A251" s="41" t="s">
+      <c r="A251" s="70" t="s">
         <v>533</v>
       </c>
-      <c r="B251" s="42"/>
-      <c r="C251" s="42"/>
-      <c r="D251" s="42"/>
-      <c r="E251" s="42"/>
-      <c r="F251" s="43"/>
+      <c r="B251" s="71"/>
+      <c r="C251" s="71"/>
+      <c r="D251" s="71"/>
+      <c r="E251" s="71"/>
+      <c r="F251" s="72"/>
     </row>
     <row r="252" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A252" s="41" t="s">
+      <c r="A252" s="70" t="s">
         <v>534</v>
       </c>
-      <c r="B252" s="42"/>
-      <c r="C252" s="42"/>
-      <c r="D252" s="42"/>
-      <c r="E252" s="42"/>
-      <c r="F252" s="43"/>
+      <c r="B252" s="71"/>
+      <c r="C252" s="71"/>
+      <c r="D252" s="71"/>
+      <c r="E252" s="71"/>
+      <c r="F252" s="72"/>
     </row>
     <row r="253" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A253" s="32" t="s">
+      <c r="A253" s="59" t="s">
         <v>535</v>
       </c>
-      <c r="B253" s="33"/>
-      <c r="C253" s="33"/>
-      <c r="D253" s="33"/>
-      <c r="E253" s="33"/>
-      <c r="F253" s="34"/>
+      <c r="B253" s="56"/>
+      <c r="C253" s="56"/>
+      <c r="D253" s="56"/>
+      <c r="E253" s="56"/>
+      <c r="F253" s="57"/>
     </row>
     <row r="254" spans="1:6">
-      <c r="A254" s="35" t="s">
+      <c r="A254" s="58" t="s">
         <v>536</v>
       </c>
-      <c r="B254" s="36"/>
-      <c r="C254" s="36"/>
-      <c r="D254" s="36"/>
-      <c r="E254" s="36"/>
-      <c r="F254" s="37"/>
+      <c r="B254" s="42"/>
+      <c r="C254" s="42"/>
+      <c r="D254" s="42"/>
+      <c r="E254" s="42"/>
+      <c r="F254" s="43"/>
     </row>
     <row r="255" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A255" s="41" t="s">
+      <c r="A255" s="70" t="s">
         <v>537</v>
       </c>
-      <c r="B255" s="42"/>
-      <c r="C255" s="42"/>
-      <c r="D255" s="42"/>
-      <c r="E255" s="42"/>
-      <c r="F255" s="43"/>
+      <c r="B255" s="71"/>
+      <c r="C255" s="71"/>
+      <c r="D255" s="71"/>
+      <c r="E255" s="71"/>
+      <c r="F255" s="72"/>
     </row>
     <row r="256" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A256" s="41" t="s">
+      <c r="A256" s="70" t="s">
         <v>538</v>
       </c>
-      <c r="B256" s="42"/>
-      <c r="C256" s="42"/>
-      <c r="D256" s="42"/>
-      <c r="E256" s="42"/>
-      <c r="F256" s="43"/>
+      <c r="B256" s="71"/>
+      <c r="C256" s="71"/>
+      <c r="D256" s="71"/>
+      <c r="E256" s="71"/>
+      <c r="F256" s="72"/>
     </row>
     <row r="257" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A257" s="41" t="s">
+      <c r="A257" s="70" t="s">
         <v>539</v>
       </c>
-      <c r="B257" s="42"/>
-      <c r="C257" s="42"/>
-      <c r="D257" s="42"/>
-      <c r="E257" s="42"/>
-      <c r="F257" s="43"/>
+      <c r="B257" s="71"/>
+      <c r="C257" s="71"/>
+      <c r="D257" s="71"/>
+      <c r="E257" s="71"/>
+      <c r="F257" s="72"/>
     </row>
     <row r="258" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A258" s="41" t="s">
+      <c r="A258" s="70" t="s">
         <v>540</v>
       </c>
-      <c r="B258" s="42"/>
-      <c r="C258" s="42"/>
-      <c r="D258" s="42"/>
-      <c r="E258" s="42"/>
-      <c r="F258" s="43"/>
+      <c r="B258" s="71"/>
+      <c r="C258" s="71"/>
+      <c r="D258" s="71"/>
+      <c r="E258" s="71"/>
+      <c r="F258" s="72"/>
     </row>
     <row r="259" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A259" s="41" t="s">
+      <c r="A259" s="70" t="s">
         <v>541</v>
       </c>
-      <c r="B259" s="42"/>
-      <c r="C259" s="42"/>
-      <c r="D259" s="42"/>
-      <c r="E259" s="42"/>
-      <c r="F259" s="43"/>
+      <c r="B259" s="71"/>
+      <c r="C259" s="71"/>
+      <c r="D259" s="71"/>
+      <c r="E259" s="71"/>
+      <c r="F259" s="72"/>
     </row>
     <row r="260" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A260" s="41" t="s">
+      <c r="A260" s="70" t="s">
         <v>542</v>
       </c>
-      <c r="B260" s="42"/>
-      <c r="C260" s="42"/>
-      <c r="D260" s="42"/>
-      <c r="E260" s="42"/>
-      <c r="F260" s="43"/>
+      <c r="B260" s="71"/>
+      <c r="C260" s="71"/>
+      <c r="D260" s="71"/>
+      <c r="E260" s="71"/>
+      <c r="F260" s="72"/>
     </row>
     <row r="261" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A261" s="41" t="s">
+      <c r="A261" s="70" t="s">
         <v>543</v>
       </c>
-      <c r="B261" s="42"/>
-      <c r="C261" s="42"/>
-      <c r="D261" s="42"/>
-      <c r="E261" s="42"/>
-      <c r="F261" s="43"/>
+      <c r="B261" s="71"/>
+      <c r="C261" s="71"/>
+      <c r="D261" s="71"/>
+      <c r="E261" s="71"/>
+      <c r="F261" s="72"/>
     </row>
     <row r="262" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A262" s="41" t="s">
+      <c r="A262" s="70" t="s">
         <v>544</v>
       </c>
-      <c r="B262" s="42"/>
-      <c r="C262" s="42"/>
-      <c r="D262" s="42"/>
-      <c r="E262" s="42"/>
-      <c r="F262" s="43"/>
+      <c r="B262" s="71"/>
+      <c r="C262" s="71"/>
+      <c r="D262" s="71"/>
+      <c r="E262" s="71"/>
+      <c r="F262" s="72"/>
     </row>
     <row r="263" spans="1:6">
-      <c r="A263" s="41" t="s">
+      <c r="A263" s="70" t="s">
         <v>545</v>
       </c>
-      <c r="B263" s="42"/>
-      <c r="C263" s="42"/>
-      <c r="D263" s="42"/>
-      <c r="E263" s="42"/>
-      <c r="F263" s="43"/>
+      <c r="B263" s="71"/>
+      <c r="C263" s="71"/>
+      <c r="D263" s="71"/>
+      <c r="E263" s="71"/>
+      <c r="F263" s="72"/>
     </row>
     <row r="264" spans="1:6">
-      <c r="A264" s="32" t="s">
+      <c r="A264" s="59" t="s">
         <v>546</v>
       </c>
-      <c r="B264" s="33"/>
-      <c r="C264" s="33"/>
-      <c r="D264" s="33"/>
-      <c r="E264" s="33"/>
-      <c r="F264" s="34"/>
+      <c r="B264" s="56"/>
+      <c r="C264" s="56"/>
+      <c r="D264" s="56"/>
+      <c r="E264" s="56"/>
+      <c r="F264" s="57"/>
     </row>
     <row r="265" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A265" s="35" t="s">
+      <c r="A265" s="58" t="s">
         <v>547</v>
       </c>
-      <c r="B265" s="36"/>
-      <c r="C265" s="36"/>
-      <c r="D265" s="36"/>
-      <c r="E265" s="36"/>
-      <c r="F265" s="37"/>
+      <c r="B265" s="42"/>
+      <c r="C265" s="42"/>
+      <c r="D265" s="42"/>
+      <c r="E265" s="42"/>
+      <c r="F265" s="43"/>
     </row>
     <row r="266" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A266" s="32" t="s">
+      <c r="A266" s="59" t="s">
         <v>548</v>
       </c>
-      <c r="B266" s="33"/>
-      <c r="C266" s="33"/>
-      <c r="D266" s="33"/>
-      <c r="E266" s="33"/>
-      <c r="F266" s="34"/>
+      <c r="B266" s="56"/>
+      <c r="C266" s="56"/>
+      <c r="D266" s="56"/>
+      <c r="E266" s="56"/>
+      <c r="F266" s="57"/>
     </row>
     <row r="267" spans="1:6">
-      <c r="A267" s="35" t="s">
+      <c r="A267" s="58" t="s">
         <v>549</v>
       </c>
-      <c r="B267" s="36"/>
-      <c r="C267" s="36"/>
-      <c r="D267" s="36"/>
-      <c r="E267" s="36"/>
-      <c r="F267" s="37"/>
+      <c r="B267" s="42"/>
+      <c r="C267" s="42"/>
+      <c r="D267" s="42"/>
+      <c r="E267" s="42"/>
+      <c r="F267" s="43"/>
     </row>
     <row r="268" spans="1:6">
-      <c r="A268" s="41" t="s">
+      <c r="A268" s="70" t="s">
         <v>550</v>
       </c>
-      <c r="B268" s="42"/>
-      <c r="C268" s="42"/>
-      <c r="D268" s="42"/>
-      <c r="E268" s="42"/>
-      <c r="F268" s="43"/>
+      <c r="B268" s="71"/>
+      <c r="C268" s="71"/>
+      <c r="D268" s="71"/>
+      <c r="E268" s="71"/>
+      <c r="F268" s="72"/>
     </row>
     <row r="269" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A269" s="32" t="s">
+      <c r="A269" s="59" t="s">
         <v>551</v>
       </c>
-      <c r="B269" s="33"/>
-      <c r="C269" s="33"/>
-      <c r="D269" s="33"/>
-      <c r="E269" s="33"/>
-      <c r="F269" s="34"/>
+      <c r="B269" s="56"/>
+      <c r="C269" s="56"/>
+      <c r="D269" s="56"/>
+      <c r="E269" s="56"/>
+      <c r="F269" s="57"/>
     </row>
     <row r="270" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A270" s="38" t="s">
+      <c r="A270" s="73" t="s">
         <v>552</v>
       </c>
-      <c r="B270" s="39"/>
-      <c r="C270" s="39"/>
-      <c r="D270" s="39"/>
-      <c r="E270" s="39"/>
+      <c r="B270" s="74"/>
+      <c r="C270" s="74"/>
+      <c r="D270" s="74"/>
+      <c r="E270" s="74"/>
       <c r="F270" s="40"/>
     </row>
     <row r="271" spans="1:6">
-      <c r="A271" s="35" t="s">
+      <c r="A271" s="58" t="s">
         <v>553</v>
       </c>
-      <c r="B271" s="36"/>
-      <c r="C271" s="36"/>
-      <c r="D271" s="36"/>
-      <c r="E271" s="36"/>
-      <c r="F271" s="37"/>
+      <c r="B271" s="42"/>
+      <c r="C271" s="42"/>
+      <c r="D271" s="42"/>
+      <c r="E271" s="42"/>
+      <c r="F271" s="43"/>
     </row>
     <row r="272" spans="1:6">
-      <c r="A272" s="41" t="s">
+      <c r="A272" s="70" t="s">
         <v>554</v>
       </c>
-      <c r="B272" s="42"/>
-      <c r="C272" s="42"/>
-      <c r="D272" s="42"/>
-      <c r="E272" s="42"/>
-      <c r="F272" s="43"/>
+      <c r="B272" s="71"/>
+      <c r="C272" s="71"/>
+      <c r="D272" s="71"/>
+      <c r="E272" s="71"/>
+      <c r="F272" s="72"/>
     </row>
     <row r="273" spans="1:6">
-      <c r="A273" s="41" t="s">
+      <c r="A273" s="70" t="s">
         <v>555</v>
       </c>
-      <c r="B273" s="42"/>
-      <c r="C273" s="42"/>
-      <c r="D273" s="42"/>
-      <c r="E273" s="42"/>
-      <c r="F273" s="43"/>
+      <c r="B273" s="71"/>
+      <c r="C273" s="71"/>
+      <c r="D273" s="71"/>
+      <c r="E273" s="71"/>
+      <c r="F273" s="72"/>
     </row>
     <row r="274" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A274" s="41" t="s">
+      <c r="A274" s="70" t="s">
         <v>556</v>
       </c>
-      <c r="B274" s="42"/>
-      <c r="C274" s="42"/>
-      <c r="D274" s="42"/>
-      <c r="E274" s="42"/>
-      <c r="F274" s="43"/>
+      <c r="B274" s="71"/>
+      <c r="C274" s="71"/>
+      <c r="D274" s="71"/>
+      <c r="E274" s="71"/>
+      <c r="F274" s="72"/>
     </row>
     <row r="275" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A275" s="41" t="s">
+      <c r="A275" s="70" t="s">
         <v>557</v>
       </c>
-      <c r="B275" s="42"/>
-      <c r="C275" s="42"/>
-      <c r="D275" s="42"/>
-      <c r="E275" s="42"/>
-      <c r="F275" s="43"/>
+      <c r="B275" s="71"/>
+      <c r="C275" s="71"/>
+      <c r="D275" s="71"/>
+      <c r="E275" s="71"/>
+      <c r="F275" s="72"/>
     </row>
     <row r="276" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A276" s="32" t="s">
+      <c r="A276" s="59" t="s">
         <v>558</v>
       </c>
-      <c r="B276" s="33"/>
-      <c r="C276" s="33"/>
-      <c r="D276" s="33"/>
-      <c r="E276" s="33"/>
-      <c r="F276" s="34"/>
+      <c r="B276" s="56"/>
+      <c r="C276" s="56"/>
+      <c r="D276" s="56"/>
+      <c r="E276" s="56"/>
+      <c r="F276" s="57"/>
     </row>
     <row r="277" spans="1:6">
-      <c r="A277" s="38" t="s">
+      <c r="A277" s="73" t="s">
         <v>559</v>
       </c>
-      <c r="B277" s="39"/>
-      <c r="C277" s="39"/>
-      <c r="D277" s="39"/>
-      <c r="E277" s="39"/>
+      <c r="B277" s="74"/>
+      <c r="C277" s="74"/>
+      <c r="D277" s="74"/>
+      <c r="E277" s="74"/>
       <c r="F277" s="40"/>
     </row>
     <row r="278" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A278" s="38" t="s">
+      <c r="A278" s="73" t="s">
         <v>560</v>
       </c>
-      <c r="B278" s="39"/>
-      <c r="C278" s="39"/>
-      <c r="D278" s="39"/>
-      <c r="E278" s="39"/>
+      <c r="B278" s="74"/>
+      <c r="C278" s="74"/>
+      <c r="D278" s="74"/>
+      <c r="E278" s="74"/>
       <c r="F278" s="40"/>
     </row>
     <row r="279" spans="1:6">
-      <c r="A279" s="35" t="s">
+      <c r="A279" s="58" t="s">
         <v>561</v>
       </c>
-      <c r="B279" s="36"/>
-      <c r="C279" s="36"/>
-      <c r="D279" s="36"/>
-      <c r="E279" s="36"/>
-      <c r="F279" s="37"/>
+      <c r="B279" s="42"/>
+      <c r="C279" s="42"/>
+      <c r="D279" s="42"/>
+      <c r="E279" s="42"/>
+      <c r="F279" s="43"/>
     </row>
     <row r="280" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A280" s="32" t="s">
+      <c r="A280" s="59" t="s">
         <v>562</v>
       </c>
-      <c r="B280" s="33"/>
-      <c r="C280" s="33"/>
-      <c r="D280" s="33"/>
-      <c r="E280" s="33"/>
-      <c r="F280" s="34"/>
+      <c r="B280" s="56"/>
+      <c r="C280" s="56"/>
+      <c r="D280" s="56"/>
+      <c r="E280" s="56"/>
+      <c r="F280" s="57"/>
     </row>
     <row r="281" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A281" s="35" t="s">
+      <c r="A281" s="58" t="s">
         <v>563</v>
       </c>
-      <c r="B281" s="36"/>
-      <c r="C281" s="36"/>
-      <c r="D281" s="36"/>
-      <c r="E281" s="36"/>
-      <c r="F281" s="37"/>
+      <c r="B281" s="42"/>
+      <c r="C281" s="42"/>
+      <c r="D281" s="42"/>
+      <c r="E281" s="42"/>
+      <c r="F281" s="43"/>
     </row>
     <row r="282" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A282" s="32" t="s">
+      <c r="A282" s="59" t="s">
         <v>564</v>
       </c>
-      <c r="B282" s="33"/>
-      <c r="C282" s="33"/>
-      <c r="D282" s="33"/>
-      <c r="E282" s="33"/>
-      <c r="F282" s="34"/>
+      <c r="B282" s="56"/>
+      <c r="C282" s="56"/>
+      <c r="D282" s="56"/>
+      <c r="E282" s="56"/>
+      <c r="F282" s="57"/>
     </row>
     <row r="283" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A283" s="38" t="s">
+      <c r="A283" s="73" t="s">
         <v>565</v>
       </c>
-      <c r="B283" s="39"/>
-      <c r="C283" s="39"/>
-      <c r="D283" s="39"/>
-      <c r="E283" s="39"/>
+      <c r="B283" s="74"/>
+      <c r="C283" s="74"/>
+      <c r="D283" s="74"/>
+      <c r="E283" s="74"/>
       <c r="F283" s="40"/>
     </row>
     <row r="284" spans="1:6">
-      <c r="A284" s="38" t="s">
+      <c r="A284" s="73" t="s">
         <v>566</v>
       </c>
-      <c r="B284" s="39"/>
-      <c r="C284" s="39"/>
-      <c r="D284" s="39"/>
-      <c r="E284" s="39"/>
+      <c r="B284" s="74"/>
+      <c r="C284" s="74"/>
+      <c r="D284" s="74"/>
+      <c r="E284" s="74"/>
       <c r="F284" s="40"/>
     </row>
     <row r="285" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A285" s="38" t="s">
+      <c r="A285" s="73" t="s">
         <v>567</v>
       </c>
-      <c r="B285" s="39"/>
-      <c r="C285" s="39"/>
-      <c r="D285" s="39"/>
-      <c r="E285" s="39"/>
+      <c r="B285" s="74"/>
+      <c r="C285" s="74"/>
+      <c r="D285" s="74"/>
+      <c r="E285" s="74"/>
       <c r="F285" s="40"/>
     </row>
     <row r="286" spans="1:6">
-      <c r="A286" s="35" t="s">
+      <c r="A286" s="58" t="s">
         <v>561</v>
       </c>
-      <c r="B286" s="36"/>
-      <c r="C286" s="36"/>
-      <c r="D286" s="36"/>
-      <c r="E286" s="36"/>
-      <c r="F286" s="37"/>
+      <c r="B286" s="42"/>
+      <c r="C286" s="42"/>
+      <c r="D286" s="42"/>
+      <c r="E286" s="42"/>
+      <c r="F286" s="43"/>
     </row>
     <row r="287" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A287" s="32" t="s">
+      <c r="A287" s="59" t="s">
         <v>568</v>
       </c>
-      <c r="B287" s="33"/>
-      <c r="C287" s="33"/>
-      <c r="D287" s="33"/>
-      <c r="E287" s="33"/>
-      <c r="F287" s="34"/>
+      <c r="B287" s="56"/>
+      <c r="C287" s="56"/>
+      <c r="D287" s="56"/>
+      <c r="E287" s="56"/>
+      <c r="F287" s="57"/>
     </row>
     <row r="288" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A288" s="38" t="s">
+      <c r="A288" s="73" t="s">
         <v>569</v>
       </c>
-      <c r="B288" s="39"/>
-      <c r="C288" s="39"/>
-      <c r="D288" s="39"/>
-      <c r="E288" s="39"/>
+      <c r="B288" s="74"/>
+      <c r="C288" s="74"/>
+      <c r="D288" s="74"/>
+      <c r="E288" s="74"/>
       <c r="F288" s="40"/>
     </row>
     <row r="289" spans="1:6">
-      <c r="A289" s="35" t="s">
+      <c r="A289" s="58" t="s">
         <v>570</v>
       </c>
-      <c r="B289" s="36"/>
-      <c r="C289" s="36"/>
-      <c r="D289" s="36"/>
-      <c r="E289" s="36"/>
-      <c r="F289" s="37"/>
+      <c r="B289" s="42"/>
+      <c r="C289" s="42"/>
+      <c r="D289" s="42"/>
+      <c r="E289" s="42"/>
+      <c r="F289" s="43"/>
     </row>
     <row r="290" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A290" s="41" t="s">
+      <c r="A290" s="70" t="s">
         <v>571</v>
       </c>
-      <c r="B290" s="42"/>
-      <c r="C290" s="42"/>
-      <c r="D290" s="42"/>
-      <c r="E290" s="42"/>
-      <c r="F290" s="43"/>
+      <c r="B290" s="71"/>
+      <c r="C290" s="71"/>
+      <c r="D290" s="71"/>
+      <c r="E290" s="71"/>
+      <c r="F290" s="72"/>
     </row>
     <row r="291" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A291" s="41" t="s">
+      <c r="A291" s="70" t="s">
         <v>572</v>
       </c>
-      <c r="B291" s="42"/>
-      <c r="C291" s="42"/>
-      <c r="D291" s="42"/>
-      <c r="E291" s="42"/>
-      <c r="F291" s="43"/>
+      <c r="B291" s="71"/>
+      <c r="C291" s="71"/>
+      <c r="D291" s="71"/>
+      <c r="E291" s="71"/>
+      <c r="F291" s="72"/>
     </row>
     <row r="292" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A292" s="41" t="s">
+      <c r="A292" s="70" t="s">
         <v>573</v>
       </c>
-      <c r="B292" s="42"/>
-      <c r="C292" s="42"/>
-      <c r="D292" s="42"/>
-      <c r="E292" s="42"/>
-      <c r="F292" s="43"/>
+      <c r="B292" s="71"/>
+      <c r="C292" s="71"/>
+      <c r="D292" s="71"/>
+      <c r="E292" s="71"/>
+      <c r="F292" s="72"/>
     </row>
     <row r="293" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A293" s="32" t="s">
+      <c r="A293" s="59" t="s">
         <v>574</v>
       </c>
-      <c r="B293" s="33"/>
-      <c r="C293" s="33"/>
-      <c r="D293" s="33"/>
-      <c r="E293" s="33"/>
-      <c r="F293" s="34"/>
+      <c r="B293" s="56"/>
+      <c r="C293" s="56"/>
+      <c r="D293" s="56"/>
+      <c r="E293" s="56"/>
+      <c r="F293" s="57"/>
     </row>
     <row r="294" spans="1:6">
-      <c r="A294" s="35" t="s">
+      <c r="A294" s="58" t="s">
         <v>575</v>
       </c>
-      <c r="B294" s="36"/>
-      <c r="C294" s="36"/>
-      <c r="D294" s="36"/>
-      <c r="E294" s="36"/>
-      <c r="F294" s="37"/>
+      <c r="B294" s="42"/>
+      <c r="C294" s="42"/>
+      <c r="D294" s="42"/>
+      <c r="E294" s="42"/>
+      <c r="F294" s="43"/>
     </row>
     <row r="295" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A295" s="41" t="s">
+      <c r="A295" s="70" t="s">
         <v>576</v>
       </c>
-      <c r="B295" s="42"/>
-      <c r="C295" s="42"/>
-      <c r="D295" s="42"/>
-      <c r="E295" s="42"/>
-      <c r="F295" s="43"/>
+      <c r="B295" s="71"/>
+      <c r="C295" s="71"/>
+      <c r="D295" s="71"/>
+      <c r="E295" s="71"/>
+      <c r="F295" s="72"/>
     </row>
     <row r="296" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A296" s="41" t="s">
+      <c r="A296" s="70" t="s">
         <v>577</v>
       </c>
-      <c r="B296" s="42"/>
-      <c r="C296" s="42"/>
-      <c r="D296" s="42"/>
-      <c r="E296" s="42"/>
-      <c r="F296" s="43"/>
+      <c r="B296" s="71"/>
+      <c r="C296" s="71"/>
+      <c r="D296" s="71"/>
+      <c r="E296" s="71"/>
+      <c r="F296" s="72"/>
     </row>
     <row r="297" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A297" s="32" t="s">
+      <c r="A297" s="59" t="s">
         <v>578</v>
       </c>
-      <c r="B297" s="33"/>
-      <c r="C297" s="33"/>
-      <c r="D297" s="33"/>
-      <c r="E297" s="33"/>
-      <c r="F297" s="34"/>
+      <c r="B297" s="56"/>
+      <c r="C297" s="56"/>
+      <c r="D297" s="56"/>
+      <c r="E297" s="56"/>
+      <c r="F297" s="57"/>
     </row>
     <row r="298" spans="1:6">
-      <c r="A298" s="35" t="s">
+      <c r="A298" s="58" t="s">
         <v>579</v>
       </c>
-      <c r="B298" s="36"/>
-      <c r="C298" s="36"/>
-      <c r="D298" s="36"/>
-      <c r="E298" s="36"/>
-      <c r="F298" s="37"/>
+      <c r="B298" s="42"/>
+      <c r="C298" s="42"/>
+      <c r="D298" s="42"/>
+      <c r="E298" s="42"/>
+      <c r="F298" s="43"/>
     </row>
     <row r="299" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A299" s="41" t="s">
+      <c r="A299" s="70" t="s">
         <v>580</v>
       </c>
-      <c r="B299" s="42"/>
-      <c r="C299" s="42"/>
-      <c r="D299" s="42"/>
-      <c r="E299" s="42"/>
-      <c r="F299" s="43"/>
+      <c r="B299" s="71"/>
+      <c r="C299" s="71"/>
+      <c r="D299" s="71"/>
+      <c r="E299" s="71"/>
+      <c r="F299" s="72"/>
     </row>
     <row r="300" spans="1:6">
-      <c r="A300" s="41" t="s">
+      <c r="A300" s="70" t="s">
         <v>581</v>
       </c>
-      <c r="B300" s="42"/>
-      <c r="C300" s="42"/>
-      <c r="D300" s="42"/>
-      <c r="E300" s="42"/>
-      <c r="F300" s="43"/>
+      <c r="B300" s="71"/>
+      <c r="C300" s="71"/>
+      <c r="D300" s="71"/>
+      <c r="E300" s="71"/>
+      <c r="F300" s="72"/>
     </row>
     <row r="301" spans="1:6">
-      <c r="A301" s="32" t="s">
+      <c r="A301" s="59" t="s">
         <v>582</v>
       </c>
-      <c r="B301" s="33"/>
-      <c r="C301" s="33"/>
-      <c r="D301" s="33"/>
-      <c r="E301" s="33"/>
-      <c r="F301" s="34"/>
+      <c r="B301" s="56"/>
+      <c r="C301" s="56"/>
+      <c r="D301" s="56"/>
+      <c r="E301" s="56"/>
+      <c r="F301" s="57"/>
     </row>
     <row r="302" spans="1:6">
-      <c r="A302" s="35" t="s">
+      <c r="A302" s="58" t="s">
         <v>583</v>
       </c>
-      <c r="B302" s="36"/>
-      <c r="C302" s="36"/>
-      <c r="D302" s="36"/>
-      <c r="E302" s="36"/>
-      <c r="F302" s="37"/>
+      <c r="B302" s="42"/>
+      <c r="C302" s="42"/>
+      <c r="D302" s="42"/>
+      <c r="E302" s="42"/>
+      <c r="F302" s="43"/>
     </row>
     <row r="303" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A303" s="41" t="s">
+      <c r="A303" s="70" t="s">
         <v>584</v>
       </c>
-      <c r="B303" s="42"/>
-      <c r="C303" s="42"/>
-      <c r="D303" s="42"/>
-      <c r="E303" s="42"/>
-      <c r="F303" s="43"/>
+      <c r="B303" s="71"/>
+      <c r="C303" s="71"/>
+      <c r="D303" s="71"/>
+      <c r="E303" s="71"/>
+      <c r="F303" s="72"/>
     </row>
     <row r="304" spans="1:6">
-      <c r="A304" s="32" t="s">
+      <c r="A304" s="59" t="s">
         <v>585</v>
       </c>
-      <c r="B304" s="33"/>
-      <c r="C304" s="33"/>
-      <c r="D304" s="33"/>
-      <c r="E304" s="33"/>
-      <c r="F304" s="34"/>
+      <c r="B304" s="56"/>
+      <c r="C304" s="56"/>
+      <c r="D304" s="56"/>
+      <c r="E304" s="56"/>
+      <c r="F304" s="57"/>
     </row>
     <row r="305" spans="1:6">
-      <c r="A305" s="35" t="s">
+      <c r="A305" s="58" t="s">
         <v>586</v>
       </c>
-      <c r="B305" s="36"/>
-      <c r="C305" s="36"/>
-      <c r="D305" s="36"/>
-      <c r="E305" s="36"/>
-      <c r="F305" s="37"/>
+      <c r="B305" s="42"/>
+      <c r="C305" s="42"/>
+      <c r="D305" s="42"/>
+      <c r="E305" s="42"/>
+      <c r="F305" s="43"/>
     </row>
     <row r="306" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A306" s="41" t="s">
+      <c r="A306" s="70" t="s">
         <v>587</v>
       </c>
-      <c r="B306" s="42"/>
-      <c r="C306" s="42"/>
-      <c r="D306" s="42"/>
-      <c r="E306" s="42"/>
-      <c r="F306" s="43"/>
+      <c r="B306" s="71"/>
+      <c r="C306" s="71"/>
+      <c r="D306" s="71"/>
+      <c r="E306" s="71"/>
+      <c r="F306" s="72"/>
     </row>
     <row r="307" spans="1:6">
-      <c r="A307" s="32" t="s">
+      <c r="A307" s="59" t="s">
         <v>588</v>
       </c>
-      <c r="B307" s="33"/>
-      <c r="C307" s="33"/>
-      <c r="D307" s="33"/>
-      <c r="E307" s="33"/>
-      <c r="F307" s="34"/>
+      <c r="B307" s="56"/>
+      <c r="C307" s="56"/>
+      <c r="D307" s="56"/>
+      <c r="E307" s="56"/>
+      <c r="F307" s="57"/>
     </row>
     <row r="308" spans="1:6">
-      <c r="A308" s="35" t="s">
+      <c r="A308" s="58" t="s">
         <v>586</v>
       </c>
-      <c r="B308" s="36"/>
-      <c r="C308" s="36"/>
-      <c r="D308" s="36"/>
-      <c r="E308" s="36"/>
-      <c r="F308" s="37"/>
+      <c r="B308" s="42"/>
+      <c r="C308" s="42"/>
+      <c r="D308" s="42"/>
+      <c r="E308" s="42"/>
+      <c r="F308" s="43"/>
     </row>
     <row r="309" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A309" s="41" t="s">
+      <c r="A309" s="70" t="s">
         <v>589</v>
       </c>
-      <c r="B309" s="42"/>
-      <c r="C309" s="42"/>
-      <c r="D309" s="42"/>
-      <c r="E309" s="42"/>
-      <c r="F309" s="43"/>
+      <c r="B309" s="71"/>
+      <c r="C309" s="71"/>
+      <c r="D309" s="71"/>
+      <c r="E309" s="71"/>
+      <c r="F309" s="72"/>
     </row>
     <row r="310" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A310" s="41" t="s">
+      <c r="A310" s="70" t="s">
         <v>590</v>
       </c>
-      <c r="B310" s="42"/>
-      <c r="C310" s="42"/>
-      <c r="D310" s="42"/>
-      <c r="E310" s="42"/>
-      <c r="F310" s="43"/>
+      <c r="B310" s="71"/>
+      <c r="C310" s="71"/>
+      <c r="D310" s="71"/>
+      <c r="E310" s="71"/>
+      <c r="F310" s="72"/>
     </row>
     <row r="311" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A311" s="41" t="s">
+      <c r="A311" s="70" t="s">
         <v>591</v>
       </c>
-      <c r="B311" s="42"/>
-      <c r="C311" s="42"/>
-      <c r="D311" s="42"/>
-      <c r="E311" s="42"/>
-      <c r="F311" s="43"/>
+      <c r="B311" s="71"/>
+      <c r="C311" s="71"/>
+      <c r="D311" s="71"/>
+      <c r="E311" s="71"/>
+      <c r="F311" s="72"/>
     </row>
     <row r="312" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A312" s="41" t="s">
+      <c r="A312" s="70" t="s">
         <v>592</v>
       </c>
-      <c r="B312" s="42"/>
-      <c r="C312" s="42"/>
-      <c r="D312" s="42"/>
-      <c r="E312" s="42"/>
-      <c r="F312" s="43"/>
+      <c r="B312" s="71"/>
+      <c r="C312" s="71"/>
+      <c r="D312" s="71"/>
+      <c r="E312" s="71"/>
+      <c r="F312" s="72"/>
     </row>
     <row r="313" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A313" s="41" t="s">
+      <c r="A313" s="70" t="s">
         <v>593</v>
       </c>
-      <c r="B313" s="42"/>
-      <c r="C313" s="42"/>
-      <c r="D313" s="42"/>
-      <c r="E313" s="42"/>
-      <c r="F313" s="43"/>
+      <c r="B313" s="71"/>
+      <c r="C313" s="71"/>
+      <c r="D313" s="71"/>
+      <c r="E313" s="71"/>
+      <c r="F313" s="72"/>
     </row>
     <row r="314" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A314" s="41" t="s">
+      <c r="A314" s="70" t="s">
         <v>594</v>
       </c>
-      <c r="B314" s="42"/>
-      <c r="C314" s="42"/>
-      <c r="D314" s="42"/>
-      <c r="E314" s="42"/>
-      <c r="F314" s="43"/>
+      <c r="B314" s="71"/>
+      <c r="C314" s="71"/>
+      <c r="D314" s="71"/>
+      <c r="E314" s="71"/>
+      <c r="F314" s="72"/>
     </row>
     <row r="315" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A315" s="32" t="s">
+      <c r="A315" s="59" t="s">
         <v>595</v>
       </c>
-      <c r="B315" s="33"/>
-      <c r="C315" s="33"/>
-      <c r="D315" s="33"/>
-      <c r="E315" s="33"/>
-      <c r="F315" s="34"/>
+      <c r="B315" s="56"/>
+      <c r="C315" s="56"/>
+      <c r="D315" s="56"/>
+      <c r="E315" s="56"/>
+      <c r="F315" s="57"/>
     </row>
     <row r="316" spans="1:6">
-      <c r="A316" s="38" t="s">
+      <c r="A316" s="73" t="s">
         <v>596</v>
       </c>
-      <c r="B316" s="39"/>
-      <c r="C316" s="39"/>
-      <c r="D316" s="39"/>
-      <c r="E316" s="39"/>
+      <c r="B316" s="74"/>
+      <c r="C316" s="74"/>
+      <c r="D316" s="74"/>
+      <c r="E316" s="74"/>
       <c r="F316" s="40"/>
     </row>
     <row r="317" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A317" s="35" t="s">
+      <c r="A317" s="58" t="s">
         <v>597</v>
       </c>
-      <c r="B317" s="36"/>
-      <c r="C317" s="36"/>
-      <c r="D317" s="36"/>
-      <c r="E317" s="36"/>
-      <c r="F317" s="37"/>
+      <c r="B317" s="42"/>
+      <c r="C317" s="42"/>
+      <c r="D317" s="42"/>
+      <c r="E317" s="42"/>
+      <c r="F317" s="43"/>
     </row>
     <row r="318" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A318" s="32" t="s">
+      <c r="A318" s="59" t="s">
         <v>598</v>
       </c>
-      <c r="B318" s="33"/>
-      <c r="C318" s="33"/>
-      <c r="D318" s="33"/>
-      <c r="E318" s="33"/>
-      <c r="F318" s="34"/>
+      <c r="B318" s="56"/>
+      <c r="C318" s="56"/>
+      <c r="D318" s="56"/>
+      <c r="E318" s="56"/>
+      <c r="F318" s="57"/>
     </row>
     <row r="319" spans="1:6">
-      <c r="A319" s="35" t="s">
+      <c r="A319" s="58" t="s">
         <v>599</v>
       </c>
-      <c r="B319" s="36"/>
-      <c r="C319" s="36"/>
-      <c r="D319" s="36"/>
-      <c r="E319" s="36"/>
-      <c r="F319" s="37"/>
+      <c r="B319" s="42"/>
+      <c r="C319" s="42"/>
+      <c r="D319" s="42"/>
+      <c r="E319" s="42"/>
+      <c r="F319" s="43"/>
     </row>
     <row r="320" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A320" s="32" t="s">
+      <c r="A320" s="59" t="s">
         <v>600</v>
       </c>
-      <c r="B320" s="33"/>
-      <c r="C320" s="33"/>
-      <c r="D320" s="33"/>
-      <c r="E320" s="33"/>
-      <c r="F320" s="34"/>
+      <c r="B320" s="56"/>
+      <c r="C320" s="56"/>
+      <c r="D320" s="56"/>
+      <c r="E320" s="56"/>
+      <c r="F320" s="57"/>
     </row>
     <row r="321" spans="1:6">
-      <c r="A321" s="35" t="s">
+      <c r="A321" s="58" t="s">
         <v>601</v>
       </c>
-      <c r="B321" s="36"/>
-      <c r="C321" s="36"/>
-      <c r="D321" s="36"/>
-      <c r="E321" s="36"/>
-      <c r="F321" s="37"/>
+      <c r="B321" s="42"/>
+      <c r="C321" s="42"/>
+      <c r="D321" s="42"/>
+      <c r="E321" s="42"/>
+      <c r="F321" s="43"/>
     </row>
     <row r="322" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A322" s="32" t="s">
+      <c r="A322" s="59" t="s">
         <v>602</v>
       </c>
-      <c r="B322" s="33"/>
-      <c r="C322" s="33"/>
-      <c r="D322" s="33"/>
-      <c r="E322" s="33"/>
-      <c r="F322" s="34"/>
+      <c r="B322" s="56"/>
+      <c r="C322" s="56"/>
+      <c r="D322" s="56"/>
+      <c r="E322" s="56"/>
+      <c r="F322" s="57"/>
     </row>
     <row r="323" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A323" s="38" t="s">
+      <c r="A323" s="73" t="s">
         <v>603</v>
       </c>
-      <c r="B323" s="39"/>
-      <c r="C323" s="39"/>
-      <c r="D323" s="39"/>
-      <c r="E323" s="39"/>
+      <c r="B323" s="74"/>
+      <c r="C323" s="74"/>
+      <c r="D323" s="74"/>
+      <c r="E323" s="74"/>
       <c r="F323" s="40"/>
     </row>
     <row r="324" spans="1:6">
-      <c r="A324" s="38" t="s">
+      <c r="A324" s="73" t="s">
         <v>604</v>
       </c>
-      <c r="B324" s="39"/>
-      <c r="C324" s="39"/>
-      <c r="D324" s="39"/>
-      <c r="E324" s="39"/>
+      <c r="B324" s="74"/>
+      <c r="C324" s="74"/>
+      <c r="D324" s="74"/>
+      <c r="E324" s="74"/>
       <c r="F324" s="40"/>
     </row>
     <row r="325" spans="1:6">
-      <c r="A325" s="38" t="s">
+      <c r="A325" s="73" t="s">
         <v>605</v>
       </c>
-      <c r="B325" s="39"/>
-      <c r="C325" s="39"/>
-      <c r="D325" s="39"/>
-      <c r="E325" s="39"/>
+      <c r="B325" s="74"/>
+      <c r="C325" s="74"/>
+      <c r="D325" s="74"/>
+      <c r="E325" s="74"/>
       <c r="F325" s="40"/>
     </row>
     <row r="326" spans="1:6">
-      <c r="A326" s="35" t="s">
+      <c r="A326" s="58" t="s">
         <v>606</v>
       </c>
-      <c r="B326" s="36"/>
-      <c r="C326" s="36"/>
-      <c r="D326" s="36"/>
-      <c r="E326" s="36"/>
-      <c r="F326" s="37"/>
+      <c r="B326" s="42"/>
+      <c r="C326" s="42"/>
+      <c r="D326" s="42"/>
+      <c r="E326" s="42"/>
+      <c r="F326" s="43"/>
     </row>
     <row r="327" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A327" s="41" t="s">
+      <c r="A327" s="70" t="s">
         <v>607</v>
       </c>
-      <c r="B327" s="42"/>
-      <c r="C327" s="42"/>
-      <c r="D327" s="42"/>
-      <c r="E327" s="42"/>
-      <c r="F327" s="43"/>
+      <c r="B327" s="71"/>
+      <c r="C327" s="71"/>
+      <c r="D327" s="71"/>
+      <c r="E327" s="71"/>
+      <c r="F327" s="72"/>
     </row>
     <row r="328" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A328" s="32" t="s">
+      <c r="A328" s="59" t="s">
         <v>608</v>
       </c>
-      <c r="B328" s="33"/>
-      <c r="C328" s="33"/>
-      <c r="D328" s="33"/>
-      <c r="E328" s="33"/>
-      <c r="F328" s="34"/>
+      <c r="B328" s="56"/>
+      <c r="C328" s="56"/>
+      <c r="D328" s="56"/>
+      <c r="E328" s="56"/>
+      <c r="F328" s="57"/>
     </row>
     <row r="329" spans="1:6">
-      <c r="A329" s="35" t="s">
+      <c r="A329" s="58" t="s">
         <v>609</v>
       </c>
-      <c r="B329" s="36"/>
-      <c r="C329" s="36"/>
-      <c r="D329" s="36"/>
-      <c r="E329" s="36"/>
-      <c r="F329" s="37"/>
+      <c r="B329" s="42"/>
+      <c r="C329" s="42"/>
+      <c r="D329" s="42"/>
+      <c r="E329" s="42"/>
+      <c r="F329" s="43"/>
     </row>
     <row r="330" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A330" s="41" t="s">
+      <c r="A330" s="70" t="s">
         <v>610</v>
       </c>
-      <c r="B330" s="42"/>
-      <c r="C330" s="42"/>
-      <c r="D330" s="42"/>
-      <c r="E330" s="42"/>
-      <c r="F330" s="43"/>
+      <c r="B330" s="71"/>
+      <c r="C330" s="71"/>
+      <c r="D330" s="71"/>
+      <c r="E330" s="71"/>
+      <c r="F330" s="72"/>
     </row>
     <row r="331" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A331" s="41" t="s">
+      <c r="A331" s="70" t="s">
         <v>611</v>
       </c>
-      <c r="B331" s="42"/>
-      <c r="C331" s="42"/>
-      <c r="D331" s="42"/>
-      <c r="E331" s="42"/>
-      <c r="F331" s="43"/>
+      <c r="B331" s="71"/>
+      <c r="C331" s="71"/>
+      <c r="D331" s="71"/>
+      <c r="E331" s="71"/>
+      <c r="F331" s="72"/>
     </row>
     <row r="332" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A332" s="41" t="s">
+      <c r="A332" s="70" t="s">
         <v>612</v>
       </c>
-      <c r="B332" s="42"/>
-      <c r="C332" s="42"/>
-      <c r="D332" s="42"/>
-      <c r="E332" s="42"/>
-      <c r="F332" s="43"/>
+      <c r="B332" s="71"/>
+      <c r="C332" s="71"/>
+      <c r="D332" s="71"/>
+      <c r="E332" s="71"/>
+      <c r="F332" s="72"/>
     </row>
     <row r="333" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A333" s="32" t="s">
+      <c r="A333" s="59" t="s">
         <v>613</v>
       </c>
-      <c r="B333" s="33"/>
-      <c r="C333" s="33"/>
-      <c r="D333" s="33"/>
-      <c r="E333" s="33"/>
-      <c r="F333" s="34"/>
+      <c r="B333" s="56"/>
+      <c r="C333" s="56"/>
+      <c r="D333" s="56"/>
+      <c r="E333" s="56"/>
+      <c r="F333" s="57"/>
     </row>
     <row r="334" spans="1:6">
-      <c r="A334" s="35" t="s">
+      <c r="A334" s="58" t="s">
         <v>614</v>
       </c>
-      <c r="B334" s="36"/>
-      <c r="C334" s="36"/>
-      <c r="D334" s="36"/>
-      <c r="E334" s="36"/>
-      <c r="F334" s="37"/>
+      <c r="B334" s="42"/>
+      <c r="C334" s="42"/>
+      <c r="D334" s="42"/>
+      <c r="E334" s="42"/>
+      <c r="F334" s="43"/>
     </row>
     <row r="335" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A335" s="32" t="s">
+      <c r="A335" s="59" t="s">
         <v>615</v>
       </c>
-      <c r="B335" s="33"/>
-      <c r="C335" s="33"/>
-      <c r="D335" s="33"/>
-      <c r="E335" s="33"/>
-      <c r="F335" s="34"/>
+      <c r="B335" s="56"/>
+      <c r="C335" s="56"/>
+      <c r="D335" s="56"/>
+      <c r="E335" s="56"/>
+      <c r="F335" s="57"/>
     </row>
     <row r="336" spans="1:6">
-      <c r="A336" s="35" t="s">
+      <c r="A336" s="58" t="s">
         <v>616</v>
       </c>
-      <c r="B336" s="36"/>
-      <c r="C336" s="36"/>
-      <c r="D336" s="36"/>
-      <c r="E336" s="36"/>
-      <c r="F336" s="37"/>
+      <c r="B336" s="42"/>
+      <c r="C336" s="42"/>
+      <c r="D336" s="42"/>
+      <c r="E336" s="42"/>
+      <c r="F336" s="43"/>
     </row>
     <row r="337" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A337" s="41" t="s">
+      <c r="A337" s="70" t="s">
         <v>617</v>
       </c>
-      <c r="B337" s="42"/>
-      <c r="C337" s="42"/>
-      <c r="D337" s="42"/>
-      <c r="E337" s="42"/>
-      <c r="F337" s="43"/>
+      <c r="B337" s="71"/>
+      <c r="C337" s="71"/>
+      <c r="D337" s="71"/>
+      <c r="E337" s="71"/>
+      <c r="F337" s="72"/>
     </row>
     <row r="338" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A338" s="41" t="s">
+      <c r="A338" s="70" t="s">
         <v>618</v>
       </c>
-      <c r="B338" s="42"/>
-      <c r="C338" s="42"/>
-      <c r="D338" s="42"/>
-      <c r="E338" s="42"/>
-      <c r="F338" s="43"/>
+      <c r="B338" s="71"/>
+      <c r="C338" s="71"/>
+      <c r="D338" s="71"/>
+      <c r="E338" s="71"/>
+      <c r="F338" s="72"/>
     </row>
     <row r="339" spans="1:6">
-      <c r="A339" s="41" t="s">
+      <c r="A339" s="70" t="s">
         <v>619</v>
       </c>
-      <c r="B339" s="42"/>
-      <c r="C339" s="42"/>
-      <c r="D339" s="42"/>
-      <c r="E339" s="42"/>
-      <c r="F339" s="43"/>
+      <c r="B339" s="71"/>
+      <c r="C339" s="71"/>
+      <c r="D339" s="71"/>
+      <c r="E339" s="71"/>
+      <c r="F339" s="72"/>
     </row>
     <row r="340" spans="1:6">
-      <c r="A340" s="41" t="s">
+      <c r="A340" s="70" t="s">
         <v>620</v>
       </c>
-      <c r="B340" s="42"/>
-      <c r="C340" s="42"/>
-      <c r="D340" s="42"/>
-      <c r="E340" s="42"/>
-      <c r="F340" s="43"/>
+      <c r="B340" s="71"/>
+      <c r="C340" s="71"/>
+      <c r="D340" s="71"/>
+      <c r="E340" s="71"/>
+      <c r="F340" s="72"/>
     </row>
     <row r="341" spans="1:6">
-      <c r="A341" s="41" t="s">
+      <c r="A341" s="70" t="s">
         <v>621</v>
       </c>
-      <c r="B341" s="42"/>
-      <c r="C341" s="42"/>
-      <c r="D341" s="42"/>
-      <c r="E341" s="42"/>
-      <c r="F341" s="43"/>
+      <c r="B341" s="71"/>
+      <c r="C341" s="71"/>
+      <c r="D341" s="71"/>
+      <c r="E341" s="71"/>
+      <c r="F341" s="72"/>
     </row>
     <row r="342" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A342" s="32" t="s">
+      <c r="A342" s="59" t="s">
         <v>622</v>
       </c>
-      <c r="B342" s="33"/>
-      <c r="C342" s="33"/>
-      <c r="D342" s="33"/>
-      <c r="E342" s="33"/>
-      <c r="F342" s="34"/>
+      <c r="B342" s="56"/>
+      <c r="C342" s="56"/>
+      <c r="D342" s="56"/>
+      <c r="E342" s="56"/>
+      <c r="F342" s="57"/>
     </row>
     <row r="343" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A343" s="35" t="s">
+      <c r="A343" s="58" t="s">
         <v>623</v>
       </c>
-      <c r="B343" s="36"/>
-      <c r="C343" s="36"/>
-      <c r="D343" s="36"/>
-      <c r="E343" s="36"/>
-      <c r="F343" s="37"/>
+      <c r="B343" s="42"/>
+      <c r="C343" s="42"/>
+      <c r="D343" s="42"/>
+      <c r="E343" s="42"/>
+      <c r="F343" s="43"/>
     </row>
     <row r="344" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A344" s="32" t="s">
+      <c r="A344" s="59" t="s">
         <v>624</v>
       </c>
-      <c r="B344" s="33"/>
-      <c r="C344" s="33"/>
-      <c r="D344" s="33"/>
-      <c r="E344" s="33"/>
-      <c r="F344" s="34"/>
+      <c r="B344" s="56"/>
+      <c r="C344" s="56"/>
+      <c r="D344" s="56"/>
+      <c r="E344" s="56"/>
+      <c r="F344" s="57"/>
     </row>
     <row r="345" spans="1:6">
-      <c r="A345" s="35" t="s">
+      <c r="A345" s="58" t="s">
         <v>625</v>
       </c>
-      <c r="B345" s="36"/>
-      <c r="C345" s="36"/>
-      <c r="D345" s="36"/>
-      <c r="E345" s="36"/>
-      <c r="F345" s="37"/>
+      <c r="B345" s="42"/>
+      <c r="C345" s="42"/>
+      <c r="D345" s="42"/>
+      <c r="E345" s="42"/>
+      <c r="F345" s="43"/>
     </row>
     <row r="346" spans="1:6">
-      <c r="A346" s="41" t="s">
+      <c r="A346" s="70" t="s">
         <v>626</v>
       </c>
-      <c r="B346" s="42"/>
-      <c r="C346" s="42"/>
-      <c r="D346" s="42"/>
-      <c r="E346" s="42"/>
-      <c r="F346" s="43"/>
+      <c r="B346" s="71"/>
+      <c r="C346" s="71"/>
+      <c r="D346" s="71"/>
+      <c r="E346" s="71"/>
+      <c r="F346" s="72"/>
     </row>
     <row r="347" spans="1:6">
-      <c r="A347" s="41" t="s">
+      <c r="A347" s="70" t="s">
         <v>627</v>
       </c>
-      <c r="B347" s="42"/>
-      <c r="C347" s="42"/>
-      <c r="D347" s="42"/>
-      <c r="E347" s="42"/>
-      <c r="F347" s="43"/>
+      <c r="B347" s="71"/>
+      <c r="C347" s="71"/>
+      <c r="D347" s="71"/>
+      <c r="E347" s="71"/>
+      <c r="F347" s="72"/>
     </row>
     <row r="348" spans="1:6">
-      <c r="A348" s="41" t="s">
+      <c r="A348" s="70" t="s">
         <v>628</v>
       </c>
-      <c r="B348" s="42"/>
-      <c r="C348" s="42"/>
-      <c r="D348" s="42"/>
-      <c r="E348" s="42"/>
-      <c r="F348" s="43"/>
+      <c r="B348" s="71"/>
+      <c r="C348" s="71"/>
+      <c r="D348" s="71"/>
+      <c r="E348" s="71"/>
+      <c r="F348" s="72"/>
     </row>
     <row r="349" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A349" s="32" t="s">
+      <c r="A349" s="59" t="s">
         <v>629</v>
       </c>
-      <c r="B349" s="33"/>
-      <c r="C349" s="33"/>
-      <c r="D349" s="33"/>
-      <c r="E349" s="33"/>
-      <c r="F349" s="34"/>
+      <c r="B349" s="56"/>
+      <c r="C349" s="56"/>
+      <c r="D349" s="56"/>
+      <c r="E349" s="56"/>
+      <c r="F349" s="57"/>
     </row>
     <row r="350" spans="1:6">
-      <c r="A350" s="35" t="s">
+      <c r="A350" s="58" t="s">
         <v>630</v>
       </c>
-      <c r="B350" s="36"/>
-      <c r="C350" s="36"/>
-      <c r="D350" s="36"/>
-      <c r="E350" s="36"/>
-      <c r="F350" s="37"/>
+      <c r="B350" s="42"/>
+      <c r="C350" s="42"/>
+      <c r="D350" s="42"/>
+      <c r="E350" s="42"/>
+      <c r="F350" s="43"/>
     </row>
     <row r="351" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A351" s="32" t="s">
+      <c r="A351" s="59" t="s">
         <v>631</v>
       </c>
-      <c r="B351" s="33"/>
-      <c r="C351" s="33"/>
-      <c r="D351" s="33"/>
-      <c r="E351" s="33"/>
-      <c r="F351" s="34"/>
+      <c r="B351" s="56"/>
+      <c r="C351" s="56"/>
+      <c r="D351" s="56"/>
+      <c r="E351" s="56"/>
+      <c r="F351" s="57"/>
     </row>
     <row r="352" spans="1:6">
-      <c r="A352" s="35" t="s">
+      <c r="A352" s="58" t="s">
         <v>632</v>
       </c>
-      <c r="B352" s="36"/>
-      <c r="C352" s="36"/>
-      <c r="D352" s="36"/>
-      <c r="E352" s="36"/>
-      <c r="F352" s="37"/>
+      <c r="B352" s="42"/>
+      <c r="C352" s="42"/>
+      <c r="D352" s="42"/>
+      <c r="E352" s="42"/>
+      <c r="F352" s="43"/>
     </row>
     <row r="353" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A353" s="41" t="s">
+      <c r="A353" s="70" t="s">
         <v>633</v>
       </c>
-      <c r="B353" s="42"/>
-      <c r="C353" s="42"/>
-      <c r="D353" s="42"/>
-      <c r="E353" s="42"/>
-      <c r="F353" s="43"/>
+      <c r="B353" s="71"/>
+      <c r="C353" s="71"/>
+      <c r="D353" s="71"/>
+      <c r="E353" s="71"/>
+      <c r="F353" s="72"/>
     </row>
     <row r="354" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A354" s="41" t="s">
+      <c r="A354" s="70" t="s">
         <v>634</v>
       </c>
-      <c r="B354" s="42"/>
-      <c r="C354" s="42"/>
-      <c r="D354" s="42"/>
-      <c r="E354" s="42"/>
-      <c r="F354" s="43"/>
+      <c r="B354" s="71"/>
+      <c r="C354" s="71"/>
+      <c r="D354" s="71"/>
+      <c r="E354" s="71"/>
+      <c r="F354" s="72"/>
     </row>
     <row r="355" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A355" s="32" t="s">
+      <c r="A355" s="59" t="s">
         <v>635</v>
       </c>
-      <c r="B355" s="33"/>
-      <c r="C355" s="33"/>
-      <c r="D355" s="33"/>
-      <c r="E355" s="33"/>
-      <c r="F355" s="34"/>
+      <c r="B355" s="56"/>
+      <c r="C355" s="56"/>
+      <c r="D355" s="56"/>
+      <c r="E355" s="56"/>
+      <c r="F355" s="57"/>
     </row>
     <row r="356" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A356" s="35" t="s">
+      <c r="A356" s="58" t="s">
         <v>636</v>
       </c>
-      <c r="B356" s="36"/>
-      <c r="C356" s="36"/>
-      <c r="D356" s="36"/>
-      <c r="E356" s="36"/>
-      <c r="F356" s="37"/>
+      <c r="B356" s="42"/>
+      <c r="C356" s="42"/>
+      <c r="D356" s="42"/>
+      <c r="E356" s="42"/>
+      <c r="F356" s="43"/>
     </row>
     <row r="357" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A357" s="41" t="s">
+      <c r="A357" s="70" t="s">
         <v>637</v>
       </c>
-      <c r="B357" s="42"/>
-      <c r="C357" s="42"/>
-      <c r="D357" s="42"/>
-      <c r="E357" s="42"/>
-      <c r="F357" s="43"/>
+      <c r="B357" s="71"/>
+      <c r="C357" s="71"/>
+      <c r="D357" s="71"/>
+      <c r="E357" s="71"/>
+      <c r="F357" s="72"/>
     </row>
     <row r="358" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A358" s="41" t="s">
+      <c r="A358" s="70" t="s">
         <v>638</v>
       </c>
-      <c r="B358" s="42"/>
-      <c r="C358" s="42"/>
-      <c r="D358" s="42"/>
-      <c r="E358" s="42"/>
-      <c r="F358" s="43"/>
+      <c r="B358" s="71"/>
+      <c r="C358" s="71"/>
+      <c r="D358" s="71"/>
+      <c r="E358" s="71"/>
+      <c r="F358" s="72"/>
     </row>
     <row r="359" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A359" s="41" t="s">
+      <c r="A359" s="70" t="s">
         <v>639</v>
       </c>
-      <c r="B359" s="42"/>
-      <c r="C359" s="42"/>
-      <c r="D359" s="42"/>
-      <c r="E359" s="42"/>
-      <c r="F359" s="43"/>
+      <c r="B359" s="71"/>
+      <c r="C359" s="71"/>
+      <c r="D359" s="71"/>
+      <c r="E359" s="71"/>
+      <c r="F359" s="72"/>
     </row>
     <row r="360" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A360" s="32" t="s">
+      <c r="A360" s="59" t="s">
         <v>640</v>
       </c>
-      <c r="B360" s="33"/>
-      <c r="C360" s="33"/>
-      <c r="D360" s="33"/>
-      <c r="E360" s="33"/>
-      <c r="F360" s="34"/>
+      <c r="B360" s="56"/>
+      <c r="C360" s="56"/>
+      <c r="D360" s="56"/>
+      <c r="E360" s="56"/>
+      <c r="F360" s="57"/>
     </row>
     <row r="361" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A361" s="38" t="s">
+      <c r="A361" s="73" t="s">
         <v>641</v>
       </c>
-      <c r="B361" s="39"/>
-      <c r="C361" s="39"/>
-      <c r="D361" s="39"/>
-      <c r="E361" s="39"/>
+      <c r="B361" s="74"/>
+      <c r="C361" s="74"/>
+      <c r="D361" s="74"/>
+      <c r="E361" s="74"/>
       <c r="F361" s="40"/>
     </row>
     <row r="362" spans="1:6">
-      <c r="A362" s="35" t="s">
+      <c r="A362" s="58" t="s">
         <v>642</v>
       </c>
-      <c r="B362" s="36"/>
-      <c r="C362" s="36"/>
-      <c r="D362" s="36"/>
-      <c r="E362" s="36"/>
-      <c r="F362" s="37"/>
+      <c r="B362" s="42"/>
+      <c r="C362" s="42"/>
+      <c r="D362" s="42"/>
+      <c r="E362" s="42"/>
+      <c r="F362" s="43"/>
     </row>
     <row r="363" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A363" s="32" t="s">
+      <c r="A363" s="59" t="s">
         <v>643</v>
       </c>
-      <c r="B363" s="33"/>
-      <c r="C363" s="33"/>
-      <c r="D363" s="33"/>
-      <c r="E363" s="33"/>
-      <c r="F363" s="34"/>
+      <c r="B363" s="56"/>
+      <c r="C363" s="56"/>
+      <c r="D363" s="56"/>
+      <c r="E363" s="56"/>
+      <c r="F363" s="57"/>
     </row>
     <row r="364" spans="1:6">
-      <c r="A364" s="35" t="s">
+      <c r="A364" s="58" t="s">
         <v>644</v>
       </c>
-      <c r="B364" s="36"/>
-      <c r="C364" s="36"/>
-      <c r="D364" s="36"/>
-      <c r="E364" s="36"/>
-      <c r="F364" s="37"/>
+      <c r="B364" s="42"/>
+      <c r="C364" s="42"/>
+      <c r="D364" s="42"/>
+      <c r="E364" s="42"/>
+      <c r="F364" s="43"/>
     </row>
     <row r="365" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A365" s="32" t="s">
+      <c r="A365" s="59" t="s">
         <v>645</v>
       </c>
-      <c r="B365" s="33"/>
-      <c r="C365" s="33"/>
-      <c r="D365" s="33"/>
-      <c r="E365" s="33"/>
-      <c r="F365" s="34"/>
+      <c r="B365" s="56"/>
+      <c r="C365" s="56"/>
+      <c r="D365" s="56"/>
+      <c r="E365" s="56"/>
+      <c r="F365" s="57"/>
     </row>
     <row r="366" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A366" s="44" t="s">
+      <c r="A366" s="60" t="s">
         <v>646</v>
       </c>
-      <c r="B366" s="45"/>
-      <c r="C366" s="45"/>
-      <c r="D366" s="45"/>
-      <c r="E366" s="45"/>
-      <c r="F366" s="46"/>
+      <c r="B366" s="61"/>
+      <c r="C366" s="61"/>
+      <c r="D366" s="61"/>
+      <c r="E366" s="61"/>
+      <c r="F366" s="62"/>
     </row>
     <row r="367" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A367" s="47"/>
-      <c r="B367" s="47"/>
-      <c r="C367" s="47"/>
-      <c r="D367" s="47"/>
-      <c r="E367" s="47"/>
-      <c r="F367" s="47"/>
+      <c r="A367" s="63"/>
+      <c r="B367" s="63"/>
+      <c r="C367" s="63"/>
+      <c r="D367" s="63"/>
+      <c r="E367" s="63"/>
+      <c r="F367" s="63"/>
     </row>
     <row r="368" spans="1:6">
-      <c r="A368" s="29" t="s">
+      <c r="A368" s="64" t="s">
         <v>647</v>
       </c>
-      <c r="B368" s="30"/>
-      <c r="C368" s="30"/>
-      <c r="D368" s="30"/>
-      <c r="E368" s="30"/>
-      <c r="F368" s="31"/>
+      <c r="B368" s="65"/>
+      <c r="C368" s="65"/>
+      <c r="D368" s="65"/>
+      <c r="E368" s="65"/>
+      <c r="F368" s="66"/>
     </row>
     <row r="369" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A369" s="48"/>
-      <c r="B369" s="49"/>
-      <c r="C369" s="49"/>
-      <c r="D369" s="49"/>
-      <c r="E369" s="49"/>
-      <c r="F369" s="50"/>
+      <c r="A369" s="67"/>
+      <c r="B369" s="68"/>
+      <c r="C369" s="68"/>
+      <c r="D369" s="68"/>
+      <c r="E369" s="68"/>
+      <c r="F369" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="204">
+    <mergeCell ref="A184:F184"/>
+    <mergeCell ref="A185:F185"/>
+    <mergeCell ref="A186:F186"/>
+    <mergeCell ref="A187:F187"/>
+    <mergeCell ref="A188:F188"/>
+    <mergeCell ref="A189:F189"/>
+    <mergeCell ref="A178:F178"/>
+    <mergeCell ref="A179:F179"/>
+    <mergeCell ref="A180:F180"/>
+    <mergeCell ref="A181:F181"/>
+    <mergeCell ref="A182:F182"/>
+    <mergeCell ref="A183:F183"/>
+    <mergeCell ref="A196:F196"/>
+    <mergeCell ref="A197:F197"/>
+    <mergeCell ref="A198:F198"/>
+    <mergeCell ref="A199:F199"/>
+    <mergeCell ref="A200:F200"/>
+    <mergeCell ref="A201:F201"/>
+    <mergeCell ref="A190:F190"/>
+    <mergeCell ref="A191:F191"/>
+    <mergeCell ref="A192:F192"/>
+    <mergeCell ref="A193:F193"/>
+    <mergeCell ref="A194:F194"/>
+    <mergeCell ref="A195:F195"/>
+    <mergeCell ref="A208:F208"/>
+    <mergeCell ref="A209:F209"/>
+    <mergeCell ref="A210:F210"/>
+    <mergeCell ref="A211:F211"/>
+    <mergeCell ref="A212:F212"/>
+    <mergeCell ref="A213:F213"/>
+    <mergeCell ref="A202:F202"/>
+    <mergeCell ref="A203:F203"/>
+    <mergeCell ref="A204:F204"/>
+    <mergeCell ref="A205:F205"/>
+    <mergeCell ref="A206:F206"/>
+    <mergeCell ref="A207:F207"/>
+    <mergeCell ref="A220:F220"/>
+    <mergeCell ref="A221:F221"/>
+    <mergeCell ref="A222:F222"/>
+    <mergeCell ref="A223:F223"/>
+    <mergeCell ref="A224:F224"/>
+    <mergeCell ref="A225:F225"/>
+    <mergeCell ref="A214:F214"/>
+    <mergeCell ref="A215:F215"/>
+    <mergeCell ref="A216:F216"/>
+    <mergeCell ref="A217:F217"/>
+    <mergeCell ref="A218:F218"/>
+    <mergeCell ref="A219:F219"/>
+    <mergeCell ref="A232:F232"/>
+    <mergeCell ref="A233:F233"/>
+    <mergeCell ref="A234:F234"/>
+    <mergeCell ref="A235:F235"/>
+    <mergeCell ref="A236:F236"/>
+    <mergeCell ref="A237:F237"/>
+    <mergeCell ref="A226:F226"/>
+    <mergeCell ref="A227:F227"/>
+    <mergeCell ref="A228:F228"/>
+    <mergeCell ref="A229:F229"/>
+    <mergeCell ref="A230:F230"/>
+    <mergeCell ref="A231:F231"/>
+    <mergeCell ref="A244:F244"/>
+    <mergeCell ref="A245:F245"/>
+    <mergeCell ref="A246:F246"/>
+    <mergeCell ref="A247:F247"/>
+    <mergeCell ref="A248:F248"/>
+    <mergeCell ref="A249:F249"/>
+    <mergeCell ref="A238:F238"/>
+    <mergeCell ref="A239:F239"/>
+    <mergeCell ref="A240:F240"/>
+    <mergeCell ref="A241:F241"/>
+    <mergeCell ref="A242:F242"/>
+    <mergeCell ref="A243:F243"/>
+    <mergeCell ref="A256:F256"/>
+    <mergeCell ref="A257:F257"/>
+    <mergeCell ref="A258:F258"/>
+    <mergeCell ref="A259:F259"/>
+    <mergeCell ref="A260:F260"/>
+    <mergeCell ref="A261:F261"/>
+    <mergeCell ref="A250:F250"/>
+    <mergeCell ref="A251:F251"/>
+    <mergeCell ref="A252:F252"/>
+    <mergeCell ref="A253:F253"/>
+    <mergeCell ref="A254:F254"/>
+    <mergeCell ref="A255:F255"/>
+    <mergeCell ref="A268:F268"/>
+    <mergeCell ref="A269:F269"/>
+    <mergeCell ref="A270:F270"/>
+    <mergeCell ref="A271:F271"/>
+    <mergeCell ref="A272:F272"/>
+    <mergeCell ref="A273:F273"/>
+    <mergeCell ref="A262:F262"/>
+    <mergeCell ref="A263:F263"/>
+    <mergeCell ref="A264:F264"/>
+    <mergeCell ref="A265:F265"/>
+    <mergeCell ref="A266:F266"/>
+    <mergeCell ref="A267:F267"/>
+    <mergeCell ref="A280:F280"/>
+    <mergeCell ref="A281:F281"/>
+    <mergeCell ref="A282:F282"/>
+    <mergeCell ref="A283:F283"/>
+    <mergeCell ref="A284:F284"/>
+    <mergeCell ref="A285:F285"/>
+    <mergeCell ref="A274:F274"/>
+    <mergeCell ref="A275:F275"/>
+    <mergeCell ref="A276:F276"/>
+    <mergeCell ref="A277:F277"/>
+    <mergeCell ref="A278:F278"/>
+    <mergeCell ref="A279:F279"/>
+    <mergeCell ref="A292:F292"/>
+    <mergeCell ref="A293:F293"/>
+    <mergeCell ref="A294:F294"/>
+    <mergeCell ref="A295:F295"/>
+    <mergeCell ref="A296:F296"/>
+    <mergeCell ref="A297:F297"/>
+    <mergeCell ref="A286:F286"/>
+    <mergeCell ref="A287:F287"/>
+    <mergeCell ref="A288:F288"/>
+    <mergeCell ref="A289:F289"/>
+    <mergeCell ref="A290:F290"/>
+    <mergeCell ref="A291:F291"/>
+    <mergeCell ref="A304:F304"/>
+    <mergeCell ref="A305:F305"/>
+    <mergeCell ref="A306:F306"/>
+    <mergeCell ref="A307:F307"/>
+    <mergeCell ref="A308:F308"/>
+    <mergeCell ref="A309:F309"/>
+    <mergeCell ref="A298:F298"/>
+    <mergeCell ref="A299:F299"/>
+    <mergeCell ref="A300:F300"/>
+    <mergeCell ref="A301:F301"/>
+    <mergeCell ref="A302:F302"/>
+    <mergeCell ref="A303:F303"/>
+    <mergeCell ref="A316:F316"/>
+    <mergeCell ref="A317:F317"/>
+    <mergeCell ref="A318:F318"/>
+    <mergeCell ref="A319:F319"/>
+    <mergeCell ref="A320:F320"/>
+    <mergeCell ref="A321:F321"/>
+    <mergeCell ref="A310:F310"/>
+    <mergeCell ref="A311:F311"/>
+    <mergeCell ref="A312:F312"/>
+    <mergeCell ref="A313:F313"/>
+    <mergeCell ref="A314:F314"/>
+    <mergeCell ref="A315:F315"/>
+    <mergeCell ref="A328:F328"/>
+    <mergeCell ref="A329:F329"/>
+    <mergeCell ref="A330:F330"/>
+    <mergeCell ref="A331:F331"/>
+    <mergeCell ref="A332:F332"/>
+    <mergeCell ref="A333:F333"/>
+    <mergeCell ref="A322:F322"/>
+    <mergeCell ref="A323:F323"/>
+    <mergeCell ref="A324:F324"/>
+    <mergeCell ref="A325:F325"/>
+    <mergeCell ref="A326:F326"/>
+    <mergeCell ref="A327:F327"/>
+    <mergeCell ref="A340:F340"/>
+    <mergeCell ref="A341:F341"/>
+    <mergeCell ref="A342:F342"/>
+    <mergeCell ref="A343:F343"/>
+    <mergeCell ref="A344:F344"/>
+    <mergeCell ref="A345:F345"/>
+    <mergeCell ref="A334:F334"/>
+    <mergeCell ref="A335:F335"/>
+    <mergeCell ref="A336:F336"/>
+    <mergeCell ref="A337:F337"/>
+    <mergeCell ref="A338:F338"/>
+    <mergeCell ref="A339:F339"/>
+    <mergeCell ref="A352:F352"/>
+    <mergeCell ref="A353:F353"/>
+    <mergeCell ref="A354:F354"/>
+    <mergeCell ref="A355:F355"/>
+    <mergeCell ref="A356:F356"/>
+    <mergeCell ref="A357:F357"/>
+    <mergeCell ref="A346:F346"/>
+    <mergeCell ref="A347:F347"/>
+    <mergeCell ref="A348:F348"/>
+    <mergeCell ref="A349:F349"/>
+    <mergeCell ref="A350:F350"/>
+    <mergeCell ref="A351:F351"/>
+    <mergeCell ref="A364:F364"/>
+    <mergeCell ref="A365:F365"/>
+    <mergeCell ref="A366:F366"/>
+    <mergeCell ref="A367:F367"/>
+    <mergeCell ref="A368:F368"/>
+    <mergeCell ref="A369:F369"/>
+    <mergeCell ref="A358:F358"/>
+    <mergeCell ref="A359:F359"/>
+    <mergeCell ref="A360:F360"/>
+    <mergeCell ref="A361:F361"/>
+    <mergeCell ref="A362:F362"/>
+    <mergeCell ref="A363:F363"/>
     <mergeCell ref="J9:M9"/>
     <mergeCell ref="J10:M10"/>
     <mergeCell ref="H1:I1"/>
@@ -9288,198 +9612,6 @@
     <mergeCell ref="J6:M6"/>
     <mergeCell ref="J7:M7"/>
     <mergeCell ref="J8:M8"/>
-    <mergeCell ref="A364:F364"/>
-    <mergeCell ref="A365:F365"/>
-    <mergeCell ref="A366:F366"/>
-    <mergeCell ref="A367:F367"/>
-    <mergeCell ref="A368:F368"/>
-    <mergeCell ref="A369:F369"/>
-    <mergeCell ref="A358:F358"/>
-    <mergeCell ref="A359:F359"/>
-    <mergeCell ref="A360:F360"/>
-    <mergeCell ref="A361:F361"/>
-    <mergeCell ref="A362:F362"/>
-    <mergeCell ref="A363:F363"/>
-    <mergeCell ref="A352:F352"/>
-    <mergeCell ref="A353:F353"/>
-    <mergeCell ref="A354:F354"/>
-    <mergeCell ref="A355:F355"/>
-    <mergeCell ref="A356:F356"/>
-    <mergeCell ref="A357:F357"/>
-    <mergeCell ref="A346:F346"/>
-    <mergeCell ref="A347:F347"/>
-    <mergeCell ref="A348:F348"/>
-    <mergeCell ref="A349:F349"/>
-    <mergeCell ref="A350:F350"/>
-    <mergeCell ref="A351:F351"/>
-    <mergeCell ref="A340:F340"/>
-    <mergeCell ref="A341:F341"/>
-    <mergeCell ref="A342:F342"/>
-    <mergeCell ref="A343:F343"/>
-    <mergeCell ref="A344:F344"/>
-    <mergeCell ref="A345:F345"/>
-    <mergeCell ref="A334:F334"/>
-    <mergeCell ref="A335:F335"/>
-    <mergeCell ref="A336:F336"/>
-    <mergeCell ref="A337:F337"/>
-    <mergeCell ref="A338:F338"/>
-    <mergeCell ref="A339:F339"/>
-    <mergeCell ref="A328:F328"/>
-    <mergeCell ref="A329:F329"/>
-    <mergeCell ref="A330:F330"/>
-    <mergeCell ref="A331:F331"/>
-    <mergeCell ref="A332:F332"/>
-    <mergeCell ref="A333:F333"/>
-    <mergeCell ref="A322:F322"/>
-    <mergeCell ref="A323:F323"/>
-    <mergeCell ref="A324:F324"/>
-    <mergeCell ref="A325:F325"/>
-    <mergeCell ref="A326:F326"/>
-    <mergeCell ref="A327:F327"/>
-    <mergeCell ref="A316:F316"/>
-    <mergeCell ref="A317:F317"/>
-    <mergeCell ref="A318:F318"/>
-    <mergeCell ref="A319:F319"/>
-    <mergeCell ref="A320:F320"/>
-    <mergeCell ref="A321:F321"/>
-    <mergeCell ref="A310:F310"/>
-    <mergeCell ref="A311:F311"/>
-    <mergeCell ref="A312:F312"/>
-    <mergeCell ref="A313:F313"/>
-    <mergeCell ref="A314:F314"/>
-    <mergeCell ref="A315:F315"/>
-    <mergeCell ref="A304:F304"/>
-    <mergeCell ref="A305:F305"/>
-    <mergeCell ref="A306:F306"/>
-    <mergeCell ref="A307:F307"/>
-    <mergeCell ref="A308:F308"/>
-    <mergeCell ref="A309:F309"/>
-    <mergeCell ref="A298:F298"/>
-    <mergeCell ref="A299:F299"/>
-    <mergeCell ref="A300:F300"/>
-    <mergeCell ref="A301:F301"/>
-    <mergeCell ref="A302:F302"/>
-    <mergeCell ref="A303:F303"/>
-    <mergeCell ref="A292:F292"/>
-    <mergeCell ref="A293:F293"/>
-    <mergeCell ref="A294:F294"/>
-    <mergeCell ref="A295:F295"/>
-    <mergeCell ref="A296:F296"/>
-    <mergeCell ref="A297:F297"/>
-    <mergeCell ref="A286:F286"/>
-    <mergeCell ref="A287:F287"/>
-    <mergeCell ref="A288:F288"/>
-    <mergeCell ref="A289:F289"/>
-    <mergeCell ref="A290:F290"/>
-    <mergeCell ref="A291:F291"/>
-    <mergeCell ref="A280:F280"/>
-    <mergeCell ref="A281:F281"/>
-    <mergeCell ref="A282:F282"/>
-    <mergeCell ref="A283:F283"/>
-    <mergeCell ref="A284:F284"/>
-    <mergeCell ref="A285:F285"/>
-    <mergeCell ref="A274:F274"/>
-    <mergeCell ref="A275:F275"/>
-    <mergeCell ref="A276:F276"/>
-    <mergeCell ref="A277:F277"/>
-    <mergeCell ref="A278:F278"/>
-    <mergeCell ref="A279:F279"/>
-    <mergeCell ref="A268:F268"/>
-    <mergeCell ref="A269:F269"/>
-    <mergeCell ref="A270:F270"/>
-    <mergeCell ref="A271:F271"/>
-    <mergeCell ref="A272:F272"/>
-    <mergeCell ref="A273:F273"/>
-    <mergeCell ref="A262:F262"/>
-    <mergeCell ref="A263:F263"/>
-    <mergeCell ref="A264:F264"/>
-    <mergeCell ref="A265:F265"/>
-    <mergeCell ref="A266:F266"/>
-    <mergeCell ref="A267:F267"/>
-    <mergeCell ref="A256:F256"/>
-    <mergeCell ref="A257:F257"/>
-    <mergeCell ref="A258:F258"/>
-    <mergeCell ref="A259:F259"/>
-    <mergeCell ref="A260:F260"/>
-    <mergeCell ref="A261:F261"/>
-    <mergeCell ref="A250:F250"/>
-    <mergeCell ref="A251:F251"/>
-    <mergeCell ref="A252:F252"/>
-    <mergeCell ref="A253:F253"/>
-    <mergeCell ref="A254:F254"/>
-    <mergeCell ref="A255:F255"/>
-    <mergeCell ref="A244:F244"/>
-    <mergeCell ref="A245:F245"/>
-    <mergeCell ref="A246:F246"/>
-    <mergeCell ref="A247:F247"/>
-    <mergeCell ref="A248:F248"/>
-    <mergeCell ref="A249:F249"/>
-    <mergeCell ref="A238:F238"/>
-    <mergeCell ref="A239:F239"/>
-    <mergeCell ref="A240:F240"/>
-    <mergeCell ref="A241:F241"/>
-    <mergeCell ref="A242:F242"/>
-    <mergeCell ref="A243:F243"/>
-    <mergeCell ref="A232:F232"/>
-    <mergeCell ref="A233:F233"/>
-    <mergeCell ref="A234:F234"/>
-    <mergeCell ref="A235:F235"/>
-    <mergeCell ref="A236:F236"/>
-    <mergeCell ref="A237:F237"/>
-    <mergeCell ref="A226:F226"/>
-    <mergeCell ref="A227:F227"/>
-    <mergeCell ref="A228:F228"/>
-    <mergeCell ref="A229:F229"/>
-    <mergeCell ref="A230:F230"/>
-    <mergeCell ref="A231:F231"/>
-    <mergeCell ref="A220:F220"/>
-    <mergeCell ref="A221:F221"/>
-    <mergeCell ref="A222:F222"/>
-    <mergeCell ref="A223:F223"/>
-    <mergeCell ref="A224:F224"/>
-    <mergeCell ref="A225:F225"/>
-    <mergeCell ref="A214:F214"/>
-    <mergeCell ref="A215:F215"/>
-    <mergeCell ref="A216:F216"/>
-    <mergeCell ref="A217:F217"/>
-    <mergeCell ref="A218:F218"/>
-    <mergeCell ref="A219:F219"/>
-    <mergeCell ref="A208:F208"/>
-    <mergeCell ref="A209:F209"/>
-    <mergeCell ref="A210:F210"/>
-    <mergeCell ref="A211:F211"/>
-    <mergeCell ref="A212:F212"/>
-    <mergeCell ref="A213:F213"/>
-    <mergeCell ref="A202:F202"/>
-    <mergeCell ref="A203:F203"/>
-    <mergeCell ref="A204:F204"/>
-    <mergeCell ref="A205:F205"/>
-    <mergeCell ref="A206:F206"/>
-    <mergeCell ref="A207:F207"/>
-    <mergeCell ref="A196:F196"/>
-    <mergeCell ref="A197:F197"/>
-    <mergeCell ref="A198:F198"/>
-    <mergeCell ref="A199:F199"/>
-    <mergeCell ref="A200:F200"/>
-    <mergeCell ref="A201:F201"/>
-    <mergeCell ref="A190:F190"/>
-    <mergeCell ref="A191:F191"/>
-    <mergeCell ref="A192:F192"/>
-    <mergeCell ref="A193:F193"/>
-    <mergeCell ref="A194:F194"/>
-    <mergeCell ref="A195:F195"/>
-    <mergeCell ref="A184:F184"/>
-    <mergeCell ref="A185:F185"/>
-    <mergeCell ref="A186:F186"/>
-    <mergeCell ref="A187:F187"/>
-    <mergeCell ref="A188:F188"/>
-    <mergeCell ref="A189:F189"/>
-    <mergeCell ref="A178:F178"/>
-    <mergeCell ref="A179:F179"/>
-    <mergeCell ref="A180:F180"/>
-    <mergeCell ref="A181:F181"/>
-    <mergeCell ref="A182:F182"/>
-    <mergeCell ref="A183:F183"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9490,8 +9622,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B356"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -9501,268 +9633,268 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="22.5" customHeight="1" thickBot="1">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="30" t="s">
         <v>696</v>
       </c>
-      <c r="B1" s="70" t="s">
+      <c r="B1" s="33" t="s">
         <v>697</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="22.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="36" t="s">
         <v>705</v>
       </c>
-      <c r="B2" s="74" t="s">
+      <c r="B2" s="37" t="s">
         <v>706</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14.25" thickTop="1">
-      <c r="A3" s="68" t="s">
+      <c r="A3" s="31" t="s">
         <v>661</v>
       </c>
-      <c r="B3" s="71" t="s">
+      <c r="B3" s="34" t="s">
         <v>662</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="68"/>
-      <c r="B4" s="71" t="s">
+      <c r="A4" s="31"/>
+      <c r="B4" s="34" t="s">
         <v>663</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="68"/>
-      <c r="B5" s="71" t="s">
+      <c r="A5" s="31"/>
+      <c r="B5" s="34" t="s">
         <v>664</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="68"/>
-      <c r="B6" s="71" t="s">
+      <c r="A6" s="31"/>
+      <c r="B6" s="34" t="s">
         <v>665</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="68"/>
-      <c r="B7" s="71"/>
+      <c r="A7" s="31"/>
+      <c r="B7" s="34"/>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="68" t="s">
+      <c r="A8" s="31" t="s">
         <v>666</v>
       </c>
-      <c r="B8" s="71" t="s">
+      <c r="B8" s="34" t="s">
         <v>667</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="68"/>
-      <c r="B9" s="71" t="s">
+      <c r="A9" s="31"/>
+      <c r="B9" s="34" t="s">
         <v>668</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="68"/>
-      <c r="B10" s="71" t="s">
+      <c r="A10" s="31"/>
+      <c r="B10" s="34" t="s">
         <v>672</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="68"/>
-      <c r="B11" s="71" t="s">
+      <c r="A11" s="31"/>
+      <c r="B11" s="34" t="s">
         <v>673</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="68"/>
-      <c r="B12" s="71"/>
+      <c r="A12" s="31"/>
+      <c r="B12" s="34"/>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="68" t="s">
+      <c r="A13" s="31" t="s">
         <v>669</v>
       </c>
-      <c r="B13" s="71" t="s">
+      <c r="B13" s="34" t="s">
         <v>670</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="68"/>
-      <c r="B14" s="71" t="s">
+      <c r="A14" s="31"/>
+      <c r="B14" s="34" t="s">
         <v>671</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="68"/>
-      <c r="B15" s="71" t="s">
+      <c r="A15" s="31"/>
+      <c r="B15" s="34" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="68"/>
-      <c r="B16" s="71"/>
+      <c r="A16" s="31"/>
+      <c r="B16" s="34"/>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="68" t="s">
+      <c r="A17" s="31" t="s">
         <v>676</v>
       </c>
-      <c r="B17" s="71" t="s">
+      <c r="B17" s="34" t="s">
         <v>677</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="68"/>
-      <c r="B18" s="71" t="s">
+      <c r="A18" s="31"/>
+      <c r="B18" s="34" t="s">
         <v>675</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="68"/>
-      <c r="B19" s="71"/>
+      <c r="A19" s="31"/>
+      <c r="B19" s="34"/>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="68" t="s">
+      <c r="A20" s="31" t="s">
         <v>678</v>
       </c>
-      <c r="B20" s="71" t="s">
+      <c r="B20" s="34" t="s">
         <v>679</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="68"/>
-      <c r="B21" s="71" t="s">
+      <c r="A21" s="31"/>
+      <c r="B21" s="34" t="s">
         <v>680</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="68"/>
-      <c r="B22" s="71" t="s">
+      <c r="A22" s="31"/>
+      <c r="B22" s="34" t="s">
         <v>681</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="68"/>
-      <c r="B23" s="71" t="s">
+      <c r="A23" s="31"/>
+      <c r="B23" s="34" t="s">
         <v>682</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="68"/>
-      <c r="B24" s="71"/>
+      <c r="A24" s="31"/>
+      <c r="B24" s="34"/>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="68" t="s">
+      <c r="A25" s="31" t="s">
         <v>683</v>
       </c>
-      <c r="B25" s="71" t="s">
+      <c r="B25" s="34" t="s">
         <v>684</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="68"/>
-      <c r="B26" s="71" t="s">
+      <c r="A26" s="31"/>
+      <c r="B26" s="34" t="s">
         <v>704</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="68"/>
-      <c r="B27" s="71" t="s">
+      <c r="A27" s="31"/>
+      <c r="B27" s="34" t="s">
         <v>703</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="68"/>
-      <c r="B28" s="71" t="s">
+      <c r="A28" s="31"/>
+      <c r="B28" s="34" t="s">
         <v>685</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="68"/>
-      <c r="B29" s="71"/>
+      <c r="A29" s="31"/>
+      <c r="B29" s="34"/>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="68" t="s">
+      <c r="A30" s="31" t="s">
         <v>686</v>
       </c>
-      <c r="B30" s="71" t="s">
+      <c r="B30" s="34" t="s">
         <v>687</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="68"/>
-      <c r="B31" s="71" t="s">
+      <c r="A31" s="31"/>
+      <c r="B31" s="34" t="s">
         <v>688</v>
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="68"/>
-      <c r="B32" s="71" t="s">
+      <c r="A32" s="31"/>
+      <c r="B32" s="34" t="s">
         <v>689</v>
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="68"/>
-      <c r="B33" s="71" t="s">
+      <c r="A33" s="31"/>
+      <c r="B33" s="34" t="s">
         <v>707</v>
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="68"/>
-      <c r="B34" s="71"/>
+      <c r="A34" s="31"/>
+      <c r="B34" s="34"/>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="68" t="s">
+      <c r="A35" s="31" t="s">
         <v>690</v>
       </c>
-      <c r="B35" s="71" t="s">
+      <c r="B35" s="34" t="s">
         <v>691</v>
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="68"/>
-      <c r="B36" s="71" t="s">
+      <c r="A36" s="31"/>
+      <c r="B36" s="34" t="s">
         <v>692</v>
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="68" t="s">
+      <c r="A37" s="31" t="s">
         <v>695</v>
       </c>
-      <c r="B37" s="71" t="s">
+      <c r="B37" s="34" t="s">
         <v>693</v>
       </c>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="68"/>
-      <c r="B38" s="71" t="s">
+      <c r="A38" s="31"/>
+      <c r="B38" s="34" t="s">
         <v>694</v>
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="68"/>
-      <c r="B39" s="71" t="s">
+      <c r="A39" s="31"/>
+      <c r="B39" s="34" t="s">
         <v>698</v>
       </c>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="68"/>
-      <c r="B40" s="71" t="s">
+      <c r="A40" s="31"/>
+      <c r="B40" s="34" t="s">
         <v>699</v>
       </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="68"/>
-      <c r="B41" s="71"/>
+      <c r="A41" s="31"/>
+      <c r="B41" s="34"/>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" s="68" t="s">
+      <c r="A42" s="31" t="s">
         <v>700</v>
       </c>
-      <c r="B42" s="71" t="s">
+      <c r="B42" s="34" t="s">
         <v>701</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="14.25" thickBot="1">
-      <c r="A43" s="69"/>
-      <c r="B43" s="72" t="s">
+      <c r="A43" s="32"/>
+      <c r="B43" s="35" t="s">
         <v>702</v>
       </c>
     </row>
@@ -9894,6 +10026,104 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="32.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>709</v>
+      </c>
+      <c r="B1" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>708</v>
+      </c>
+      <c r="B2" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>712</v>
+      </c>
+      <c r="B3" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>714</v>
+      </c>
+      <c r="B4" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>716</v>
+      </c>
+      <c r="B5" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>718</v>
+      </c>
+      <c r="B6" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>720</v>
+      </c>
+      <c r="B7" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>722</v>
+      </c>
+      <c r="B8" t="s">
+        <v>723</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C74" sqref="C74"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/JY Fundamental Data 2017 10.xlsx
+++ b/JY Fundamental Data 2017 10.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="75" windowWidth="21495" windowHeight="10020" activeTab="2"/>
+    <workbookView xWindow="600" yWindow="75" windowWidth="21495" windowHeight="10020" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="MainIndexNew" sheetId="1" r:id="rId1"/>
@@ -12,13 +12,15 @@
     <sheet name="相关VIew" sheetId="3" r:id="rId3"/>
     <sheet name="信用的中位数" sheetId="4" r:id="rId4"/>
     <sheet name="CashDividend" sheetId="5" r:id="rId5"/>
+    <sheet name="列项" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1049" uniqueCount="724">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1144" uniqueCount="766">
   <si>
     <t>号</t>
   </si>
@@ -3038,6 +3040,135 @@
   </si>
   <si>
     <t>增发</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TradingDay</t>
+  </si>
+  <si>
+    <t>InnerCode</t>
+  </si>
+  <si>
+    <t>NPParentCompanyOwnersTTM</t>
+  </si>
+  <si>
+    <t>OperatingRevenueTTM</t>
+  </si>
+  <si>
+    <t>NetOperateCashFlowTTM</t>
+  </si>
+  <si>
+    <t>TotalOperatingCostTTM</t>
+  </si>
+  <si>
+    <t>OperatingPayoutTTM</t>
+  </si>
+  <si>
+    <t>GrossProfitTTM</t>
+  </si>
+  <si>
+    <t>InterestBearDebt</t>
+  </si>
+  <si>
+    <t>NIFromOperatingTTM</t>
+  </si>
+  <si>
+    <t>TotalProfitTTM</t>
+  </si>
+  <si>
+    <t>NonoperatingNetIncomeTTM</t>
+  </si>
+  <si>
+    <t>NetProfitTTM</t>
+  </si>
+  <si>
+    <t>NPDeductNonRecurringPL</t>
+  </si>
+  <si>
+    <t>SEWithoutMI</t>
+  </si>
+  <si>
+    <t>CashEquivalents</t>
+  </si>
+  <si>
+    <t>TotalCurrentLiability</t>
+  </si>
+  <si>
+    <t>TotalLiability</t>
+  </si>
+  <si>
+    <t>TotalAssets</t>
+  </si>
+  <si>
+    <t>RetainedProfit</t>
+  </si>
+  <si>
+    <t>DivRatio</t>
+  </si>
+  <si>
+    <t>Rating_Med</t>
+  </si>
+  <si>
+    <t>Rating_Min</t>
+  </si>
+  <si>
+    <t>SEWithoutMI_LY</t>
+  </si>
+  <si>
+    <t>TotalAssets_LY</t>
+  </si>
+  <si>
+    <t>InterestBearDebt_LY</t>
+  </si>
+  <si>
+    <t>PlaceMoney</t>
+  </si>
+  <si>
+    <t>IssueMoney</t>
+  </si>
+  <si>
+    <t>NULL</t>
+  </si>
+  <si>
+    <t>V_Q_UnreportIssue</t>
+  </si>
+  <si>
+    <t>调整book</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>V_Q_UnreportPlace</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TotalOperatingRevenueTTM</t>
+  </si>
+  <si>
+    <t>TotalCashDiviLTM</t>
+  </si>
+  <si>
+    <t>NPDeductNonRecurringPL_LY</t>
+  </si>
+  <si>
+    <t>NPDeductNonRecurringPL_LA</t>
+  </si>
+  <si>
+    <t>left join ShengYunDB..V_LC_BalanceSheetAll D_LQ11</t>
+  </si>
+  <si>
+    <t>on D_LQ11.CompanyCode=D.CompanyCode</t>
+  </si>
+  <si>
+    <t>and D_LQ11.EndDate=T_LQ11.EndDate</t>
+  </si>
+  <si>
+    <t>and D_LQ11.InfoPublDate=(select MAX(InfoPublDate) from ShengYunDB..V_LC_BalanceSheetAll where CompanyCode=D_LQ11.CompanyCode and EndDate=D_LQ11.EndDate and InfoPublDate&lt;=A.TradingDay)</t>
+  </si>
+  <si>
+    <t>and D_LQ11.IfAdjusted=(select min(IfAdjusted) from ShengYunDB..V_LC_BalanceSheetAll where CompanyCode=D_LQ11.CompanyCode and EndDate=D_LQ11.EndDate and InfoPublDate=D_LQ11.InfoPublDate)</t>
+  </si>
+  <si>
+    <t>OperatingRevenueTTM</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -3560,7 +3691,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3672,6 +3803,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -4111,18 +4245,18 @@
       <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="44" t="s">
+      <c r="H1" s="45" t="s">
         <v>648</v>
       </c>
-      <c r="I1" s="45"/>
+      <c r="I1" s="46"/>
       <c r="J1" s="29" t="s">
         <v>649</v>
       </c>
-      <c r="K1" s="46" t="s">
+      <c r="K1" s="47" t="s">
         <v>650</v>
       </c>
-      <c r="L1" s="47"/>
-      <c r="M1" s="48"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="49"/>
     </row>
     <row r="2" spans="1:13" ht="22.5" customHeight="1">
       <c r="A2" s="5">
@@ -4139,16 +4273,16 @@
       </c>
       <c r="E2" s="10"/>
       <c r="F2" s="11"/>
-      <c r="H2" s="49" t="s">
+      <c r="H2" s="50" t="s">
         <v>651</v>
       </c>
-      <c r="I2" s="50"/>
-      <c r="J2" s="55" t="s">
+      <c r="I2" s="51"/>
+      <c r="J2" s="56" t="s">
         <v>652</v>
       </c>
-      <c r="K2" s="56"/>
-      <c r="L2" s="56"/>
-      <c r="M2" s="57"/>
+      <c r="K2" s="57"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="58"/>
     </row>
     <row r="3" spans="1:13" ht="22.5" customHeight="1">
       <c r="A3" s="12">
@@ -4165,14 +4299,14 @@
       </c>
       <c r="E3" s="14"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="38" t="s">
+      <c r="H3" s="52"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="39" t="s">
         <v>653</v>
       </c>
-      <c r="K3" s="39"/>
-      <c r="L3" s="39"/>
-      <c r="M3" s="40"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="41"/>
     </row>
     <row r="4" spans="1:13" ht="22.5" customHeight="1">
       <c r="A4" s="12">
@@ -4189,14 +4323,14 @@
       </c>
       <c r="E4" s="14"/>
       <c r="F4" s="11"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="38" t="s">
+      <c r="H4" s="52"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="39" t="s">
         <v>654</v>
       </c>
-      <c r="K4" s="39"/>
-      <c r="L4" s="39"/>
-      <c r="M4" s="40"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="41"/>
     </row>
     <row r="5" spans="1:13" ht="22.5" customHeight="1">
       <c r="A5" s="12"/>
@@ -4207,14 +4341,14 @@
       <c r="D5" s="7"/>
       <c r="E5" s="17"/>
       <c r="F5" s="11"/>
-      <c r="H5" s="51"/>
-      <c r="I5" s="52"/>
-      <c r="J5" s="38" t="s">
+      <c r="H5" s="52"/>
+      <c r="I5" s="53"/>
+      <c r="J5" s="39" t="s">
         <v>655</v>
       </c>
-      <c r="K5" s="39"/>
-      <c r="L5" s="39"/>
-      <c r="M5" s="40"/>
+      <c r="K5" s="40"/>
+      <c r="L5" s="40"/>
+      <c r="M5" s="41"/>
     </row>
     <row r="6" spans="1:13" ht="22.5" customHeight="1">
       <c r="A6" s="12">
@@ -4235,14 +4369,14 @@
       <c r="F6" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="51"/>
-      <c r="I6" s="52"/>
-      <c r="J6" s="38" t="s">
+      <c r="H6" s="52"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="39" t="s">
         <v>656</v>
       </c>
-      <c r="K6" s="39"/>
-      <c r="L6" s="39"/>
-      <c r="M6" s="40"/>
+      <c r="K6" s="40"/>
+      <c r="L6" s="40"/>
+      <c r="M6" s="41"/>
     </row>
     <row r="7" spans="1:13" ht="22.5" customHeight="1">
       <c r="A7" s="12">
@@ -4263,14 +4397,14 @@
       <c r="F7" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="51"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="38" t="s">
+      <c r="H7" s="52"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="39" t="s">
         <v>657</v>
       </c>
-      <c r="K7" s="39"/>
-      <c r="L7" s="39"/>
-      <c r="M7" s="40"/>
+      <c r="K7" s="40"/>
+      <c r="L7" s="40"/>
+      <c r="M7" s="41"/>
     </row>
     <row r="8" spans="1:13" ht="33.75" customHeight="1">
       <c r="A8" s="12">
@@ -4291,14 +4425,14 @@
       <c r="F8" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="H8" s="51"/>
-      <c r="I8" s="52"/>
-      <c r="J8" s="38" t="s">
+      <c r="H8" s="52"/>
+      <c r="I8" s="53"/>
+      <c r="J8" s="39" t="s">
         <v>658</v>
       </c>
-      <c r="K8" s="39"/>
-      <c r="L8" s="39"/>
-      <c r="M8" s="40"/>
+      <c r="K8" s="40"/>
+      <c r="L8" s="40"/>
+      <c r="M8" s="41"/>
     </row>
     <row r="9" spans="1:13" ht="22.5" customHeight="1">
       <c r="A9" s="12">
@@ -4319,14 +4453,14 @@
       <c r="F9" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="H9" s="51"/>
-      <c r="I9" s="52"/>
-      <c r="J9" s="38" t="s">
+      <c r="H9" s="52"/>
+      <c r="I9" s="53"/>
+      <c r="J9" s="39" t="s">
         <v>659</v>
       </c>
-      <c r="K9" s="39"/>
-      <c r="L9" s="39"/>
-      <c r="M9" s="40"/>
+      <c r="K9" s="40"/>
+      <c r="L9" s="40"/>
+      <c r="M9" s="41"/>
     </row>
     <row r="10" spans="1:13" ht="22.5" customHeight="1">
       <c r="A10" s="12">
@@ -4347,14 +4481,14 @@
       <c r="F10" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="H10" s="53"/>
-      <c r="I10" s="54"/>
-      <c r="J10" s="41" t="s">
+      <c r="H10" s="54"/>
+      <c r="I10" s="55"/>
+      <c r="J10" s="42" t="s">
         <v>660</v>
       </c>
-      <c r="K10" s="42"/>
-      <c r="L10" s="42"/>
-      <c r="M10" s="43"/>
+      <c r="K10" s="43"/>
+      <c r="L10" s="43"/>
+      <c r="M10" s="44"/>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="12">
@@ -7491,1920 +7625,1920 @@
       <c r="F177" s="9"/>
     </row>
     <row r="178" spans="1:6">
-      <c r="A178" s="64" t="s">
+      <c r="A178" s="65" t="s">
         <v>460</v>
       </c>
-      <c r="B178" s="65"/>
-      <c r="C178" s="65"/>
-      <c r="D178" s="65"/>
-      <c r="E178" s="65"/>
-      <c r="F178" s="66"/>
+      <c r="B178" s="66"/>
+      <c r="C178" s="66"/>
+      <c r="D178" s="66"/>
+      <c r="E178" s="66"/>
+      <c r="F178" s="67"/>
     </row>
     <row r="179" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A179" s="59" t="s">
+      <c r="A179" s="60" t="s">
         <v>461</v>
       </c>
-      <c r="B179" s="56"/>
-      <c r="C179" s="56"/>
-      <c r="D179" s="56"/>
-      <c r="E179" s="56"/>
-      <c r="F179" s="57"/>
+      <c r="B179" s="57"/>
+      <c r="C179" s="57"/>
+      <c r="D179" s="57"/>
+      <c r="E179" s="57"/>
+      <c r="F179" s="58"/>
     </row>
     <row r="180" spans="1:6">
-      <c r="A180" s="58" t="s">
+      <c r="A180" s="59" t="s">
         <v>462</v>
       </c>
-      <c r="B180" s="42"/>
-      <c r="C180" s="42"/>
-      <c r="D180" s="42"/>
-      <c r="E180" s="42"/>
-      <c r="F180" s="43"/>
+      <c r="B180" s="43"/>
+      <c r="C180" s="43"/>
+      <c r="D180" s="43"/>
+      <c r="E180" s="43"/>
+      <c r="F180" s="44"/>
     </row>
     <row r="181" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A181" s="59" t="s">
+      <c r="A181" s="60" t="s">
         <v>463</v>
       </c>
-      <c r="B181" s="56"/>
-      <c r="C181" s="56"/>
-      <c r="D181" s="56"/>
-      <c r="E181" s="56"/>
-      <c r="F181" s="57"/>
+      <c r="B181" s="57"/>
+      <c r="C181" s="57"/>
+      <c r="D181" s="57"/>
+      <c r="E181" s="57"/>
+      <c r="F181" s="58"/>
     </row>
     <row r="182" spans="1:6">
-      <c r="A182" s="73" t="s">
+      <c r="A182" s="74" t="s">
         <v>464</v>
       </c>
-      <c r="B182" s="74"/>
-      <c r="C182" s="74"/>
-      <c r="D182" s="74"/>
-      <c r="E182" s="74"/>
-      <c r="F182" s="40"/>
+      <c r="B182" s="75"/>
+      <c r="C182" s="75"/>
+      <c r="D182" s="75"/>
+      <c r="E182" s="75"/>
+      <c r="F182" s="41"/>
     </row>
     <row r="183" spans="1:6">
-      <c r="A183" s="58" t="s">
+      <c r="A183" s="59" t="s">
         <v>465</v>
       </c>
-      <c r="B183" s="42"/>
-      <c r="C183" s="42"/>
-      <c r="D183" s="42"/>
-      <c r="E183" s="42"/>
-      <c r="F183" s="43"/>
+      <c r="B183" s="43"/>
+      <c r="C183" s="43"/>
+      <c r="D183" s="43"/>
+      <c r="E183" s="43"/>
+      <c r="F183" s="44"/>
     </row>
     <row r="184" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A184" s="59" t="s">
+      <c r="A184" s="60" t="s">
         <v>466</v>
       </c>
-      <c r="B184" s="56"/>
-      <c r="C184" s="56"/>
-      <c r="D184" s="56"/>
-      <c r="E184" s="56"/>
-      <c r="F184" s="57"/>
+      <c r="B184" s="57"/>
+      <c r="C184" s="57"/>
+      <c r="D184" s="57"/>
+      <c r="E184" s="57"/>
+      <c r="F184" s="58"/>
     </row>
     <row r="185" spans="1:6">
-      <c r="A185" s="58" t="s">
+      <c r="A185" s="59" t="s">
         <v>467</v>
       </c>
-      <c r="B185" s="42"/>
-      <c r="C185" s="42"/>
-      <c r="D185" s="42"/>
-      <c r="E185" s="42"/>
-      <c r="F185" s="43"/>
+      <c r="B185" s="43"/>
+      <c r="C185" s="43"/>
+      <c r="D185" s="43"/>
+      <c r="E185" s="43"/>
+      <c r="F185" s="44"/>
     </row>
     <row r="186" spans="1:6">
-      <c r="A186" s="70" t="s">
+      <c r="A186" s="71" t="s">
         <v>468</v>
       </c>
-      <c r="B186" s="71"/>
-      <c r="C186" s="71"/>
-      <c r="D186" s="71"/>
-      <c r="E186" s="71"/>
-      <c r="F186" s="72"/>
+      <c r="B186" s="72"/>
+      <c r="C186" s="72"/>
+      <c r="D186" s="72"/>
+      <c r="E186" s="72"/>
+      <c r="F186" s="73"/>
     </row>
     <row r="187" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A187" s="59" t="s">
+      <c r="A187" s="60" t="s">
         <v>469</v>
       </c>
-      <c r="B187" s="56"/>
-      <c r="C187" s="56"/>
-      <c r="D187" s="56"/>
-      <c r="E187" s="56"/>
-      <c r="F187" s="57"/>
+      <c r="B187" s="57"/>
+      <c r="C187" s="57"/>
+      <c r="D187" s="57"/>
+      <c r="E187" s="57"/>
+      <c r="F187" s="58"/>
     </row>
     <row r="188" spans="1:6">
-      <c r="A188" s="58" t="s">
+      <c r="A188" s="59" t="s">
         <v>470</v>
       </c>
-      <c r="B188" s="42"/>
-      <c r="C188" s="42"/>
-      <c r="D188" s="42"/>
-      <c r="E188" s="42"/>
-      <c r="F188" s="43"/>
+      <c r="B188" s="43"/>
+      <c r="C188" s="43"/>
+      <c r="D188" s="43"/>
+      <c r="E188" s="43"/>
+      <c r="F188" s="44"/>
     </row>
     <row r="189" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A189" s="70" t="s">
+      <c r="A189" s="71" t="s">
         <v>471</v>
       </c>
-      <c r="B189" s="71"/>
-      <c r="C189" s="71"/>
-      <c r="D189" s="71"/>
-      <c r="E189" s="71"/>
-      <c r="F189" s="72"/>
+      <c r="B189" s="72"/>
+      <c r="C189" s="72"/>
+      <c r="D189" s="72"/>
+      <c r="E189" s="72"/>
+      <c r="F189" s="73"/>
     </row>
     <row r="190" spans="1:6">
-      <c r="A190" s="70" t="s">
+      <c r="A190" s="71" t="s">
         <v>472</v>
       </c>
-      <c r="B190" s="71"/>
-      <c r="C190" s="71"/>
-      <c r="D190" s="71"/>
-      <c r="E190" s="71"/>
-      <c r="F190" s="72"/>
+      <c r="B190" s="72"/>
+      <c r="C190" s="72"/>
+      <c r="D190" s="72"/>
+      <c r="E190" s="72"/>
+      <c r="F190" s="73"/>
     </row>
     <row r="191" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A191" s="70" t="s">
+      <c r="A191" s="71" t="s">
         <v>473</v>
       </c>
-      <c r="B191" s="71"/>
-      <c r="C191" s="71"/>
-      <c r="D191" s="71"/>
-      <c r="E191" s="71"/>
-      <c r="F191" s="72"/>
+      <c r="B191" s="72"/>
+      <c r="C191" s="72"/>
+      <c r="D191" s="72"/>
+      <c r="E191" s="72"/>
+      <c r="F191" s="73"/>
     </row>
     <row r="192" spans="1:6">
-      <c r="A192" s="70" t="s">
+      <c r="A192" s="71" t="s">
         <v>474</v>
       </c>
-      <c r="B192" s="71"/>
-      <c r="C192" s="71"/>
-      <c r="D192" s="71"/>
-      <c r="E192" s="71"/>
-      <c r="F192" s="72"/>
+      <c r="B192" s="72"/>
+      <c r="C192" s="72"/>
+      <c r="D192" s="72"/>
+      <c r="E192" s="72"/>
+      <c r="F192" s="73"/>
     </row>
     <row r="193" spans="1:6">
-      <c r="A193" s="59" t="s">
+      <c r="A193" s="60" t="s">
         <v>475</v>
       </c>
-      <c r="B193" s="56"/>
-      <c r="C193" s="56"/>
-      <c r="D193" s="56"/>
-      <c r="E193" s="56"/>
-      <c r="F193" s="57"/>
+      <c r="B193" s="57"/>
+      <c r="C193" s="57"/>
+      <c r="D193" s="57"/>
+      <c r="E193" s="57"/>
+      <c r="F193" s="58"/>
     </row>
     <row r="194" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A194" s="58" t="s">
+      <c r="A194" s="59" t="s">
         <v>476</v>
       </c>
-      <c r="B194" s="42"/>
-      <c r="C194" s="42"/>
-      <c r="D194" s="42"/>
-      <c r="E194" s="42"/>
-      <c r="F194" s="43"/>
+      <c r="B194" s="43"/>
+      <c r="C194" s="43"/>
+      <c r="D194" s="43"/>
+      <c r="E194" s="43"/>
+      <c r="F194" s="44"/>
     </row>
     <row r="195" spans="1:6">
-      <c r="A195" s="70" t="s">
+      <c r="A195" s="71" t="s">
         <v>477</v>
       </c>
-      <c r="B195" s="71"/>
-      <c r="C195" s="71"/>
-      <c r="D195" s="71"/>
-      <c r="E195" s="71"/>
-      <c r="F195" s="72"/>
+      <c r="B195" s="72"/>
+      <c r="C195" s="72"/>
+      <c r="D195" s="72"/>
+      <c r="E195" s="72"/>
+      <c r="F195" s="73"/>
     </row>
     <row r="196" spans="1:6">
-      <c r="A196" s="70" t="s">
+      <c r="A196" s="71" t="s">
         <v>478</v>
       </c>
-      <c r="B196" s="71"/>
-      <c r="C196" s="71"/>
-      <c r="D196" s="71"/>
-      <c r="E196" s="71"/>
-      <c r="F196" s="72"/>
+      <c r="B196" s="72"/>
+      <c r="C196" s="72"/>
+      <c r="D196" s="72"/>
+      <c r="E196" s="72"/>
+      <c r="F196" s="73"/>
     </row>
     <row r="197" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A197" s="70" t="s">
+      <c r="A197" s="71" t="s">
         <v>479</v>
       </c>
-      <c r="B197" s="71"/>
-      <c r="C197" s="71"/>
-      <c r="D197" s="71"/>
-      <c r="E197" s="71"/>
-      <c r="F197" s="72"/>
+      <c r="B197" s="72"/>
+      <c r="C197" s="72"/>
+      <c r="D197" s="72"/>
+      <c r="E197" s="72"/>
+      <c r="F197" s="73"/>
     </row>
     <row r="198" spans="1:6">
-      <c r="A198" s="70" t="s">
+      <c r="A198" s="71" t="s">
         <v>480</v>
       </c>
-      <c r="B198" s="71"/>
-      <c r="C198" s="71"/>
-      <c r="D198" s="71"/>
-      <c r="E198" s="71"/>
-      <c r="F198" s="72"/>
+      <c r="B198" s="72"/>
+      <c r="C198" s="72"/>
+      <c r="D198" s="72"/>
+      <c r="E198" s="72"/>
+      <c r="F198" s="73"/>
     </row>
     <row r="199" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A199" s="70" t="s">
+      <c r="A199" s="71" t="s">
         <v>481</v>
       </c>
-      <c r="B199" s="71"/>
-      <c r="C199" s="71"/>
-      <c r="D199" s="71"/>
-      <c r="E199" s="71"/>
-      <c r="F199" s="72"/>
+      <c r="B199" s="72"/>
+      <c r="C199" s="72"/>
+      <c r="D199" s="72"/>
+      <c r="E199" s="72"/>
+      <c r="F199" s="73"/>
     </row>
     <row r="200" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A200" s="59" t="s">
+      <c r="A200" s="60" t="s">
         <v>482</v>
       </c>
-      <c r="B200" s="56"/>
-      <c r="C200" s="56"/>
-      <c r="D200" s="56"/>
-      <c r="E200" s="56"/>
-      <c r="F200" s="57"/>
+      <c r="B200" s="57"/>
+      <c r="C200" s="57"/>
+      <c r="D200" s="57"/>
+      <c r="E200" s="57"/>
+      <c r="F200" s="58"/>
     </row>
     <row r="201" spans="1:6">
-      <c r="A201" s="58" t="s">
+      <c r="A201" s="59" t="s">
         <v>483</v>
       </c>
-      <c r="B201" s="42"/>
-      <c r="C201" s="42"/>
-      <c r="D201" s="42"/>
-      <c r="E201" s="42"/>
-      <c r="F201" s="43"/>
+      <c r="B201" s="43"/>
+      <c r="C201" s="43"/>
+      <c r="D201" s="43"/>
+      <c r="E201" s="43"/>
+      <c r="F201" s="44"/>
     </row>
     <row r="202" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A202" s="70" t="s">
+      <c r="A202" s="71" t="s">
         <v>484</v>
       </c>
-      <c r="B202" s="71"/>
-      <c r="C202" s="71"/>
-      <c r="D202" s="71"/>
-      <c r="E202" s="71"/>
-      <c r="F202" s="72"/>
+      <c r="B202" s="72"/>
+      <c r="C202" s="72"/>
+      <c r="D202" s="72"/>
+      <c r="E202" s="72"/>
+      <c r="F202" s="73"/>
     </row>
     <row r="203" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A203" s="70" t="s">
+      <c r="A203" s="71" t="s">
         <v>485</v>
       </c>
-      <c r="B203" s="71"/>
-      <c r="C203" s="71"/>
-      <c r="D203" s="71"/>
-      <c r="E203" s="71"/>
-      <c r="F203" s="72"/>
+      <c r="B203" s="72"/>
+      <c r="C203" s="72"/>
+      <c r="D203" s="72"/>
+      <c r="E203" s="72"/>
+      <c r="F203" s="73"/>
     </row>
     <row r="204" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A204" s="70" t="s">
+      <c r="A204" s="71" t="s">
         <v>486</v>
       </c>
-      <c r="B204" s="71"/>
-      <c r="C204" s="71"/>
-      <c r="D204" s="71"/>
-      <c r="E204" s="71"/>
-      <c r="F204" s="72"/>
+      <c r="B204" s="72"/>
+      <c r="C204" s="72"/>
+      <c r="D204" s="72"/>
+      <c r="E204" s="72"/>
+      <c r="F204" s="73"/>
     </row>
     <row r="205" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A205" s="59" t="s">
+      <c r="A205" s="60" t="s">
         <v>487</v>
       </c>
-      <c r="B205" s="56"/>
-      <c r="C205" s="56"/>
-      <c r="D205" s="56"/>
-      <c r="E205" s="56"/>
-      <c r="F205" s="57"/>
+      <c r="B205" s="57"/>
+      <c r="C205" s="57"/>
+      <c r="D205" s="57"/>
+      <c r="E205" s="57"/>
+      <c r="F205" s="58"/>
     </row>
     <row r="206" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A206" s="73" t="s">
+      <c r="A206" s="74" t="s">
         <v>488</v>
       </c>
-      <c r="B206" s="74"/>
-      <c r="C206" s="74"/>
-      <c r="D206" s="74"/>
-      <c r="E206" s="74"/>
-      <c r="F206" s="40"/>
+      <c r="B206" s="75"/>
+      <c r="C206" s="75"/>
+      <c r="D206" s="75"/>
+      <c r="E206" s="75"/>
+      <c r="F206" s="41"/>
     </row>
     <row r="207" spans="1:6">
-      <c r="A207" s="73" t="s">
+      <c r="A207" s="74" t="s">
         <v>489</v>
       </c>
-      <c r="B207" s="74"/>
-      <c r="C207" s="74"/>
-      <c r="D207" s="74"/>
-      <c r="E207" s="74"/>
-      <c r="F207" s="40"/>
+      <c r="B207" s="75"/>
+      <c r="C207" s="75"/>
+      <c r="D207" s="75"/>
+      <c r="E207" s="75"/>
+      <c r="F207" s="41"/>
     </row>
     <row r="208" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A208" s="73" t="s">
+      <c r="A208" s="74" t="s">
         <v>490</v>
       </c>
-      <c r="B208" s="74"/>
-      <c r="C208" s="74"/>
-      <c r="D208" s="74"/>
-      <c r="E208" s="74"/>
-      <c r="F208" s="40"/>
+      <c r="B208" s="75"/>
+      <c r="C208" s="75"/>
+      <c r="D208" s="75"/>
+      <c r="E208" s="75"/>
+      <c r="F208" s="41"/>
     </row>
     <row r="209" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A209" s="73" t="s">
+      <c r="A209" s="74" t="s">
         <v>491</v>
       </c>
-      <c r="B209" s="74"/>
-      <c r="C209" s="74"/>
-      <c r="D209" s="74"/>
-      <c r="E209" s="74"/>
-      <c r="F209" s="40"/>
+      <c r="B209" s="75"/>
+      <c r="C209" s="75"/>
+      <c r="D209" s="75"/>
+      <c r="E209" s="75"/>
+      <c r="F209" s="41"/>
     </row>
     <row r="210" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A210" s="58" t="s">
+      <c r="A210" s="59" t="s">
         <v>492</v>
       </c>
-      <c r="B210" s="42"/>
-      <c r="C210" s="42"/>
-      <c r="D210" s="42"/>
-      <c r="E210" s="42"/>
-      <c r="F210" s="43"/>
+      <c r="B210" s="43"/>
+      <c r="C210" s="43"/>
+      <c r="D210" s="43"/>
+      <c r="E210" s="43"/>
+      <c r="F210" s="44"/>
     </row>
     <row r="211" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A211" s="59" t="s">
+      <c r="A211" s="60" t="s">
         <v>493</v>
       </c>
-      <c r="B211" s="56"/>
-      <c r="C211" s="56"/>
-      <c r="D211" s="56"/>
-      <c r="E211" s="56"/>
-      <c r="F211" s="57"/>
+      <c r="B211" s="57"/>
+      <c r="C211" s="57"/>
+      <c r="D211" s="57"/>
+      <c r="E211" s="57"/>
+      <c r="F211" s="58"/>
     </row>
     <row r="212" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A212" s="73" t="s">
+      <c r="A212" s="74" t="s">
         <v>494</v>
       </c>
-      <c r="B212" s="74"/>
-      <c r="C212" s="74"/>
-      <c r="D212" s="74"/>
-      <c r="E212" s="74"/>
-      <c r="F212" s="40"/>
+      <c r="B212" s="75"/>
+      <c r="C212" s="75"/>
+      <c r="D212" s="75"/>
+      <c r="E212" s="75"/>
+      <c r="F212" s="41"/>
     </row>
     <row r="213" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A213" s="73" t="s">
+      <c r="A213" s="74" t="s">
         <v>495</v>
       </c>
-      <c r="B213" s="74"/>
-      <c r="C213" s="74"/>
-      <c r="D213" s="74"/>
-      <c r="E213" s="74"/>
-      <c r="F213" s="40"/>
+      <c r="B213" s="75"/>
+      <c r="C213" s="75"/>
+      <c r="D213" s="75"/>
+      <c r="E213" s="75"/>
+      <c r="F213" s="41"/>
     </row>
     <row r="214" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A214" s="73" t="s">
+      <c r="A214" s="74" t="s">
         <v>496</v>
       </c>
-      <c r="B214" s="74"/>
-      <c r="C214" s="74"/>
-      <c r="D214" s="74"/>
-      <c r="E214" s="74"/>
-      <c r="F214" s="40"/>
+      <c r="B214" s="75"/>
+      <c r="C214" s="75"/>
+      <c r="D214" s="75"/>
+      <c r="E214" s="75"/>
+      <c r="F214" s="41"/>
     </row>
     <row r="215" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A215" s="58" t="s">
+      <c r="A215" s="59" t="s">
         <v>497</v>
       </c>
-      <c r="B215" s="42"/>
-      <c r="C215" s="42"/>
-      <c r="D215" s="42"/>
-      <c r="E215" s="42"/>
-      <c r="F215" s="43"/>
+      <c r="B215" s="43"/>
+      <c r="C215" s="43"/>
+      <c r="D215" s="43"/>
+      <c r="E215" s="43"/>
+      <c r="F215" s="44"/>
     </row>
     <row r="216" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A216" s="59" t="s">
+      <c r="A216" s="60" t="s">
         <v>498</v>
       </c>
-      <c r="B216" s="56"/>
-      <c r="C216" s="56"/>
-      <c r="D216" s="56"/>
-      <c r="E216" s="56"/>
-      <c r="F216" s="57"/>
+      <c r="B216" s="57"/>
+      <c r="C216" s="57"/>
+      <c r="D216" s="57"/>
+      <c r="E216" s="57"/>
+      <c r="F216" s="58"/>
     </row>
     <row r="217" spans="1:6">
-      <c r="A217" s="58" t="s">
+      <c r="A217" s="59" t="s">
         <v>499</v>
       </c>
-      <c r="B217" s="42"/>
-      <c r="C217" s="42"/>
-      <c r="D217" s="42"/>
-      <c r="E217" s="42"/>
-      <c r="F217" s="43"/>
+      <c r="B217" s="43"/>
+      <c r="C217" s="43"/>
+      <c r="D217" s="43"/>
+      <c r="E217" s="43"/>
+      <c r="F217" s="44"/>
     </row>
     <row r="218" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A218" s="59" t="s">
+      <c r="A218" s="60" t="s">
         <v>500</v>
       </c>
-      <c r="B218" s="56"/>
-      <c r="C218" s="56"/>
-      <c r="D218" s="56"/>
-      <c r="E218" s="56"/>
-      <c r="F218" s="57"/>
+      <c r="B218" s="57"/>
+      <c r="C218" s="57"/>
+      <c r="D218" s="57"/>
+      <c r="E218" s="57"/>
+      <c r="F218" s="58"/>
     </row>
     <row r="219" spans="1:6">
-      <c r="A219" s="73" t="s">
+      <c r="A219" s="74" t="s">
         <v>501</v>
       </c>
-      <c r="B219" s="74"/>
-      <c r="C219" s="74"/>
-      <c r="D219" s="74"/>
-      <c r="E219" s="74"/>
-      <c r="F219" s="40"/>
+      <c r="B219" s="75"/>
+      <c r="C219" s="75"/>
+      <c r="D219" s="75"/>
+      <c r="E219" s="75"/>
+      <c r="F219" s="41"/>
     </row>
     <row r="220" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A220" s="73" t="s">
+      <c r="A220" s="74" t="s">
         <v>502</v>
       </c>
-      <c r="B220" s="74"/>
-      <c r="C220" s="74"/>
-      <c r="D220" s="74"/>
-      <c r="E220" s="74"/>
-      <c r="F220" s="40"/>
+      <c r="B220" s="75"/>
+      <c r="C220" s="75"/>
+      <c r="D220" s="75"/>
+      <c r="E220" s="75"/>
+      <c r="F220" s="41"/>
     </row>
     <row r="221" spans="1:6">
-      <c r="A221" s="73" t="s">
+      <c r="A221" s="74" t="s">
         <v>503</v>
       </c>
-      <c r="B221" s="74"/>
-      <c r="C221" s="74"/>
-      <c r="D221" s="74"/>
-      <c r="E221" s="74"/>
-      <c r="F221" s="40"/>
+      <c r="B221" s="75"/>
+      <c r="C221" s="75"/>
+      <c r="D221" s="75"/>
+      <c r="E221" s="75"/>
+      <c r="F221" s="41"/>
     </row>
     <row r="222" spans="1:6">
-      <c r="A222" s="73" t="s">
+      <c r="A222" s="74" t="s">
         <v>504</v>
       </c>
-      <c r="B222" s="74"/>
-      <c r="C222" s="74"/>
-      <c r="D222" s="74"/>
-      <c r="E222" s="74"/>
-      <c r="F222" s="40"/>
+      <c r="B222" s="75"/>
+      <c r="C222" s="75"/>
+      <c r="D222" s="75"/>
+      <c r="E222" s="75"/>
+      <c r="F222" s="41"/>
     </row>
     <row r="223" spans="1:6">
-      <c r="A223" s="58" t="s">
+      <c r="A223" s="59" t="s">
         <v>505</v>
       </c>
-      <c r="B223" s="42"/>
-      <c r="C223" s="42"/>
-      <c r="D223" s="42"/>
-      <c r="E223" s="42"/>
-      <c r="F223" s="43"/>
+      <c r="B223" s="43"/>
+      <c r="C223" s="43"/>
+      <c r="D223" s="43"/>
+      <c r="E223" s="43"/>
+      <c r="F223" s="44"/>
     </row>
     <row r="224" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A224" s="59" t="s">
+      <c r="A224" s="60" t="s">
         <v>506</v>
       </c>
-      <c r="B224" s="56"/>
-      <c r="C224" s="56"/>
-      <c r="D224" s="56"/>
-      <c r="E224" s="56"/>
-      <c r="F224" s="57"/>
+      <c r="B224" s="57"/>
+      <c r="C224" s="57"/>
+      <c r="D224" s="57"/>
+      <c r="E224" s="57"/>
+      <c r="F224" s="58"/>
     </row>
     <row r="225" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A225" s="58" t="s">
+      <c r="A225" s="59" t="s">
         <v>507</v>
       </c>
-      <c r="B225" s="42"/>
-      <c r="C225" s="42"/>
-      <c r="D225" s="42"/>
-      <c r="E225" s="42"/>
-      <c r="F225" s="43"/>
+      <c r="B225" s="43"/>
+      <c r="C225" s="43"/>
+      <c r="D225" s="43"/>
+      <c r="E225" s="43"/>
+      <c r="F225" s="44"/>
     </row>
     <row r="226" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A226" s="59" t="s">
+      <c r="A226" s="60" t="s">
         <v>508</v>
       </c>
-      <c r="B226" s="56"/>
-      <c r="C226" s="56"/>
-      <c r="D226" s="56"/>
-      <c r="E226" s="56"/>
-      <c r="F226" s="57"/>
+      <c r="B226" s="57"/>
+      <c r="C226" s="57"/>
+      <c r="D226" s="57"/>
+      <c r="E226" s="57"/>
+      <c r="F226" s="58"/>
     </row>
     <row r="227" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A227" s="58" t="s">
+      <c r="A227" s="59" t="s">
         <v>509</v>
       </c>
-      <c r="B227" s="42"/>
-      <c r="C227" s="42"/>
-      <c r="D227" s="42"/>
-      <c r="E227" s="42"/>
-      <c r="F227" s="43"/>
+      <c r="B227" s="43"/>
+      <c r="C227" s="43"/>
+      <c r="D227" s="43"/>
+      <c r="E227" s="43"/>
+      <c r="F227" s="44"/>
     </row>
     <row r="228" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A228" s="59" t="s">
+      <c r="A228" s="60" t="s">
         <v>510</v>
       </c>
-      <c r="B228" s="56"/>
-      <c r="C228" s="56"/>
-      <c r="D228" s="56"/>
-      <c r="E228" s="56"/>
-      <c r="F228" s="57"/>
+      <c r="B228" s="57"/>
+      <c r="C228" s="57"/>
+      <c r="D228" s="57"/>
+      <c r="E228" s="57"/>
+      <c r="F228" s="58"/>
     </row>
     <row r="229" spans="1:6">
-      <c r="A229" s="73" t="s">
+      <c r="A229" s="74" t="s">
         <v>511</v>
       </c>
-      <c r="B229" s="74"/>
-      <c r="C229" s="74"/>
-      <c r="D229" s="74"/>
-      <c r="E229" s="74"/>
-      <c r="F229" s="40"/>
+      <c r="B229" s="75"/>
+      <c r="C229" s="75"/>
+      <c r="D229" s="75"/>
+      <c r="E229" s="75"/>
+      <c r="F229" s="41"/>
     </row>
     <row r="230" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A230" s="73" t="s">
+      <c r="A230" s="74" t="s">
         <v>512</v>
       </c>
-      <c r="B230" s="74"/>
-      <c r="C230" s="74"/>
-      <c r="D230" s="74"/>
-      <c r="E230" s="74"/>
-      <c r="F230" s="40"/>
+      <c r="B230" s="75"/>
+      <c r="C230" s="75"/>
+      <c r="D230" s="75"/>
+      <c r="E230" s="75"/>
+      <c r="F230" s="41"/>
     </row>
     <row r="231" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A231" s="73" t="s">
+      <c r="A231" s="74" t="s">
         <v>513</v>
       </c>
-      <c r="B231" s="74"/>
-      <c r="C231" s="74"/>
-      <c r="D231" s="74"/>
-      <c r="E231" s="74"/>
-      <c r="F231" s="40"/>
+      <c r="B231" s="75"/>
+      <c r="C231" s="75"/>
+      <c r="D231" s="75"/>
+      <c r="E231" s="75"/>
+      <c r="F231" s="41"/>
     </row>
     <row r="232" spans="1:6">
-      <c r="A232" s="58" t="s">
+      <c r="A232" s="59" t="s">
         <v>514</v>
       </c>
-      <c r="B232" s="42"/>
-      <c r="C232" s="42"/>
-      <c r="D232" s="42"/>
-      <c r="E232" s="42"/>
-      <c r="F232" s="43"/>
+      <c r="B232" s="43"/>
+      <c r="C232" s="43"/>
+      <c r="D232" s="43"/>
+      <c r="E232" s="43"/>
+      <c r="F232" s="44"/>
     </row>
     <row r="233" spans="1:6">
-      <c r="A233" s="59" t="s">
+      <c r="A233" s="60" t="s">
         <v>515</v>
       </c>
-      <c r="B233" s="56"/>
-      <c r="C233" s="56"/>
-      <c r="D233" s="56"/>
-      <c r="E233" s="56"/>
-      <c r="F233" s="57"/>
+      <c r="B233" s="57"/>
+      <c r="C233" s="57"/>
+      <c r="D233" s="57"/>
+      <c r="E233" s="57"/>
+      <c r="F233" s="58"/>
     </row>
     <row r="234" spans="1:6">
-      <c r="A234" s="58" t="s">
+      <c r="A234" s="59" t="s">
         <v>516</v>
       </c>
-      <c r="B234" s="42"/>
-      <c r="C234" s="42"/>
-      <c r="D234" s="42"/>
-      <c r="E234" s="42"/>
-      <c r="F234" s="43"/>
+      <c r="B234" s="43"/>
+      <c r="C234" s="43"/>
+      <c r="D234" s="43"/>
+      <c r="E234" s="43"/>
+      <c r="F234" s="44"/>
     </row>
     <row r="235" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A235" s="59" t="s">
+      <c r="A235" s="60" t="s">
         <v>517</v>
       </c>
-      <c r="B235" s="56"/>
-      <c r="C235" s="56"/>
-      <c r="D235" s="56"/>
-      <c r="E235" s="56"/>
-      <c r="F235" s="57"/>
+      <c r="B235" s="57"/>
+      <c r="C235" s="57"/>
+      <c r="D235" s="57"/>
+      <c r="E235" s="57"/>
+      <c r="F235" s="58"/>
     </row>
     <row r="236" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A236" s="73" t="s">
+      <c r="A236" s="74" t="s">
         <v>518</v>
       </c>
-      <c r="B236" s="74"/>
-      <c r="C236" s="74"/>
-      <c r="D236" s="74"/>
-      <c r="E236" s="74"/>
-      <c r="F236" s="40"/>
+      <c r="B236" s="75"/>
+      <c r="C236" s="75"/>
+      <c r="D236" s="75"/>
+      <c r="E236" s="75"/>
+      <c r="F236" s="41"/>
     </row>
     <row r="237" spans="1:6">
-      <c r="A237" s="58" t="s">
+      <c r="A237" s="59" t="s">
         <v>519</v>
       </c>
-      <c r="B237" s="42"/>
-      <c r="C237" s="42"/>
-      <c r="D237" s="42"/>
-      <c r="E237" s="42"/>
-      <c r="F237" s="43"/>
+      <c r="B237" s="43"/>
+      <c r="C237" s="43"/>
+      <c r="D237" s="43"/>
+      <c r="E237" s="43"/>
+      <c r="F237" s="44"/>
     </row>
     <row r="238" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A238" s="59" t="s">
+      <c r="A238" s="60" t="s">
         <v>520</v>
       </c>
-      <c r="B238" s="56"/>
-      <c r="C238" s="56"/>
-      <c r="D238" s="56"/>
-      <c r="E238" s="56"/>
-      <c r="F238" s="57"/>
+      <c r="B238" s="57"/>
+      <c r="C238" s="57"/>
+      <c r="D238" s="57"/>
+      <c r="E238" s="57"/>
+      <c r="F238" s="58"/>
     </row>
     <row r="239" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A239" s="73" t="s">
+      <c r="A239" s="74" t="s">
         <v>521</v>
       </c>
-      <c r="B239" s="74"/>
-      <c r="C239" s="74"/>
-      <c r="D239" s="74"/>
-      <c r="E239" s="74"/>
-      <c r="F239" s="40"/>
+      <c r="B239" s="75"/>
+      <c r="C239" s="75"/>
+      <c r="D239" s="75"/>
+      <c r="E239" s="75"/>
+      <c r="F239" s="41"/>
     </row>
     <row r="240" spans="1:6">
-      <c r="A240" s="58" t="s">
+      <c r="A240" s="59" t="s">
         <v>522</v>
       </c>
-      <c r="B240" s="42"/>
-      <c r="C240" s="42"/>
-      <c r="D240" s="42"/>
-      <c r="E240" s="42"/>
-      <c r="F240" s="43"/>
+      <c r="B240" s="43"/>
+      <c r="C240" s="43"/>
+      <c r="D240" s="43"/>
+      <c r="E240" s="43"/>
+      <c r="F240" s="44"/>
     </row>
     <row r="241" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A241" s="70" t="s">
+      <c r="A241" s="71" t="s">
         <v>523</v>
       </c>
-      <c r="B241" s="71"/>
-      <c r="C241" s="71"/>
-      <c r="D241" s="71"/>
-      <c r="E241" s="71"/>
-      <c r="F241" s="72"/>
+      <c r="B241" s="72"/>
+      <c r="C241" s="72"/>
+      <c r="D241" s="72"/>
+      <c r="E241" s="72"/>
+      <c r="F241" s="73"/>
     </row>
     <row r="242" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A242" s="70" t="s">
+      <c r="A242" s="71" t="s">
         <v>524</v>
       </c>
-      <c r="B242" s="71"/>
-      <c r="C242" s="71"/>
-      <c r="D242" s="71"/>
-      <c r="E242" s="71"/>
-      <c r="F242" s="72"/>
+      <c r="B242" s="72"/>
+      <c r="C242" s="72"/>
+      <c r="D242" s="72"/>
+      <c r="E242" s="72"/>
+      <c r="F242" s="73"/>
     </row>
     <row r="243" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A243" s="59" t="s">
+      <c r="A243" s="60" t="s">
         <v>525</v>
       </c>
-      <c r="B243" s="56"/>
-      <c r="C243" s="56"/>
-      <c r="D243" s="56"/>
-      <c r="E243" s="56"/>
-      <c r="F243" s="57"/>
+      <c r="B243" s="57"/>
+      <c r="C243" s="57"/>
+      <c r="D243" s="57"/>
+      <c r="E243" s="57"/>
+      <c r="F243" s="58"/>
     </row>
     <row r="244" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A244" s="73" t="s">
+      <c r="A244" s="74" t="s">
         <v>526</v>
       </c>
-      <c r="B244" s="74"/>
-      <c r="C244" s="74"/>
-      <c r="D244" s="74"/>
-      <c r="E244" s="74"/>
-      <c r="F244" s="40"/>
+      <c r="B244" s="75"/>
+      <c r="C244" s="75"/>
+      <c r="D244" s="75"/>
+      <c r="E244" s="75"/>
+      <c r="F244" s="41"/>
     </row>
     <row r="245" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A245" s="73" t="s">
+      <c r="A245" s="74" t="s">
         <v>527</v>
       </c>
-      <c r="B245" s="74"/>
-      <c r="C245" s="74"/>
-      <c r="D245" s="74"/>
-      <c r="E245" s="74"/>
-      <c r="F245" s="40"/>
+      <c r="B245" s="75"/>
+      <c r="C245" s="75"/>
+      <c r="D245" s="75"/>
+      <c r="E245" s="75"/>
+      <c r="F245" s="41"/>
     </row>
     <row r="246" spans="1:6">
-      <c r="A246" s="58" t="s">
+      <c r="A246" s="59" t="s">
         <v>528</v>
       </c>
-      <c r="B246" s="42"/>
-      <c r="C246" s="42"/>
-      <c r="D246" s="42"/>
-      <c r="E246" s="42"/>
-      <c r="F246" s="43"/>
+      <c r="B246" s="43"/>
+      <c r="C246" s="43"/>
+      <c r="D246" s="43"/>
+      <c r="E246" s="43"/>
+      <c r="F246" s="44"/>
     </row>
     <row r="247" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A247" s="70" t="s">
+      <c r="A247" s="71" t="s">
         <v>529</v>
       </c>
-      <c r="B247" s="71"/>
-      <c r="C247" s="71"/>
-      <c r="D247" s="71"/>
-      <c r="E247" s="71"/>
-      <c r="F247" s="72"/>
+      <c r="B247" s="72"/>
+      <c r="C247" s="72"/>
+      <c r="D247" s="72"/>
+      <c r="E247" s="72"/>
+      <c r="F247" s="73"/>
     </row>
     <row r="248" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A248" s="70" t="s">
+      <c r="A248" s="71" t="s">
         <v>530</v>
       </c>
-      <c r="B248" s="71"/>
-      <c r="C248" s="71"/>
-      <c r="D248" s="71"/>
-      <c r="E248" s="71"/>
-      <c r="F248" s="72"/>
+      <c r="B248" s="72"/>
+      <c r="C248" s="72"/>
+      <c r="D248" s="72"/>
+      <c r="E248" s="72"/>
+      <c r="F248" s="73"/>
     </row>
     <row r="249" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A249" s="70" t="s">
+      <c r="A249" s="71" t="s">
         <v>531</v>
       </c>
-      <c r="B249" s="71"/>
-      <c r="C249" s="71"/>
-      <c r="D249" s="71"/>
-      <c r="E249" s="71"/>
-      <c r="F249" s="72"/>
+      <c r="B249" s="72"/>
+      <c r="C249" s="72"/>
+      <c r="D249" s="72"/>
+      <c r="E249" s="72"/>
+      <c r="F249" s="73"/>
     </row>
     <row r="250" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A250" s="70" t="s">
+      <c r="A250" s="71" t="s">
         <v>532</v>
       </c>
-      <c r="B250" s="71"/>
-      <c r="C250" s="71"/>
-      <c r="D250" s="71"/>
-      <c r="E250" s="71"/>
-      <c r="F250" s="72"/>
+      <c r="B250" s="72"/>
+      <c r="C250" s="72"/>
+      <c r="D250" s="72"/>
+      <c r="E250" s="72"/>
+      <c r="F250" s="73"/>
     </row>
     <row r="251" spans="1:6">
-      <c r="A251" s="70" t="s">
+      <c r="A251" s="71" t="s">
         <v>533</v>
       </c>
-      <c r="B251" s="71"/>
-      <c r="C251" s="71"/>
-      <c r="D251" s="71"/>
-      <c r="E251" s="71"/>
-      <c r="F251" s="72"/>
+      <c r="B251" s="72"/>
+      <c r="C251" s="72"/>
+      <c r="D251" s="72"/>
+      <c r="E251" s="72"/>
+      <c r="F251" s="73"/>
     </row>
     <row r="252" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A252" s="70" t="s">
+      <c r="A252" s="71" t="s">
         <v>534</v>
       </c>
-      <c r="B252" s="71"/>
-      <c r="C252" s="71"/>
-      <c r="D252" s="71"/>
-      <c r="E252" s="71"/>
-      <c r="F252" s="72"/>
+      <c r="B252" s="72"/>
+      <c r="C252" s="72"/>
+      <c r="D252" s="72"/>
+      <c r="E252" s="72"/>
+      <c r="F252" s="73"/>
     </row>
     <row r="253" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A253" s="59" t="s">
+      <c r="A253" s="60" t="s">
         <v>535</v>
       </c>
-      <c r="B253" s="56"/>
-      <c r="C253" s="56"/>
-      <c r="D253" s="56"/>
-      <c r="E253" s="56"/>
-      <c r="F253" s="57"/>
+      <c r="B253" s="57"/>
+      <c r="C253" s="57"/>
+      <c r="D253" s="57"/>
+      <c r="E253" s="57"/>
+      <c r="F253" s="58"/>
     </row>
     <row r="254" spans="1:6">
-      <c r="A254" s="58" t="s">
+      <c r="A254" s="59" t="s">
         <v>536</v>
       </c>
-      <c r="B254" s="42"/>
-      <c r="C254" s="42"/>
-      <c r="D254" s="42"/>
-      <c r="E254" s="42"/>
-      <c r="F254" s="43"/>
+      <c r="B254" s="43"/>
+      <c r="C254" s="43"/>
+      <c r="D254" s="43"/>
+      <c r="E254" s="43"/>
+      <c r="F254" s="44"/>
     </row>
     <row r="255" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A255" s="70" t="s">
+      <c r="A255" s="71" t="s">
         <v>537</v>
       </c>
-      <c r="B255" s="71"/>
-      <c r="C255" s="71"/>
-      <c r="D255" s="71"/>
-      <c r="E255" s="71"/>
-      <c r="F255" s="72"/>
+      <c r="B255" s="72"/>
+      <c r="C255" s="72"/>
+      <c r="D255" s="72"/>
+      <c r="E255" s="72"/>
+      <c r="F255" s="73"/>
     </row>
     <row r="256" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A256" s="70" t="s">
+      <c r="A256" s="71" t="s">
         <v>538</v>
       </c>
-      <c r="B256" s="71"/>
-      <c r="C256" s="71"/>
-      <c r="D256" s="71"/>
-      <c r="E256" s="71"/>
-      <c r="F256" s="72"/>
+      <c r="B256" s="72"/>
+      <c r="C256" s="72"/>
+      <c r="D256" s="72"/>
+      <c r="E256" s="72"/>
+      <c r="F256" s="73"/>
     </row>
     <row r="257" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A257" s="70" t="s">
+      <c r="A257" s="71" t="s">
         <v>539</v>
       </c>
-      <c r="B257" s="71"/>
-      <c r="C257" s="71"/>
-      <c r="D257" s="71"/>
-      <c r="E257" s="71"/>
-      <c r="F257" s="72"/>
+      <c r="B257" s="72"/>
+      <c r="C257" s="72"/>
+      <c r="D257" s="72"/>
+      <c r="E257" s="72"/>
+      <c r="F257" s="73"/>
     </row>
     <row r="258" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A258" s="70" t="s">
+      <c r="A258" s="71" t="s">
         <v>540</v>
       </c>
-      <c r="B258" s="71"/>
-      <c r="C258" s="71"/>
-      <c r="D258" s="71"/>
-      <c r="E258" s="71"/>
-      <c r="F258" s="72"/>
+      <c r="B258" s="72"/>
+      <c r="C258" s="72"/>
+      <c r="D258" s="72"/>
+      <c r="E258" s="72"/>
+      <c r="F258" s="73"/>
     </row>
     <row r="259" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A259" s="70" t="s">
+      <c r="A259" s="71" t="s">
         <v>541</v>
       </c>
-      <c r="B259" s="71"/>
-      <c r="C259" s="71"/>
-      <c r="D259" s="71"/>
-      <c r="E259" s="71"/>
-      <c r="F259" s="72"/>
+      <c r="B259" s="72"/>
+      <c r="C259" s="72"/>
+      <c r="D259" s="72"/>
+      <c r="E259" s="72"/>
+      <c r="F259" s="73"/>
     </row>
     <row r="260" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A260" s="70" t="s">
+      <c r="A260" s="71" t="s">
         <v>542</v>
       </c>
-      <c r="B260" s="71"/>
-      <c r="C260" s="71"/>
-      <c r="D260" s="71"/>
-      <c r="E260" s="71"/>
-      <c r="F260" s="72"/>
+      <c r="B260" s="72"/>
+      <c r="C260" s="72"/>
+      <c r="D260" s="72"/>
+      <c r="E260" s="72"/>
+      <c r="F260" s="73"/>
     </row>
     <row r="261" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A261" s="70" t="s">
+      <c r="A261" s="71" t="s">
         <v>543</v>
       </c>
-      <c r="B261" s="71"/>
-      <c r="C261" s="71"/>
-      <c r="D261" s="71"/>
-      <c r="E261" s="71"/>
-      <c r="F261" s="72"/>
+      <c r="B261" s="72"/>
+      <c r="C261" s="72"/>
+      <c r="D261" s="72"/>
+      <c r="E261" s="72"/>
+      <c r="F261" s="73"/>
     </row>
     <row r="262" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A262" s="70" t="s">
+      <c r="A262" s="71" t="s">
         <v>544</v>
       </c>
-      <c r="B262" s="71"/>
-      <c r="C262" s="71"/>
-      <c r="D262" s="71"/>
-      <c r="E262" s="71"/>
-      <c r="F262" s="72"/>
+      <c r="B262" s="72"/>
+      <c r="C262" s="72"/>
+      <c r="D262" s="72"/>
+      <c r="E262" s="72"/>
+      <c r="F262" s="73"/>
     </row>
     <row r="263" spans="1:6">
-      <c r="A263" s="70" t="s">
+      <c r="A263" s="71" t="s">
         <v>545</v>
       </c>
-      <c r="B263" s="71"/>
-      <c r="C263" s="71"/>
-      <c r="D263" s="71"/>
-      <c r="E263" s="71"/>
-      <c r="F263" s="72"/>
+      <c r="B263" s="72"/>
+      <c r="C263" s="72"/>
+      <c r="D263" s="72"/>
+      <c r="E263" s="72"/>
+      <c r="F263" s="73"/>
     </row>
     <row r="264" spans="1:6">
-      <c r="A264" s="59" t="s">
+      <c r="A264" s="60" t="s">
         <v>546</v>
       </c>
-      <c r="B264" s="56"/>
-      <c r="C264" s="56"/>
-      <c r="D264" s="56"/>
-      <c r="E264" s="56"/>
-      <c r="F264" s="57"/>
+      <c r="B264" s="57"/>
+      <c r="C264" s="57"/>
+      <c r="D264" s="57"/>
+      <c r="E264" s="57"/>
+      <c r="F264" s="58"/>
     </row>
     <row r="265" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A265" s="58" t="s">
+      <c r="A265" s="59" t="s">
         <v>547</v>
       </c>
-      <c r="B265" s="42"/>
-      <c r="C265" s="42"/>
-      <c r="D265" s="42"/>
-      <c r="E265" s="42"/>
-      <c r="F265" s="43"/>
+      <c r="B265" s="43"/>
+      <c r="C265" s="43"/>
+      <c r="D265" s="43"/>
+      <c r="E265" s="43"/>
+      <c r="F265" s="44"/>
     </row>
     <row r="266" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A266" s="59" t="s">
+      <c r="A266" s="60" t="s">
         <v>548</v>
       </c>
-      <c r="B266" s="56"/>
-      <c r="C266" s="56"/>
-      <c r="D266" s="56"/>
-      <c r="E266" s="56"/>
-      <c r="F266" s="57"/>
+      <c r="B266" s="57"/>
+      <c r="C266" s="57"/>
+      <c r="D266" s="57"/>
+      <c r="E266" s="57"/>
+      <c r="F266" s="58"/>
     </row>
     <row r="267" spans="1:6">
-      <c r="A267" s="58" t="s">
+      <c r="A267" s="59" t="s">
         <v>549</v>
       </c>
-      <c r="B267" s="42"/>
-      <c r="C267" s="42"/>
-      <c r="D267" s="42"/>
-      <c r="E267" s="42"/>
-      <c r="F267" s="43"/>
+      <c r="B267" s="43"/>
+      <c r="C267" s="43"/>
+      <c r="D267" s="43"/>
+      <c r="E267" s="43"/>
+      <c r="F267" s="44"/>
     </row>
     <row r="268" spans="1:6">
-      <c r="A268" s="70" t="s">
+      <c r="A268" s="71" t="s">
         <v>550</v>
       </c>
-      <c r="B268" s="71"/>
-      <c r="C268" s="71"/>
-      <c r="D268" s="71"/>
-      <c r="E268" s="71"/>
-      <c r="F268" s="72"/>
+      <c r="B268" s="72"/>
+      <c r="C268" s="72"/>
+      <c r="D268" s="72"/>
+      <c r="E268" s="72"/>
+      <c r="F268" s="73"/>
     </row>
     <row r="269" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A269" s="59" t="s">
+      <c r="A269" s="60" t="s">
         <v>551</v>
       </c>
-      <c r="B269" s="56"/>
-      <c r="C269" s="56"/>
-      <c r="D269" s="56"/>
-      <c r="E269" s="56"/>
-      <c r="F269" s="57"/>
+      <c r="B269" s="57"/>
+      <c r="C269" s="57"/>
+      <c r="D269" s="57"/>
+      <c r="E269" s="57"/>
+      <c r="F269" s="58"/>
     </row>
     <row r="270" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A270" s="73" t="s">
+      <c r="A270" s="74" t="s">
         <v>552</v>
       </c>
-      <c r="B270" s="74"/>
-      <c r="C270" s="74"/>
-      <c r="D270" s="74"/>
-      <c r="E270" s="74"/>
-      <c r="F270" s="40"/>
+      <c r="B270" s="75"/>
+      <c r="C270" s="75"/>
+      <c r="D270" s="75"/>
+      <c r="E270" s="75"/>
+      <c r="F270" s="41"/>
     </row>
     <row r="271" spans="1:6">
-      <c r="A271" s="58" t="s">
+      <c r="A271" s="59" t="s">
         <v>553</v>
       </c>
-      <c r="B271" s="42"/>
-      <c r="C271" s="42"/>
-      <c r="D271" s="42"/>
-      <c r="E271" s="42"/>
-      <c r="F271" s="43"/>
+      <c r="B271" s="43"/>
+      <c r="C271" s="43"/>
+      <c r="D271" s="43"/>
+      <c r="E271" s="43"/>
+      <c r="F271" s="44"/>
     </row>
     <row r="272" spans="1:6">
-      <c r="A272" s="70" t="s">
+      <c r="A272" s="71" t="s">
         <v>554</v>
       </c>
-      <c r="B272" s="71"/>
-      <c r="C272" s="71"/>
-      <c r="D272" s="71"/>
-      <c r="E272" s="71"/>
-      <c r="F272" s="72"/>
+      <c r="B272" s="72"/>
+      <c r="C272" s="72"/>
+      <c r="D272" s="72"/>
+      <c r="E272" s="72"/>
+      <c r="F272" s="73"/>
     </row>
     <row r="273" spans="1:6">
-      <c r="A273" s="70" t="s">
+      <c r="A273" s="71" t="s">
         <v>555</v>
       </c>
-      <c r="B273" s="71"/>
-      <c r="C273" s="71"/>
-      <c r="D273" s="71"/>
-      <c r="E273" s="71"/>
-      <c r="F273" s="72"/>
+      <c r="B273" s="72"/>
+      <c r="C273" s="72"/>
+      <c r="D273" s="72"/>
+      <c r="E273" s="72"/>
+      <c r="F273" s="73"/>
     </row>
     <row r="274" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A274" s="70" t="s">
+      <c r="A274" s="71" t="s">
         <v>556</v>
       </c>
-      <c r="B274" s="71"/>
-      <c r="C274" s="71"/>
-      <c r="D274" s="71"/>
-      <c r="E274" s="71"/>
-      <c r="F274" s="72"/>
+      <c r="B274" s="72"/>
+      <c r="C274" s="72"/>
+      <c r="D274" s="72"/>
+      <c r="E274" s="72"/>
+      <c r="F274" s="73"/>
     </row>
     <row r="275" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A275" s="70" t="s">
+      <c r="A275" s="71" t="s">
         <v>557</v>
       </c>
-      <c r="B275" s="71"/>
-      <c r="C275" s="71"/>
-      <c r="D275" s="71"/>
-      <c r="E275" s="71"/>
-      <c r="F275" s="72"/>
+      <c r="B275" s="72"/>
+      <c r="C275" s="72"/>
+      <c r="D275" s="72"/>
+      <c r="E275" s="72"/>
+      <c r="F275" s="73"/>
     </row>
     <row r="276" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A276" s="59" t="s">
+      <c r="A276" s="60" t="s">
         <v>558</v>
       </c>
-      <c r="B276" s="56"/>
-      <c r="C276" s="56"/>
-      <c r="D276" s="56"/>
-      <c r="E276" s="56"/>
-      <c r="F276" s="57"/>
+      <c r="B276" s="57"/>
+      <c r="C276" s="57"/>
+      <c r="D276" s="57"/>
+      <c r="E276" s="57"/>
+      <c r="F276" s="58"/>
     </row>
     <row r="277" spans="1:6">
-      <c r="A277" s="73" t="s">
+      <c r="A277" s="74" t="s">
         <v>559</v>
       </c>
-      <c r="B277" s="74"/>
-      <c r="C277" s="74"/>
-      <c r="D277" s="74"/>
-      <c r="E277" s="74"/>
-      <c r="F277" s="40"/>
+      <c r="B277" s="75"/>
+      <c r="C277" s="75"/>
+      <c r="D277" s="75"/>
+      <c r="E277" s="75"/>
+      <c r="F277" s="41"/>
     </row>
     <row r="278" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A278" s="73" t="s">
+      <c r="A278" s="74" t="s">
         <v>560</v>
       </c>
-      <c r="B278" s="74"/>
-      <c r="C278" s="74"/>
-      <c r="D278" s="74"/>
-      <c r="E278" s="74"/>
-      <c r="F278" s="40"/>
+      <c r="B278" s="75"/>
+      <c r="C278" s="75"/>
+      <c r="D278" s="75"/>
+      <c r="E278" s="75"/>
+      <c r="F278" s="41"/>
     </row>
     <row r="279" spans="1:6">
-      <c r="A279" s="58" t="s">
+      <c r="A279" s="59" t="s">
         <v>561</v>
       </c>
-      <c r="B279" s="42"/>
-      <c r="C279" s="42"/>
-      <c r="D279" s="42"/>
-      <c r="E279" s="42"/>
-      <c r="F279" s="43"/>
+      <c r="B279" s="43"/>
+      <c r="C279" s="43"/>
+      <c r="D279" s="43"/>
+      <c r="E279" s="43"/>
+      <c r="F279" s="44"/>
     </row>
     <row r="280" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A280" s="59" t="s">
+      <c r="A280" s="60" t="s">
         <v>562</v>
       </c>
-      <c r="B280" s="56"/>
-      <c r="C280" s="56"/>
-      <c r="D280" s="56"/>
-      <c r="E280" s="56"/>
-      <c r="F280" s="57"/>
+      <c r="B280" s="57"/>
+      <c r="C280" s="57"/>
+      <c r="D280" s="57"/>
+      <c r="E280" s="57"/>
+      <c r="F280" s="58"/>
     </row>
     <row r="281" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A281" s="58" t="s">
+      <c r="A281" s="59" t="s">
         <v>563</v>
       </c>
-      <c r="B281" s="42"/>
-      <c r="C281" s="42"/>
-      <c r="D281" s="42"/>
-      <c r="E281" s="42"/>
-      <c r="F281" s="43"/>
+      <c r="B281" s="43"/>
+      <c r="C281" s="43"/>
+      <c r="D281" s="43"/>
+      <c r="E281" s="43"/>
+      <c r="F281" s="44"/>
     </row>
     <row r="282" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A282" s="59" t="s">
+      <c r="A282" s="60" t="s">
         <v>564</v>
       </c>
-      <c r="B282" s="56"/>
-      <c r="C282" s="56"/>
-      <c r="D282" s="56"/>
-      <c r="E282" s="56"/>
-      <c r="F282" s="57"/>
+      <c r="B282" s="57"/>
+      <c r="C282" s="57"/>
+      <c r="D282" s="57"/>
+      <c r="E282" s="57"/>
+      <c r="F282" s="58"/>
     </row>
     <row r="283" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A283" s="73" t="s">
+      <c r="A283" s="74" t="s">
         <v>565</v>
       </c>
-      <c r="B283" s="74"/>
-      <c r="C283" s="74"/>
-      <c r="D283" s="74"/>
-      <c r="E283" s="74"/>
-      <c r="F283" s="40"/>
+      <c r="B283" s="75"/>
+      <c r="C283" s="75"/>
+      <c r="D283" s="75"/>
+      <c r="E283" s="75"/>
+      <c r="F283" s="41"/>
     </row>
     <row r="284" spans="1:6">
-      <c r="A284" s="73" t="s">
+      <c r="A284" s="74" t="s">
         <v>566</v>
       </c>
-      <c r="B284" s="74"/>
-      <c r="C284" s="74"/>
-      <c r="D284" s="74"/>
-      <c r="E284" s="74"/>
-      <c r="F284" s="40"/>
+      <c r="B284" s="75"/>
+      <c r="C284" s="75"/>
+      <c r="D284" s="75"/>
+      <c r="E284" s="75"/>
+      <c r="F284" s="41"/>
     </row>
     <row r="285" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A285" s="73" t="s">
+      <c r="A285" s="74" t="s">
         <v>567</v>
       </c>
-      <c r="B285" s="74"/>
-      <c r="C285" s="74"/>
-      <c r="D285" s="74"/>
-      <c r="E285" s="74"/>
-      <c r="F285" s="40"/>
+      <c r="B285" s="75"/>
+      <c r="C285" s="75"/>
+      <c r="D285" s="75"/>
+      <c r="E285" s="75"/>
+      <c r="F285" s="41"/>
     </row>
     <row r="286" spans="1:6">
-      <c r="A286" s="58" t="s">
+      <c r="A286" s="59" t="s">
         <v>561</v>
       </c>
-      <c r="B286" s="42"/>
-      <c r="C286" s="42"/>
-      <c r="D286" s="42"/>
-      <c r="E286" s="42"/>
-      <c r="F286" s="43"/>
+      <c r="B286" s="43"/>
+      <c r="C286" s="43"/>
+      <c r="D286" s="43"/>
+      <c r="E286" s="43"/>
+      <c r="F286" s="44"/>
     </row>
     <row r="287" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A287" s="59" t="s">
+      <c r="A287" s="60" t="s">
         <v>568</v>
       </c>
-      <c r="B287" s="56"/>
-      <c r="C287" s="56"/>
-      <c r="D287" s="56"/>
-      <c r="E287" s="56"/>
-      <c r="F287" s="57"/>
+      <c r="B287" s="57"/>
+      <c r="C287" s="57"/>
+      <c r="D287" s="57"/>
+      <c r="E287" s="57"/>
+      <c r="F287" s="58"/>
     </row>
     <row r="288" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A288" s="73" t="s">
+      <c r="A288" s="74" t="s">
         <v>569</v>
       </c>
-      <c r="B288" s="74"/>
-      <c r="C288" s="74"/>
-      <c r="D288" s="74"/>
-      <c r="E288" s="74"/>
-      <c r="F288" s="40"/>
+      <c r="B288" s="75"/>
+      <c r="C288" s="75"/>
+      <c r="D288" s="75"/>
+      <c r="E288" s="75"/>
+      <c r="F288" s="41"/>
     </row>
     <row r="289" spans="1:6">
-      <c r="A289" s="58" t="s">
+      <c r="A289" s="59" t="s">
         <v>570</v>
       </c>
-      <c r="B289" s="42"/>
-      <c r="C289" s="42"/>
-      <c r="D289" s="42"/>
-      <c r="E289" s="42"/>
-      <c r="F289" s="43"/>
+      <c r="B289" s="43"/>
+      <c r="C289" s="43"/>
+      <c r="D289" s="43"/>
+      <c r="E289" s="43"/>
+      <c r="F289" s="44"/>
     </row>
     <row r="290" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A290" s="70" t="s">
+      <c r="A290" s="71" t="s">
         <v>571</v>
       </c>
-      <c r="B290" s="71"/>
-      <c r="C290" s="71"/>
-      <c r="D290" s="71"/>
-      <c r="E290" s="71"/>
-      <c r="F290" s="72"/>
+      <c r="B290" s="72"/>
+      <c r="C290" s="72"/>
+      <c r="D290" s="72"/>
+      <c r="E290" s="72"/>
+      <c r="F290" s="73"/>
     </row>
     <row r="291" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A291" s="70" t="s">
+      <c r="A291" s="71" t="s">
         <v>572</v>
       </c>
-      <c r="B291" s="71"/>
-      <c r="C291" s="71"/>
-      <c r="D291" s="71"/>
-      <c r="E291" s="71"/>
-      <c r="F291" s="72"/>
+      <c r="B291" s="72"/>
+      <c r="C291" s="72"/>
+      <c r="D291" s="72"/>
+      <c r="E291" s="72"/>
+      <c r="F291" s="73"/>
     </row>
     <row r="292" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A292" s="70" t="s">
+      <c r="A292" s="71" t="s">
         <v>573</v>
       </c>
-      <c r="B292" s="71"/>
-      <c r="C292" s="71"/>
-      <c r="D292" s="71"/>
-      <c r="E292" s="71"/>
-      <c r="F292" s="72"/>
+      <c r="B292" s="72"/>
+      <c r="C292" s="72"/>
+      <c r="D292" s="72"/>
+      <c r="E292" s="72"/>
+      <c r="F292" s="73"/>
     </row>
     <row r="293" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A293" s="59" t="s">
+      <c r="A293" s="60" t="s">
         <v>574</v>
       </c>
-      <c r="B293" s="56"/>
-      <c r="C293" s="56"/>
-      <c r="D293" s="56"/>
-      <c r="E293" s="56"/>
-      <c r="F293" s="57"/>
+      <c r="B293" s="57"/>
+      <c r="C293" s="57"/>
+      <c r="D293" s="57"/>
+      <c r="E293" s="57"/>
+      <c r="F293" s="58"/>
     </row>
     <row r="294" spans="1:6">
-      <c r="A294" s="58" t="s">
+      <c r="A294" s="59" t="s">
         <v>575</v>
       </c>
-      <c r="B294" s="42"/>
-      <c r="C294" s="42"/>
-      <c r="D294" s="42"/>
-      <c r="E294" s="42"/>
-      <c r="F294" s="43"/>
+      <c r="B294" s="43"/>
+      <c r="C294" s="43"/>
+      <c r="D294" s="43"/>
+      <c r="E294" s="43"/>
+      <c r="F294" s="44"/>
     </row>
     <row r="295" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A295" s="70" t="s">
+      <c r="A295" s="71" t="s">
         <v>576</v>
       </c>
-      <c r="B295" s="71"/>
-      <c r="C295" s="71"/>
-      <c r="D295" s="71"/>
-      <c r="E295" s="71"/>
-      <c r="F295" s="72"/>
+      <c r="B295" s="72"/>
+      <c r="C295" s="72"/>
+      <c r="D295" s="72"/>
+      <c r="E295" s="72"/>
+      <c r="F295" s="73"/>
     </row>
     <row r="296" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A296" s="70" t="s">
+      <c r="A296" s="71" t="s">
         <v>577</v>
       </c>
-      <c r="B296" s="71"/>
-      <c r="C296" s="71"/>
-      <c r="D296" s="71"/>
-      <c r="E296" s="71"/>
-      <c r="F296" s="72"/>
+      <c r="B296" s="72"/>
+      <c r="C296" s="72"/>
+      <c r="D296" s="72"/>
+      <c r="E296" s="72"/>
+      <c r="F296" s="73"/>
     </row>
     <row r="297" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A297" s="59" t="s">
+      <c r="A297" s="60" t="s">
         <v>578</v>
       </c>
-      <c r="B297" s="56"/>
-      <c r="C297" s="56"/>
-      <c r="D297" s="56"/>
-      <c r="E297" s="56"/>
-      <c r="F297" s="57"/>
+      <c r="B297" s="57"/>
+      <c r="C297" s="57"/>
+      <c r="D297" s="57"/>
+      <c r="E297" s="57"/>
+      <c r="F297" s="58"/>
     </row>
     <row r="298" spans="1:6">
-      <c r="A298" s="58" t="s">
+      <c r="A298" s="59" t="s">
         <v>579</v>
       </c>
-      <c r="B298" s="42"/>
-      <c r="C298" s="42"/>
-      <c r="D298" s="42"/>
-      <c r="E298" s="42"/>
-      <c r="F298" s="43"/>
+      <c r="B298" s="43"/>
+      <c r="C298" s="43"/>
+      <c r="D298" s="43"/>
+      <c r="E298" s="43"/>
+      <c r="F298" s="44"/>
     </row>
     <row r="299" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A299" s="70" t="s">
+      <c r="A299" s="71" t="s">
         <v>580</v>
       </c>
-      <c r="B299" s="71"/>
-      <c r="C299" s="71"/>
-      <c r="D299" s="71"/>
-      <c r="E299" s="71"/>
-      <c r="F299" s="72"/>
+      <c r="B299" s="72"/>
+      <c r="C299" s="72"/>
+      <c r="D299" s="72"/>
+      <c r="E299" s="72"/>
+      <c r="F299" s="73"/>
     </row>
     <row r="300" spans="1:6">
-      <c r="A300" s="70" t="s">
+      <c r="A300" s="71" t="s">
         <v>581</v>
       </c>
-      <c r="B300" s="71"/>
-      <c r="C300" s="71"/>
-      <c r="D300" s="71"/>
-      <c r="E300" s="71"/>
-      <c r="F300" s="72"/>
+      <c r="B300" s="72"/>
+      <c r="C300" s="72"/>
+      <c r="D300" s="72"/>
+      <c r="E300" s="72"/>
+      <c r="F300" s="73"/>
     </row>
     <row r="301" spans="1:6">
-      <c r="A301" s="59" t="s">
+      <c r="A301" s="60" t="s">
         <v>582</v>
       </c>
-      <c r="B301" s="56"/>
-      <c r="C301" s="56"/>
-      <c r="D301" s="56"/>
-      <c r="E301" s="56"/>
-      <c r="F301" s="57"/>
+      <c r="B301" s="57"/>
+      <c r="C301" s="57"/>
+      <c r="D301" s="57"/>
+      <c r="E301" s="57"/>
+      <c r="F301" s="58"/>
     </row>
     <row r="302" spans="1:6">
-      <c r="A302" s="58" t="s">
+      <c r="A302" s="59" t="s">
         <v>583</v>
       </c>
-      <c r="B302" s="42"/>
-      <c r="C302" s="42"/>
-      <c r="D302" s="42"/>
-      <c r="E302" s="42"/>
-      <c r="F302" s="43"/>
+      <c r="B302" s="43"/>
+      <c r="C302" s="43"/>
+      <c r="D302" s="43"/>
+      <c r="E302" s="43"/>
+      <c r="F302" s="44"/>
     </row>
     <row r="303" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A303" s="70" t="s">
+      <c r="A303" s="71" t="s">
         <v>584</v>
       </c>
-      <c r="B303" s="71"/>
-      <c r="C303" s="71"/>
-      <c r="D303" s="71"/>
-      <c r="E303" s="71"/>
-      <c r="F303" s="72"/>
+      <c r="B303" s="72"/>
+      <c r="C303" s="72"/>
+      <c r="D303" s="72"/>
+      <c r="E303" s="72"/>
+      <c r="F303" s="73"/>
     </row>
     <row r="304" spans="1:6">
-      <c r="A304" s="59" t="s">
+      <c r="A304" s="60" t="s">
         <v>585</v>
       </c>
-      <c r="B304" s="56"/>
-      <c r="C304" s="56"/>
-      <c r="D304" s="56"/>
-      <c r="E304" s="56"/>
-      <c r="F304" s="57"/>
+      <c r="B304" s="57"/>
+      <c r="C304" s="57"/>
+      <c r="D304" s="57"/>
+      <c r="E304" s="57"/>
+      <c r="F304" s="58"/>
     </row>
     <row r="305" spans="1:6">
-      <c r="A305" s="58" t="s">
+      <c r="A305" s="59" t="s">
         <v>586</v>
       </c>
-      <c r="B305" s="42"/>
-      <c r="C305" s="42"/>
-      <c r="D305" s="42"/>
-      <c r="E305" s="42"/>
-      <c r="F305" s="43"/>
+      <c r="B305" s="43"/>
+      <c r="C305" s="43"/>
+      <c r="D305" s="43"/>
+      <c r="E305" s="43"/>
+      <c r="F305" s="44"/>
     </row>
     <row r="306" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A306" s="70" t="s">
+      <c r="A306" s="71" t="s">
         <v>587</v>
       </c>
-      <c r="B306" s="71"/>
-      <c r="C306" s="71"/>
-      <c r="D306" s="71"/>
-      <c r="E306" s="71"/>
-      <c r="F306" s="72"/>
+      <c r="B306" s="72"/>
+      <c r="C306" s="72"/>
+      <c r="D306" s="72"/>
+      <c r="E306" s="72"/>
+      <c r="F306" s="73"/>
     </row>
     <row r="307" spans="1:6">
-      <c r="A307" s="59" t="s">
+      <c r="A307" s="60" t="s">
         <v>588</v>
       </c>
-      <c r="B307" s="56"/>
-      <c r="C307" s="56"/>
-      <c r="D307" s="56"/>
-      <c r="E307" s="56"/>
-      <c r="F307" s="57"/>
+      <c r="B307" s="57"/>
+      <c r="C307" s="57"/>
+      <c r="D307" s="57"/>
+      <c r="E307" s="57"/>
+      <c r="F307" s="58"/>
     </row>
     <row r="308" spans="1:6">
-      <c r="A308" s="58" t="s">
+      <c r="A308" s="59" t="s">
         <v>586</v>
       </c>
-      <c r="B308" s="42"/>
-      <c r="C308" s="42"/>
-      <c r="D308" s="42"/>
-      <c r="E308" s="42"/>
-      <c r="F308" s="43"/>
+      <c r="B308" s="43"/>
+      <c r="C308" s="43"/>
+      <c r="D308" s="43"/>
+      <c r="E308" s="43"/>
+      <c r="F308" s="44"/>
     </row>
     <row r="309" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A309" s="70" t="s">
+      <c r="A309" s="71" t="s">
         <v>589</v>
       </c>
-      <c r="B309" s="71"/>
-      <c r="C309" s="71"/>
-      <c r="D309" s="71"/>
-      <c r="E309" s="71"/>
-      <c r="F309" s="72"/>
+      <c r="B309" s="72"/>
+      <c r="C309" s="72"/>
+      <c r="D309" s="72"/>
+      <c r="E309" s="72"/>
+      <c r="F309" s="73"/>
     </row>
     <row r="310" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A310" s="70" t="s">
+      <c r="A310" s="71" t="s">
         <v>590</v>
       </c>
-      <c r="B310" s="71"/>
-      <c r="C310" s="71"/>
-      <c r="D310" s="71"/>
-      <c r="E310" s="71"/>
-      <c r="F310" s="72"/>
+      <c r="B310" s="72"/>
+      <c r="C310" s="72"/>
+      <c r="D310" s="72"/>
+      <c r="E310" s="72"/>
+      <c r="F310" s="73"/>
     </row>
     <row r="311" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A311" s="70" t="s">
+      <c r="A311" s="71" t="s">
         <v>591</v>
       </c>
-      <c r="B311" s="71"/>
-      <c r="C311" s="71"/>
-      <c r="D311" s="71"/>
-      <c r="E311" s="71"/>
-      <c r="F311" s="72"/>
+      <c r="B311" s="72"/>
+      <c r="C311" s="72"/>
+      <c r="D311" s="72"/>
+      <c r="E311" s="72"/>
+      <c r="F311" s="73"/>
     </row>
     <row r="312" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A312" s="70" t="s">
+      <c r="A312" s="71" t="s">
         <v>592</v>
       </c>
-      <c r="B312" s="71"/>
-      <c r="C312" s="71"/>
-      <c r="D312" s="71"/>
-      <c r="E312" s="71"/>
-      <c r="F312" s="72"/>
+      <c r="B312" s="72"/>
+      <c r="C312" s="72"/>
+      <c r="D312" s="72"/>
+      <c r="E312" s="72"/>
+      <c r="F312" s="73"/>
     </row>
     <row r="313" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A313" s="70" t="s">
+      <c r="A313" s="71" t="s">
         <v>593</v>
       </c>
-      <c r="B313" s="71"/>
-      <c r="C313" s="71"/>
-      <c r="D313" s="71"/>
-      <c r="E313" s="71"/>
-      <c r="F313" s="72"/>
+      <c r="B313" s="72"/>
+      <c r="C313" s="72"/>
+      <c r="D313" s="72"/>
+      <c r="E313" s="72"/>
+      <c r="F313" s="73"/>
     </row>
     <row r="314" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A314" s="70" t="s">
+      <c r="A314" s="71" t="s">
         <v>594</v>
       </c>
-      <c r="B314" s="71"/>
-      <c r="C314" s="71"/>
-      <c r="D314" s="71"/>
-      <c r="E314" s="71"/>
-      <c r="F314" s="72"/>
+      <c r="B314" s="72"/>
+      <c r="C314" s="72"/>
+      <c r="D314" s="72"/>
+      <c r="E314" s="72"/>
+      <c r="F314" s="73"/>
     </row>
     <row r="315" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A315" s="59" t="s">
+      <c r="A315" s="60" t="s">
         <v>595</v>
       </c>
-      <c r="B315" s="56"/>
-      <c r="C315" s="56"/>
-      <c r="D315" s="56"/>
-      <c r="E315" s="56"/>
-      <c r="F315" s="57"/>
+      <c r="B315" s="57"/>
+      <c r="C315" s="57"/>
+      <c r="D315" s="57"/>
+      <c r="E315" s="57"/>
+      <c r="F315" s="58"/>
     </row>
     <row r="316" spans="1:6">
-      <c r="A316" s="73" t="s">
+      <c r="A316" s="74" t="s">
         <v>596</v>
       </c>
-      <c r="B316" s="74"/>
-      <c r="C316" s="74"/>
-      <c r="D316" s="74"/>
-      <c r="E316" s="74"/>
-      <c r="F316" s="40"/>
+      <c r="B316" s="75"/>
+      <c r="C316" s="75"/>
+      <c r="D316" s="75"/>
+      <c r="E316" s="75"/>
+      <c r="F316" s="41"/>
     </row>
     <row r="317" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A317" s="58" t="s">
+      <c r="A317" s="59" t="s">
         <v>597</v>
       </c>
-      <c r="B317" s="42"/>
-      <c r="C317" s="42"/>
-      <c r="D317" s="42"/>
-      <c r="E317" s="42"/>
-      <c r="F317" s="43"/>
+      <c r="B317" s="43"/>
+      <c r="C317" s="43"/>
+      <c r="D317" s="43"/>
+      <c r="E317" s="43"/>
+      <c r="F317" s="44"/>
     </row>
     <row r="318" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A318" s="59" t="s">
+      <c r="A318" s="60" t="s">
         <v>598</v>
       </c>
-      <c r="B318" s="56"/>
-      <c r="C318" s="56"/>
-      <c r="D318" s="56"/>
-      <c r="E318" s="56"/>
-      <c r="F318" s="57"/>
+      <c r="B318" s="57"/>
+      <c r="C318" s="57"/>
+      <c r="D318" s="57"/>
+      <c r="E318" s="57"/>
+      <c r="F318" s="58"/>
     </row>
     <row r="319" spans="1:6">
-      <c r="A319" s="58" t="s">
+      <c r="A319" s="59" t="s">
         <v>599</v>
       </c>
-      <c r="B319" s="42"/>
-      <c r="C319" s="42"/>
-      <c r="D319" s="42"/>
-      <c r="E319" s="42"/>
-      <c r="F319" s="43"/>
+      <c r="B319" s="43"/>
+      <c r="C319" s="43"/>
+      <c r="D319" s="43"/>
+      <c r="E319" s="43"/>
+      <c r="F319" s="44"/>
     </row>
     <row r="320" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A320" s="59" t="s">
+      <c r="A320" s="60" t="s">
         <v>600</v>
       </c>
-      <c r="B320" s="56"/>
-      <c r="C320" s="56"/>
-      <c r="D320" s="56"/>
-      <c r="E320" s="56"/>
-      <c r="F320" s="57"/>
+      <c r="B320" s="57"/>
+      <c r="C320" s="57"/>
+      <c r="D320" s="57"/>
+      <c r="E320" s="57"/>
+      <c r="F320" s="58"/>
     </row>
     <row r="321" spans="1:6">
-      <c r="A321" s="58" t="s">
+      <c r="A321" s="59" t="s">
         <v>601</v>
       </c>
-      <c r="B321" s="42"/>
-      <c r="C321" s="42"/>
-      <c r="D321" s="42"/>
-      <c r="E321" s="42"/>
-      <c r="F321" s="43"/>
+      <c r="B321" s="43"/>
+      <c r="C321" s="43"/>
+      <c r="D321" s="43"/>
+      <c r="E321" s="43"/>
+      <c r="F321" s="44"/>
     </row>
     <row r="322" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A322" s="59" t="s">
+      <c r="A322" s="60" t="s">
         <v>602</v>
       </c>
-      <c r="B322" s="56"/>
-      <c r="C322" s="56"/>
-      <c r="D322" s="56"/>
-      <c r="E322" s="56"/>
-      <c r="F322" s="57"/>
+      <c r="B322" s="57"/>
+      <c r="C322" s="57"/>
+      <c r="D322" s="57"/>
+      <c r="E322" s="57"/>
+      <c r="F322" s="58"/>
     </row>
     <row r="323" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A323" s="73" t="s">
+      <c r="A323" s="74" t="s">
         <v>603</v>
       </c>
-      <c r="B323" s="74"/>
-      <c r="C323" s="74"/>
-      <c r="D323" s="74"/>
-      <c r="E323" s="74"/>
-      <c r="F323" s="40"/>
+      <c r="B323" s="75"/>
+      <c r="C323" s="75"/>
+      <c r="D323" s="75"/>
+      <c r="E323" s="75"/>
+      <c r="F323" s="41"/>
     </row>
     <row r="324" spans="1:6">
-      <c r="A324" s="73" t="s">
+      <c r="A324" s="74" t="s">
         <v>604</v>
       </c>
-      <c r="B324" s="74"/>
-      <c r="C324" s="74"/>
-      <c r="D324" s="74"/>
-      <c r="E324" s="74"/>
-      <c r="F324" s="40"/>
+      <c r="B324" s="75"/>
+      <c r="C324" s="75"/>
+      <c r="D324" s="75"/>
+      <c r="E324" s="75"/>
+      <c r="F324" s="41"/>
     </row>
     <row r="325" spans="1:6">
-      <c r="A325" s="73" t="s">
+      <c r="A325" s="74" t="s">
         <v>605</v>
       </c>
-      <c r="B325" s="74"/>
-      <c r="C325" s="74"/>
-      <c r="D325" s="74"/>
-      <c r="E325" s="74"/>
-      <c r="F325" s="40"/>
+      <c r="B325" s="75"/>
+      <c r="C325" s="75"/>
+      <c r="D325" s="75"/>
+      <c r="E325" s="75"/>
+      <c r="F325" s="41"/>
     </row>
     <row r="326" spans="1:6">
-      <c r="A326" s="58" t="s">
+      <c r="A326" s="59" t="s">
         <v>606</v>
       </c>
-      <c r="B326" s="42"/>
-      <c r="C326" s="42"/>
-      <c r="D326" s="42"/>
-      <c r="E326" s="42"/>
-      <c r="F326" s="43"/>
+      <c r="B326" s="43"/>
+      <c r="C326" s="43"/>
+      <c r="D326" s="43"/>
+      <c r="E326" s="43"/>
+      <c r="F326" s="44"/>
     </row>
     <row r="327" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A327" s="70" t="s">
+      <c r="A327" s="71" t="s">
         <v>607</v>
       </c>
-      <c r="B327" s="71"/>
-      <c r="C327" s="71"/>
-      <c r="D327" s="71"/>
-      <c r="E327" s="71"/>
-      <c r="F327" s="72"/>
+      <c r="B327" s="72"/>
+      <c r="C327" s="72"/>
+      <c r="D327" s="72"/>
+      <c r="E327" s="72"/>
+      <c r="F327" s="73"/>
     </row>
     <row r="328" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A328" s="59" t="s">
+      <c r="A328" s="60" t="s">
         <v>608</v>
       </c>
-      <c r="B328" s="56"/>
-      <c r="C328" s="56"/>
-      <c r="D328" s="56"/>
-      <c r="E328" s="56"/>
-      <c r="F328" s="57"/>
+      <c r="B328" s="57"/>
+      <c r="C328" s="57"/>
+      <c r="D328" s="57"/>
+      <c r="E328" s="57"/>
+      <c r="F328" s="58"/>
     </row>
     <row r="329" spans="1:6">
-      <c r="A329" s="58" t="s">
+      <c r="A329" s="59" t="s">
         <v>609</v>
       </c>
-      <c r="B329" s="42"/>
-      <c r="C329" s="42"/>
-      <c r="D329" s="42"/>
-      <c r="E329" s="42"/>
-      <c r="F329" s="43"/>
+      <c r="B329" s="43"/>
+      <c r="C329" s="43"/>
+      <c r="D329" s="43"/>
+      <c r="E329" s="43"/>
+      <c r="F329" s="44"/>
     </row>
     <row r="330" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A330" s="70" t="s">
+      <c r="A330" s="71" t="s">
         <v>610</v>
       </c>
-      <c r="B330" s="71"/>
-      <c r="C330" s="71"/>
-      <c r="D330" s="71"/>
-      <c r="E330" s="71"/>
-      <c r="F330" s="72"/>
+      <c r="B330" s="72"/>
+      <c r="C330" s="72"/>
+      <c r="D330" s="72"/>
+      <c r="E330" s="72"/>
+      <c r="F330" s="73"/>
     </row>
     <row r="331" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A331" s="70" t="s">
+      <c r="A331" s="71" t="s">
         <v>611</v>
       </c>
-      <c r="B331" s="71"/>
-      <c r="C331" s="71"/>
-      <c r="D331" s="71"/>
-      <c r="E331" s="71"/>
-      <c r="F331" s="72"/>
+      <c r="B331" s="72"/>
+      <c r="C331" s="72"/>
+      <c r="D331" s="72"/>
+      <c r="E331" s="72"/>
+      <c r="F331" s="73"/>
     </row>
     <row r="332" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A332" s="70" t="s">
+      <c r="A332" s="71" t="s">
         <v>612</v>
       </c>
-      <c r="B332" s="71"/>
-      <c r="C332" s="71"/>
-      <c r="D332" s="71"/>
-      <c r="E332" s="71"/>
-      <c r="F332" s="72"/>
+      <c r="B332" s="72"/>
+      <c r="C332" s="72"/>
+      <c r="D332" s="72"/>
+      <c r="E332" s="72"/>
+      <c r="F332" s="73"/>
     </row>
     <row r="333" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A333" s="59" t="s">
+      <c r="A333" s="60" t="s">
         <v>613</v>
       </c>
-      <c r="B333" s="56"/>
-      <c r="C333" s="56"/>
-      <c r="D333" s="56"/>
-      <c r="E333" s="56"/>
-      <c r="F333" s="57"/>
+      <c r="B333" s="57"/>
+      <c r="C333" s="57"/>
+      <c r="D333" s="57"/>
+      <c r="E333" s="57"/>
+      <c r="F333" s="58"/>
     </row>
     <row r="334" spans="1:6">
-      <c r="A334" s="58" t="s">
+      <c r="A334" s="59" t="s">
         <v>614</v>
       </c>
-      <c r="B334" s="42"/>
-      <c r="C334" s="42"/>
-      <c r="D334" s="42"/>
-      <c r="E334" s="42"/>
-      <c r="F334" s="43"/>
+      <c r="B334" s="43"/>
+      <c r="C334" s="43"/>
+      <c r="D334" s="43"/>
+      <c r="E334" s="43"/>
+      <c r="F334" s="44"/>
     </row>
     <row r="335" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A335" s="59" t="s">
+      <c r="A335" s="60" t="s">
         <v>615</v>
       </c>
-      <c r="B335" s="56"/>
-      <c r="C335" s="56"/>
-      <c r="D335" s="56"/>
-      <c r="E335" s="56"/>
-      <c r="F335" s="57"/>
+      <c r="B335" s="57"/>
+      <c r="C335" s="57"/>
+      <c r="D335" s="57"/>
+      <c r="E335" s="57"/>
+      <c r="F335" s="58"/>
     </row>
     <row r="336" spans="1:6">
-      <c r="A336" s="58" t="s">
+      <c r="A336" s="59" t="s">
         <v>616</v>
       </c>
-      <c r="B336" s="42"/>
-      <c r="C336" s="42"/>
-      <c r="D336" s="42"/>
-      <c r="E336" s="42"/>
-      <c r="F336" s="43"/>
+      <c r="B336" s="43"/>
+      <c r="C336" s="43"/>
+      <c r="D336" s="43"/>
+      <c r="E336" s="43"/>
+      <c r="F336" s="44"/>
     </row>
     <row r="337" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A337" s="70" t="s">
+      <c r="A337" s="71" t="s">
         <v>617</v>
       </c>
-      <c r="B337" s="71"/>
-      <c r="C337" s="71"/>
-      <c r="D337" s="71"/>
-      <c r="E337" s="71"/>
-      <c r="F337" s="72"/>
+      <c r="B337" s="72"/>
+      <c r="C337" s="72"/>
+      <c r="D337" s="72"/>
+      <c r="E337" s="72"/>
+      <c r="F337" s="73"/>
     </row>
     <row r="338" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A338" s="70" t="s">
+      <c r="A338" s="71" t="s">
         <v>618</v>
       </c>
-      <c r="B338" s="71"/>
-      <c r="C338" s="71"/>
-      <c r="D338" s="71"/>
-      <c r="E338" s="71"/>
-      <c r="F338" s="72"/>
+      <c r="B338" s="72"/>
+      <c r="C338" s="72"/>
+      <c r="D338" s="72"/>
+      <c r="E338" s="72"/>
+      <c r="F338" s="73"/>
     </row>
     <row r="339" spans="1:6">
-      <c r="A339" s="70" t="s">
+      <c r="A339" s="71" t="s">
         <v>619</v>
       </c>
-      <c r="B339" s="71"/>
-      <c r="C339" s="71"/>
-      <c r="D339" s="71"/>
-      <c r="E339" s="71"/>
-      <c r="F339" s="72"/>
+      <c r="B339" s="72"/>
+      <c r="C339" s="72"/>
+      <c r="D339" s="72"/>
+      <c r="E339" s="72"/>
+      <c r="F339" s="73"/>
     </row>
     <row r="340" spans="1:6">
-      <c r="A340" s="70" t="s">
+      <c r="A340" s="71" t="s">
         <v>620</v>
       </c>
-      <c r="B340" s="71"/>
-      <c r="C340" s="71"/>
-      <c r="D340" s="71"/>
-      <c r="E340" s="71"/>
-      <c r="F340" s="72"/>
+      <c r="B340" s="72"/>
+      <c r="C340" s="72"/>
+      <c r="D340" s="72"/>
+      <c r="E340" s="72"/>
+      <c r="F340" s="73"/>
     </row>
     <row r="341" spans="1:6">
-      <c r="A341" s="70" t="s">
+      <c r="A341" s="71" t="s">
         <v>621</v>
       </c>
-      <c r="B341" s="71"/>
-      <c r="C341" s="71"/>
-      <c r="D341" s="71"/>
-      <c r="E341" s="71"/>
-      <c r="F341" s="72"/>
+      <c r="B341" s="72"/>
+      <c r="C341" s="72"/>
+      <c r="D341" s="72"/>
+      <c r="E341" s="72"/>
+      <c r="F341" s="73"/>
     </row>
     <row r="342" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A342" s="59" t="s">
+      <c r="A342" s="60" t="s">
         <v>622</v>
       </c>
-      <c r="B342" s="56"/>
-      <c r="C342" s="56"/>
-      <c r="D342" s="56"/>
-      <c r="E342" s="56"/>
-      <c r="F342" s="57"/>
+      <c r="B342" s="57"/>
+      <c r="C342" s="57"/>
+      <c r="D342" s="57"/>
+      <c r="E342" s="57"/>
+      <c r="F342" s="58"/>
     </row>
     <row r="343" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A343" s="58" t="s">
+      <c r="A343" s="59" t="s">
         <v>623</v>
       </c>
-      <c r="B343" s="42"/>
-      <c r="C343" s="42"/>
-      <c r="D343" s="42"/>
-      <c r="E343" s="42"/>
-      <c r="F343" s="43"/>
+      <c r="B343" s="43"/>
+      <c r="C343" s="43"/>
+      <c r="D343" s="43"/>
+      <c r="E343" s="43"/>
+      <c r="F343" s="44"/>
     </row>
     <row r="344" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A344" s="59" t="s">
+      <c r="A344" s="60" t="s">
         <v>624</v>
       </c>
-      <c r="B344" s="56"/>
-      <c r="C344" s="56"/>
-      <c r="D344" s="56"/>
-      <c r="E344" s="56"/>
-      <c r="F344" s="57"/>
+      <c r="B344" s="57"/>
+      <c r="C344" s="57"/>
+      <c r="D344" s="57"/>
+      <c r="E344" s="57"/>
+      <c r="F344" s="58"/>
     </row>
     <row r="345" spans="1:6">
-      <c r="A345" s="58" t="s">
+      <c r="A345" s="59" t="s">
         <v>625</v>
       </c>
-      <c r="B345" s="42"/>
-      <c r="C345" s="42"/>
-      <c r="D345" s="42"/>
-      <c r="E345" s="42"/>
-      <c r="F345" s="43"/>
+      <c r="B345" s="43"/>
+      <c r="C345" s="43"/>
+      <c r="D345" s="43"/>
+      <c r="E345" s="43"/>
+      <c r="F345" s="44"/>
     </row>
     <row r="346" spans="1:6">
-      <c r="A346" s="70" t="s">
+      <c r="A346" s="71" t="s">
         <v>626</v>
       </c>
-      <c r="B346" s="71"/>
-      <c r="C346" s="71"/>
-      <c r="D346" s="71"/>
-      <c r="E346" s="71"/>
-      <c r="F346" s="72"/>
+      <c r="B346" s="72"/>
+      <c r="C346" s="72"/>
+      <c r="D346" s="72"/>
+      <c r="E346" s="72"/>
+      <c r="F346" s="73"/>
     </row>
     <row r="347" spans="1:6">
-      <c r="A347" s="70" t="s">
+      <c r="A347" s="71" t="s">
         <v>627</v>
       </c>
-      <c r="B347" s="71"/>
-      <c r="C347" s="71"/>
-      <c r="D347" s="71"/>
-      <c r="E347" s="71"/>
-      <c r="F347" s="72"/>
+      <c r="B347" s="72"/>
+      <c r="C347" s="72"/>
+      <c r="D347" s="72"/>
+      <c r="E347" s="72"/>
+      <c r="F347" s="73"/>
     </row>
     <row r="348" spans="1:6">
-      <c r="A348" s="70" t="s">
+      <c r="A348" s="71" t="s">
         <v>628</v>
       </c>
-      <c r="B348" s="71"/>
-      <c r="C348" s="71"/>
-      <c r="D348" s="71"/>
-      <c r="E348" s="71"/>
-      <c r="F348" s="72"/>
+      <c r="B348" s="72"/>
+      <c r="C348" s="72"/>
+      <c r="D348" s="72"/>
+      <c r="E348" s="72"/>
+      <c r="F348" s="73"/>
     </row>
     <row r="349" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A349" s="59" t="s">
+      <c r="A349" s="60" t="s">
         <v>629</v>
       </c>
-      <c r="B349" s="56"/>
-      <c r="C349" s="56"/>
-      <c r="D349" s="56"/>
-      <c r="E349" s="56"/>
-      <c r="F349" s="57"/>
+      <c r="B349" s="57"/>
+      <c r="C349" s="57"/>
+      <c r="D349" s="57"/>
+      <c r="E349" s="57"/>
+      <c r="F349" s="58"/>
     </row>
     <row r="350" spans="1:6">
-      <c r="A350" s="58" t="s">
+      <c r="A350" s="59" t="s">
         <v>630</v>
       </c>
-      <c r="B350" s="42"/>
-      <c r="C350" s="42"/>
-      <c r="D350" s="42"/>
-      <c r="E350" s="42"/>
-      <c r="F350" s="43"/>
+      <c r="B350" s="43"/>
+      <c r="C350" s="43"/>
+      <c r="D350" s="43"/>
+      <c r="E350" s="43"/>
+      <c r="F350" s="44"/>
     </row>
     <row r="351" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A351" s="59" t="s">
+      <c r="A351" s="60" t="s">
         <v>631</v>
       </c>
-      <c r="B351" s="56"/>
-      <c r="C351" s="56"/>
-      <c r="D351" s="56"/>
-      <c r="E351" s="56"/>
-      <c r="F351" s="57"/>
+      <c r="B351" s="57"/>
+      <c r="C351" s="57"/>
+      <c r="D351" s="57"/>
+      <c r="E351" s="57"/>
+      <c r="F351" s="58"/>
     </row>
     <row r="352" spans="1:6">
-      <c r="A352" s="58" t="s">
+      <c r="A352" s="59" t="s">
         <v>632</v>
       </c>
-      <c r="B352" s="42"/>
-      <c r="C352" s="42"/>
-      <c r="D352" s="42"/>
-      <c r="E352" s="42"/>
-      <c r="F352" s="43"/>
+      <c r="B352" s="43"/>
+      <c r="C352" s="43"/>
+      <c r="D352" s="43"/>
+      <c r="E352" s="43"/>
+      <c r="F352" s="44"/>
     </row>
     <row r="353" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A353" s="70" t="s">
+      <c r="A353" s="71" t="s">
         <v>633</v>
       </c>
-      <c r="B353" s="71"/>
-      <c r="C353" s="71"/>
-      <c r="D353" s="71"/>
-      <c r="E353" s="71"/>
-      <c r="F353" s="72"/>
+      <c r="B353" s="72"/>
+      <c r="C353" s="72"/>
+      <c r="D353" s="72"/>
+      <c r="E353" s="72"/>
+      <c r="F353" s="73"/>
     </row>
     <row r="354" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A354" s="70" t="s">
+      <c r="A354" s="71" t="s">
         <v>634</v>
       </c>
-      <c r="B354" s="71"/>
-      <c r="C354" s="71"/>
-      <c r="D354" s="71"/>
-      <c r="E354" s="71"/>
-      <c r="F354" s="72"/>
+      <c r="B354" s="72"/>
+      <c r="C354" s="72"/>
+      <c r="D354" s="72"/>
+      <c r="E354" s="72"/>
+      <c r="F354" s="73"/>
     </row>
     <row r="355" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A355" s="59" t="s">
+      <c r="A355" s="60" t="s">
         <v>635</v>
       </c>
-      <c r="B355" s="56"/>
-      <c r="C355" s="56"/>
-      <c r="D355" s="56"/>
-      <c r="E355" s="56"/>
-      <c r="F355" s="57"/>
+      <c r="B355" s="57"/>
+      <c r="C355" s="57"/>
+      <c r="D355" s="57"/>
+      <c r="E355" s="57"/>
+      <c r="F355" s="58"/>
     </row>
     <row r="356" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A356" s="58" t="s">
+      <c r="A356" s="59" t="s">
         <v>636</v>
       </c>
-      <c r="B356" s="42"/>
-      <c r="C356" s="42"/>
-      <c r="D356" s="42"/>
-      <c r="E356" s="42"/>
-      <c r="F356" s="43"/>
+      <c r="B356" s="43"/>
+      <c r="C356" s="43"/>
+      <c r="D356" s="43"/>
+      <c r="E356" s="43"/>
+      <c r="F356" s="44"/>
     </row>
     <row r="357" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A357" s="70" t="s">
+      <c r="A357" s="71" t="s">
         <v>637</v>
       </c>
-      <c r="B357" s="71"/>
-      <c r="C357" s="71"/>
-      <c r="D357" s="71"/>
-      <c r="E357" s="71"/>
-      <c r="F357" s="72"/>
+      <c r="B357" s="72"/>
+      <c r="C357" s="72"/>
+      <c r="D357" s="72"/>
+      <c r="E357" s="72"/>
+      <c r="F357" s="73"/>
     </row>
     <row r="358" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A358" s="70" t="s">
+      <c r="A358" s="71" t="s">
         <v>638</v>
       </c>
-      <c r="B358" s="71"/>
-      <c r="C358" s="71"/>
-      <c r="D358" s="71"/>
-      <c r="E358" s="71"/>
-      <c r="F358" s="72"/>
+      <c r="B358" s="72"/>
+      <c r="C358" s="72"/>
+      <c r="D358" s="72"/>
+      <c r="E358" s="72"/>
+      <c r="F358" s="73"/>
     </row>
     <row r="359" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A359" s="70" t="s">
+      <c r="A359" s="71" t="s">
         <v>639</v>
       </c>
-      <c r="B359" s="71"/>
-      <c r="C359" s="71"/>
-      <c r="D359" s="71"/>
-      <c r="E359" s="71"/>
-      <c r="F359" s="72"/>
+      <c r="B359" s="72"/>
+      <c r="C359" s="72"/>
+      <c r="D359" s="72"/>
+      <c r="E359" s="72"/>
+      <c r="F359" s="73"/>
     </row>
     <row r="360" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A360" s="59" t="s">
+      <c r="A360" s="60" t="s">
         <v>640</v>
       </c>
-      <c r="B360" s="56"/>
-      <c r="C360" s="56"/>
-      <c r="D360" s="56"/>
-      <c r="E360" s="56"/>
-      <c r="F360" s="57"/>
+      <c r="B360" s="57"/>
+      <c r="C360" s="57"/>
+      <c r="D360" s="57"/>
+      <c r="E360" s="57"/>
+      <c r="F360" s="58"/>
     </row>
     <row r="361" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A361" s="73" t="s">
+      <c r="A361" s="74" t="s">
         <v>641</v>
       </c>
-      <c r="B361" s="74"/>
-      <c r="C361" s="74"/>
-      <c r="D361" s="74"/>
-      <c r="E361" s="74"/>
-      <c r="F361" s="40"/>
+      <c r="B361" s="75"/>
+      <c r="C361" s="75"/>
+      <c r="D361" s="75"/>
+      <c r="E361" s="75"/>
+      <c r="F361" s="41"/>
     </row>
     <row r="362" spans="1:6">
-      <c r="A362" s="58" t="s">
+      <c r="A362" s="59" t="s">
         <v>642</v>
       </c>
-      <c r="B362" s="42"/>
-      <c r="C362" s="42"/>
-      <c r="D362" s="42"/>
-      <c r="E362" s="42"/>
-      <c r="F362" s="43"/>
+      <c r="B362" s="43"/>
+      <c r="C362" s="43"/>
+      <c r="D362" s="43"/>
+      <c r="E362" s="43"/>
+      <c r="F362" s="44"/>
     </row>
     <row r="363" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A363" s="59" t="s">
+      <c r="A363" s="60" t="s">
         <v>643</v>
       </c>
-      <c r="B363" s="56"/>
-      <c r="C363" s="56"/>
-      <c r="D363" s="56"/>
-      <c r="E363" s="56"/>
-      <c r="F363" s="57"/>
+      <c r="B363" s="57"/>
+      <c r="C363" s="57"/>
+      <c r="D363" s="57"/>
+      <c r="E363" s="57"/>
+      <c r="F363" s="58"/>
     </row>
     <row r="364" spans="1:6">
-      <c r="A364" s="58" t="s">
+      <c r="A364" s="59" t="s">
         <v>644</v>
       </c>
-      <c r="B364" s="42"/>
-      <c r="C364" s="42"/>
-      <c r="D364" s="42"/>
-      <c r="E364" s="42"/>
-      <c r="F364" s="43"/>
+      <c r="B364" s="43"/>
+      <c r="C364" s="43"/>
+      <c r="D364" s="43"/>
+      <c r="E364" s="43"/>
+      <c r="F364" s="44"/>
     </row>
     <row r="365" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A365" s="59" t="s">
+      <c r="A365" s="60" t="s">
         <v>645</v>
       </c>
-      <c r="B365" s="56"/>
-      <c r="C365" s="56"/>
-      <c r="D365" s="56"/>
-      <c r="E365" s="56"/>
-      <c r="F365" s="57"/>
+      <c r="B365" s="57"/>
+      <c r="C365" s="57"/>
+      <c r="D365" s="57"/>
+      <c r="E365" s="57"/>
+      <c r="F365" s="58"/>
     </row>
     <row r="366" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A366" s="60" t="s">
+      <c r="A366" s="61" t="s">
         <v>646</v>
       </c>
-      <c r="B366" s="61"/>
-      <c r="C366" s="61"/>
-      <c r="D366" s="61"/>
-      <c r="E366" s="61"/>
-      <c r="F366" s="62"/>
+      <c r="B366" s="62"/>
+      <c r="C366" s="62"/>
+      <c r="D366" s="62"/>
+      <c r="E366" s="62"/>
+      <c r="F366" s="63"/>
     </row>
     <row r="367" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A367" s="63"/>
-      <c r="B367" s="63"/>
-      <c r="C367" s="63"/>
-      <c r="D367" s="63"/>
-      <c r="E367" s="63"/>
-      <c r="F367" s="63"/>
+      <c r="A367" s="64"/>
+      <c r="B367" s="64"/>
+      <c r="C367" s="64"/>
+      <c r="D367" s="64"/>
+      <c r="E367" s="64"/>
+      <c r="F367" s="64"/>
     </row>
     <row r="368" spans="1:6">
-      <c r="A368" s="64" t="s">
+      <c r="A368" s="65" t="s">
         <v>647</v>
       </c>
-      <c r="B368" s="65"/>
-      <c r="C368" s="65"/>
-      <c r="D368" s="65"/>
-      <c r="E368" s="65"/>
-      <c r="F368" s="66"/>
+      <c r="B368" s="66"/>
+      <c r="C368" s="66"/>
+      <c r="D368" s="66"/>
+      <c r="E368" s="66"/>
+      <c r="F368" s="67"/>
     </row>
     <row r="369" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A369" s="67"/>
-      <c r="B369" s="68"/>
-      <c r="C369" s="68"/>
-      <c r="D369" s="68"/>
-      <c r="E369" s="68"/>
-      <c r="F369" s="69"/>
+      <c r="A369" s="68"/>
+      <c r="B369" s="69"/>
+      <c r="C369" s="69"/>
+      <c r="D369" s="69"/>
+      <c r="E369" s="69"/>
+      <c r="F369" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="204">
@@ -9622,8 +9756,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B356"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35:B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -10026,10 +10160,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -10099,6 +10233,22 @@
       </c>
       <c r="B8" t="s">
         <v>723</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>755</v>
+      </c>
+      <c r="B9" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>753</v>
+      </c>
+      <c r="B10" t="s">
+        <v>754</v>
       </c>
     </row>
   </sheetData>
@@ -10133,4 +10283,528 @@
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AJ34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="27.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:36">
+      <c r="D1" t="s">
+        <v>724</v>
+      </c>
+      <c r="E1" t="s">
+        <v>725</v>
+      </c>
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" t="s">
+        <v>726</v>
+      </c>
+      <c r="H1" t="s">
+        <v>756</v>
+      </c>
+      <c r="I1" t="s">
+        <v>727</v>
+      </c>
+      <c r="J1" t="s">
+        <v>728</v>
+      </c>
+      <c r="K1" t="s">
+        <v>729</v>
+      </c>
+      <c r="L1" t="s">
+        <v>730</v>
+      </c>
+      <c r="M1" t="s">
+        <v>731</v>
+      </c>
+      <c r="N1" t="s">
+        <v>732</v>
+      </c>
+      <c r="O1" t="s">
+        <v>733</v>
+      </c>
+      <c r="P1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>735</v>
+      </c>
+      <c r="R1" t="s">
+        <v>736</v>
+      </c>
+      <c r="S1" t="s">
+        <v>737</v>
+      </c>
+      <c r="T1" t="s">
+        <v>758</v>
+      </c>
+      <c r="U1" t="s">
+        <v>759</v>
+      </c>
+      <c r="V1" t="s">
+        <v>738</v>
+      </c>
+      <c r="W1" t="s">
+        <v>739</v>
+      </c>
+      <c r="X1" t="s">
+        <v>740</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>741</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>742</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>743</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>744</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>745</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>746</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>757</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>747</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>748</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>749</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>750</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="2" spans="1:36">
+      <c r="A2" t="s">
+        <v>724</v>
+      </c>
+      <c r="B2" s="38">
+        <v>39568</v>
+      </c>
+      <c r="D2" s="38">
+        <v>39568</v>
+      </c>
+      <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2" s="38">
+        <v>39538</v>
+      </c>
+      <c r="G2">
+        <v>3119001342</v>
+      </c>
+      <c r="H2" t="s">
+        <v>752</v>
+      </c>
+      <c r="I2">
+        <v>12008643072</v>
+      </c>
+      <c r="J2">
+        <v>17158303469</v>
+      </c>
+      <c r="K2" t="s">
+        <v>752</v>
+      </c>
+      <c r="L2">
+        <v>7728368585</v>
+      </c>
+      <c r="M2" t="s">
+        <v>752</v>
+      </c>
+      <c r="N2" t="s">
+        <v>752</v>
+      </c>
+      <c r="O2">
+        <v>3684352172</v>
+      </c>
+      <c r="P2">
+        <v>4329607579</v>
+      </c>
+      <c r="Q2">
+        <v>49867172</v>
+      </c>
+      <c r="R2">
+        <v>3119001342</v>
+      </c>
+      <c r="S2">
+        <v>1001924000</v>
+      </c>
+      <c r="T2" t="s">
+        <v>752</v>
+      </c>
+      <c r="U2" t="s">
+        <v>752</v>
+      </c>
+      <c r="V2">
+        <v>14041384000</v>
+      </c>
+      <c r="W2">
+        <v>48588082000</v>
+      </c>
+      <c r="X2" t="s">
+        <v>752</v>
+      </c>
+      <c r="Y2">
+        <v>395432539000</v>
+      </c>
+      <c r="Z2">
+        <v>409473923000</v>
+      </c>
+      <c r="AA2">
+        <v>3067998000</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <v>980</v>
+      </c>
+      <c r="AD2">
+        <v>980</v>
+      </c>
+      <c r="AE2">
+        <v>12684257.689999999</v>
+      </c>
+      <c r="AF2">
+        <v>7106094008</v>
+      </c>
+      <c r="AG2">
+        <v>287658610892</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>752</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>752</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="3" spans="1:36">
+      <c r="A3" t="s">
+        <v>725</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:36">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="38">
+        <v>39538</v>
+      </c>
+    </row>
+    <row r="5" spans="1:36">
+      <c r="A5" t="s">
+        <v>726</v>
+      </c>
+      <c r="B5">
+        <v>3119001342</v>
+      </c>
+    </row>
+    <row r="6" spans="1:36">
+      <c r="A6" t="s">
+        <v>756</v>
+      </c>
+      <c r="B6" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="7" spans="1:36">
+      <c r="A7" t="s">
+        <v>765</v>
+      </c>
+      <c r="B7">
+        <v>12008643072</v>
+      </c>
+    </row>
+    <row r="8" spans="1:36">
+      <c r="A8" t="s">
+        <v>728</v>
+      </c>
+      <c r="B8">
+        <v>17158303469</v>
+      </c>
+    </row>
+    <row r="9" spans="1:36">
+      <c r="A9" t="s">
+        <v>729</v>
+      </c>
+      <c r="B9" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="10" spans="1:36">
+      <c r="A10" t="s">
+        <v>730</v>
+      </c>
+      <c r="B10">
+        <v>7728368585</v>
+      </c>
+    </row>
+    <row r="11" spans="1:36">
+      <c r="A11" t="s">
+        <v>731</v>
+      </c>
+      <c r="B11" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="12" spans="1:36">
+      <c r="A12" t="s">
+        <v>732</v>
+      </c>
+      <c r="B12" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="13" spans="1:36">
+      <c r="A13" t="s">
+        <v>733</v>
+      </c>
+      <c r="B13">
+        <v>3684352172</v>
+      </c>
+    </row>
+    <row r="14" spans="1:36">
+      <c r="A14" t="s">
+        <v>734</v>
+      </c>
+      <c r="B14">
+        <v>4329607579</v>
+      </c>
+    </row>
+    <row r="15" spans="1:36">
+      <c r="A15" t="s">
+        <v>735</v>
+      </c>
+      <c r="B15">
+        <v>49867172</v>
+      </c>
+    </row>
+    <row r="16" spans="1:36">
+      <c r="A16" t="s">
+        <v>736</v>
+      </c>
+      <c r="B16">
+        <v>3119001342</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>737</v>
+      </c>
+      <c r="B17">
+        <v>1001924000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>758</v>
+      </c>
+      <c r="B18" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>759</v>
+      </c>
+      <c r="B19" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>738</v>
+      </c>
+      <c r="B20">
+        <v>14041384000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>739</v>
+      </c>
+      <c r="B21">
+        <v>48588082000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>740</v>
+      </c>
+      <c r="B22" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>741</v>
+      </c>
+      <c r="B23">
+        <v>395432539000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>742</v>
+      </c>
+      <c r="B24">
+        <v>409473923000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>743</v>
+      </c>
+      <c r="B25">
+        <v>3067998000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>744</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>745</v>
+      </c>
+      <c r="B27">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>746</v>
+      </c>
+      <c r="B28">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>757</v>
+      </c>
+      <c r="B29">
+        <v>12684257.689999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>747</v>
+      </c>
+      <c r="B30">
+        <v>7106094008</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>748</v>
+      </c>
+      <c r="B31">
+        <v>287658610892</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>749</v>
+      </c>
+      <c r="B32" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>750</v>
+      </c>
+      <c r="B33" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>751</v>
+      </c>
+      <c r="B34" t="s">
+        <v>752</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A1:A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>764</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/JY Fundamental Data 2017 10.xlsx
+++ b/JY Fundamental Data 2017 10.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="75" windowWidth="21495" windowHeight="10020" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="600" yWindow="75" windowWidth="21495" windowHeight="10020" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="MainIndexNew" sheetId="1" r:id="rId1"/>
@@ -14,13 +14,14 @@
     <sheet name="CashDividend" sheetId="5" r:id="rId5"/>
     <sheet name="列项" sheetId="6" r:id="rId6"/>
     <sheet name="Sheet1" sheetId="7" r:id="rId7"/>
+    <sheet name="异常状态" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1144" uniqueCount="766">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1144" uniqueCount="767">
   <si>
     <t>号</t>
   </si>
@@ -3169,6 +3170,10 @@
   </si>
   <si>
     <t>OperatingRevenueTTM</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>NPDeductNonRecurringPL_LY</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -9756,7 +9761,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B356"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B35" sqref="B35:B40"/>
     </sheetView>
   </sheetViews>
@@ -10289,8 +10294,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AJ34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -10628,7 +10633,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>758</v>
+        <v>766</v>
       </c>
       <c r="B18" t="s">
         <v>752</v>
@@ -10807,4 +10812,17 @@
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>